--- a/BIAN91CRCurrentAccount.xlsx
+++ b/BIAN91CRCurrentAccount.xlsx
@@ -5,12 +5,12 @@
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\32497\Dropbox\IAB\Envizion\bian\BIAN_Model\2test\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Program Files\CONVERTER\XMI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{69A0592E-9E2B-4143-B74A-C55AD6B5D836}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCDC249A-834D-4C56-8C21-1DD43ABD0DFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="66645" yWindow="3225" windowWidth="11040" windowHeight="6120" tabRatio="796" firstSheet="5" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="1920" windowWidth="23040" windowHeight="10008" tabRatio="796" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="XMI Structure" sheetId="32" r:id="rId1"/>
@@ -24,14 +24,6 @@
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-      </xcalcf:calcFeatures>
-    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -40,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4689" uniqueCount="811">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4690" uniqueCount="812">
   <si>
     <t>Description</t>
   </si>
@@ -2473,6 +2465,9 @@
   </si>
   <si>
     <t>referred class diagrams</t>
+  </si>
+  <si>
+    <t>ok</t>
   </si>
 </sst>
 </file>
@@ -3387,6 +3382,9 @@
     <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="201" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="202" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="201" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -3395,9 +3393,6 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="201" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="202" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="203">
@@ -4453,40 +4448,40 @@
   </sheetPr>
   <dimension ref="A1:O70"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="K22" sqref="K22:M22"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="A35" sqref="A35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.76171875" defaultRowHeight="12.3" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.76171875" style="14"/>
-    <col min="2" max="2" width="10.140625" style="14" customWidth="1"/>
-    <col min="3" max="7" width="8.76171875" style="14"/>
-    <col min="8" max="8" width="12.37890625" style="14" customWidth="1"/>
-    <col min="9" max="10" width="12.140625" style="14" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.234375" style="14" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.234375" style="14" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="10.234375" style="14" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.234375" style="14" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="8.76171875" style="14"/>
+    <col min="1" max="1" width="8.7265625" style="14"/>
+    <col min="2" max="2" width="10.1796875" style="14" customWidth="1"/>
+    <col min="3" max="7" width="8.7265625" style="14"/>
+    <col min="8" max="8" width="12.36328125" style="14" customWidth="1"/>
+    <col min="9" max="10" width="12.1796875" style="14" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.26953125" style="14" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.26953125" style="14" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="10.26953125" style="14" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.26953125" style="14" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="8.7265625" style="14"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" s="14" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" s="15" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B4" s="15" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B5" s="15"/>
       <c r="C5" s="14" t="s">
         <v>23</v>
@@ -4507,17 +4502,17 @@
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C6" s="15" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D7" s="15" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D8" s="15"/>
       <c r="E8" s="14" t="s">
         <v>23</v>
@@ -4544,7 +4539,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D9" s="15"/>
       <c r="E9" s="15" t="s">
         <v>66</v>
@@ -4552,7 +4547,7 @@
       <c r="G9" s="17"/>
       <c r="L9" s="17"/>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D10" s="15"/>
       <c r="F10" s="15" t="s">
         <v>67</v>
@@ -4560,19 +4555,19 @@
       <c r="G10" s="17"/>
       <c r="L10" s="17"/>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D11" s="15"/>
       <c r="G11" s="14" t="s">
         <v>23</v>
       </c>
       <c r="L11" s="17"/>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="E12" s="15" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="F13" s="14" t="s">
         <v>23</v>
       </c>
@@ -4582,12 +4577,12 @@
       </c>
       <c r="M13" s="17"/>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="F14" s="15" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="G15" s="14" t="s">
         <v>23</v>
       </c>
@@ -4597,37 +4592,37 @@
       </c>
       <c r="N15" s="17"/>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="G16" s="15" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="17" spans="4:14" x14ac:dyDescent="0.4">
+    <row r="17" spans="4:14" x14ac:dyDescent="0.2">
       <c r="H17" s="16" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="18" spans="4:14" x14ac:dyDescent="0.4">
+    <row r="18" spans="4:14" x14ac:dyDescent="0.2">
       <c r="G18" s="15" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="19" spans="4:14" x14ac:dyDescent="0.4">
+    <row r="19" spans="4:14" x14ac:dyDescent="0.2">
       <c r="H19" s="14" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="20" spans="4:14" x14ac:dyDescent="0.4">
+    <row r="20" spans="4:14" x14ac:dyDescent="0.2">
       <c r="E20" s="15" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="21" spans="4:14" x14ac:dyDescent="0.4">
+    <row r="21" spans="4:14" x14ac:dyDescent="0.2">
       <c r="F21" s="15" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="22" spans="4:14" x14ac:dyDescent="0.4">
+    <row r="22" spans="4:14" x14ac:dyDescent="0.2">
       <c r="G22" s="14" t="s">
         <v>23</v>
       </c>
@@ -4651,7 +4646,7 @@
       </c>
       <c r="N22" s="17"/>
     </row>
-    <row r="23" spans="4:14" x14ac:dyDescent="0.4">
+    <row r="23" spans="4:14" x14ac:dyDescent="0.2">
       <c r="G23" s="15" t="s">
         <v>50</v>
       </c>
@@ -4661,7 +4656,7 @@
       <c r="M23" s="16"/>
       <c r="N23" s="17"/>
     </row>
-    <row r="24" spans="4:14" x14ac:dyDescent="0.4">
+    <row r="24" spans="4:14" x14ac:dyDescent="0.2">
       <c r="H24" s="18" t="str">
         <f>E64</f>
         <v>UML:Multiplicity</v>
@@ -4672,7 +4667,7 @@
       <c r="M24" s="16"/>
       <c r="N24" s="17"/>
     </row>
-    <row r="25" spans="4:14" x14ac:dyDescent="0.4">
+    <row r="25" spans="4:14" x14ac:dyDescent="0.2">
       <c r="G25" s="18" t="str">
         <f>E12</f>
         <v>UML:ModelElement.taggedValue *</v>
@@ -4683,7 +4678,7 @@
       <c r="M25" s="16"/>
       <c r="N25" s="17"/>
     </row>
-    <row r="26" spans="4:14" x14ac:dyDescent="0.4">
+    <row r="26" spans="4:14" x14ac:dyDescent="0.2">
       <c r="G26" s="15" t="s">
         <v>51</v>
       </c>
@@ -4693,7 +4688,7 @@
       <c r="M26" s="16"/>
       <c r="N26" s="17"/>
     </row>
-    <row r="27" spans="4:14" x14ac:dyDescent="0.4">
+    <row r="27" spans="4:14" x14ac:dyDescent="0.2">
       <c r="G27" s="18"/>
       <c r="H27" s="18" t="s">
         <v>41</v>
@@ -4704,7 +4699,7 @@
       <c r="M27" s="16"/>
       <c r="N27" s="17"/>
     </row>
-    <row r="28" spans="4:14" x14ac:dyDescent="0.4">
+    <row r="28" spans="4:14" x14ac:dyDescent="0.2">
       <c r="G28" s="18"/>
       <c r="H28" s="18"/>
       <c r="I28" s="16" t="s">
@@ -4715,7 +4710,7 @@
       <c r="M28" s="16"/>
       <c r="N28" s="17"/>
     </row>
-    <row r="29" spans="4:14" x14ac:dyDescent="0.4">
+    <row r="29" spans="4:14" x14ac:dyDescent="0.2">
       <c r="D29" s="15" t="s">
         <v>68</v>
       </c>
@@ -4727,7 +4722,7 @@
       <c r="M29" s="16"/>
       <c r="N29" s="17"/>
     </row>
-    <row r="30" spans="4:14" x14ac:dyDescent="0.4">
+    <row r="30" spans="4:14" x14ac:dyDescent="0.2">
       <c r="E30" s="14" t="s">
         <v>23</v>
       </c>
@@ -4742,7 +4737,7 @@
       <c r="M30" s="16"/>
       <c r="N30" s="17"/>
     </row>
-    <row r="31" spans="4:14" x14ac:dyDescent="0.4">
+    <row r="31" spans="4:14" x14ac:dyDescent="0.2">
       <c r="E31" s="15" t="s">
         <v>69</v>
       </c>
@@ -4754,7 +4749,7 @@
       <c r="M31" s="16"/>
       <c r="N31" s="17"/>
     </row>
-    <row r="32" spans="4:14" x14ac:dyDescent="0.4">
+    <row r="32" spans="4:14" x14ac:dyDescent="0.2">
       <c r="F32" s="14" t="s">
         <v>23</v>
       </c>
@@ -4766,7 +4761,7 @@
       <c r="M32" s="16"/>
       <c r="N32" s="17"/>
     </row>
-    <row r="33" spans="4:14" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
       <c r="E33" s="15" t="s">
         <v>70</v>
       </c>
@@ -4778,7 +4773,7 @@
       <c r="M33" s="16"/>
       <c r="N33" s="17"/>
     </row>
-    <row r="34" spans="4:14" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
       <c r="F34" s="14" t="s">
         <v>23</v>
       </c>
@@ -4790,7 +4785,10 @@
       <c r="M34" s="16"/>
       <c r="N34" s="17"/>
     </row>
-    <row r="35" spans="4:14" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A35" s="14" t="s">
+        <v>811</v>
+      </c>
       <c r="G35" s="18"/>
       <c r="H35" s="18"/>
       <c r="I35" s="16"/>
@@ -4799,7 +4797,7 @@
       <c r="M35" s="16"/>
       <c r="N35" s="17"/>
     </row>
-    <row r="36" spans="4:14" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
       <c r="G36" s="18"/>
       <c r="H36" s="18"/>
       <c r="I36" s="16"/>
@@ -4808,7 +4806,7 @@
       <c r="M36" s="16"/>
       <c r="N36" s="17"/>
     </row>
-    <row r="37" spans="4:14" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D37" s="15" t="s">
         <v>53</v>
       </c>
@@ -4820,7 +4818,7 @@
       <c r="M37" s="16"/>
       <c r="N37" s="17"/>
     </row>
-    <row r="38" spans="4:14" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
       <c r="E38" s="14" t="s">
         <v>23</v>
       </c>
@@ -4844,14 +4842,14 @@
       <c r="M38" s="16"/>
       <c r="N38" s="17"/>
     </row>
-    <row r="39" spans="4:14" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
       <c r="E39" s="15" t="s">
         <v>35</v>
       </c>
       <c r="M39" s="16"/>
       <c r="N39" s="17"/>
     </row>
-    <row r="40" spans="4:14" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
       <c r="F40" s="14" t="s">
         <v>23</v>
       </c>
@@ -4862,14 +4860,14 @@
       <c r="M40" s="16"/>
       <c r="N40" s="17"/>
     </row>
-    <row r="41" spans="4:14" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.2">
       <c r="F41" s="15" t="s">
         <v>32</v>
       </c>
       <c r="M41" s="16"/>
       <c r="N41" s="17"/>
     </row>
-    <row r="42" spans="4:14" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
       <c r="G42" s="14" t="s">
         <v>23</v>
       </c>
@@ -4880,44 +4878,44 @@
       <c r="M42" s="16"/>
       <c r="N42" s="17"/>
     </row>
-    <row r="43" spans="4:14" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.2">
       <c r="G43" s="15" t="s">
         <v>33</v>
       </c>
       <c r="M43" s="16"/>
       <c r="N43" s="17"/>
     </row>
-    <row r="44" spans="4:14" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.2">
       <c r="H44" s="16" t="s">
         <v>45</v>
       </c>
       <c r="M44" s="16"/>
       <c r="N44" s="17"/>
     </row>
-    <row r="45" spans="4:14" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.2">
       <c r="G45" s="15" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="46" spans="4:14" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.2">
       <c r="G46" s="15"/>
       <c r="H46" s="14" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="47" spans="4:14" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.2">
       <c r="E47" s="15" t="s">
         <v>55</v>
       </c>
       <c r="G47" s="15"/>
     </row>
-    <row r="48" spans="4:14" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.2">
       <c r="F48" s="15" t="s">
         <v>56</v>
       </c>
       <c r="G48" s="15"/>
     </row>
-    <row r="49" spans="4:15" x14ac:dyDescent="0.4">
+    <row r="49" spans="4:15" x14ac:dyDescent="0.2">
       <c r="G49" s="14" t="s">
         <v>23</v>
       </c>
@@ -4946,23 +4944,23 @@
         <v>48</v>
       </c>
     </row>
-    <row r="50" spans="4:15" x14ac:dyDescent="0.4">
+    <row r="50" spans="4:15" x14ac:dyDescent="0.2">
       <c r="G50" s="15" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="51" spans="4:15" x14ac:dyDescent="0.4">
+    <row r="51" spans="4:15" x14ac:dyDescent="0.2">
       <c r="G51" s="15"/>
       <c r="H51" s="18" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="52" spans="4:15" x14ac:dyDescent="0.4">
+    <row r="52" spans="4:15" x14ac:dyDescent="0.2">
       <c r="G52" s="15" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="53" spans="4:15" x14ac:dyDescent="0.4">
+    <row r="53" spans="4:15" x14ac:dyDescent="0.2">
       <c r="G53" s="15"/>
       <c r="H53" s="16" t="s">
         <v>62</v>
@@ -4971,16 +4969,16 @@
         <v>23</v>
       </c>
     </row>
-    <row r="54" spans="4:15" x14ac:dyDescent="0.4">
+    <row r="54" spans="4:15" x14ac:dyDescent="0.2">
       <c r="G54" s="15"/>
     </row>
-    <row r="55" spans="4:15" x14ac:dyDescent="0.4">
+    <row r="55" spans="4:15" x14ac:dyDescent="0.2">
       <c r="D55" s="15" t="s">
         <v>63</v>
       </c>
       <c r="G55" s="15"/>
     </row>
-    <row r="56" spans="4:15" x14ac:dyDescent="0.4">
+    <row r="56" spans="4:15" x14ac:dyDescent="0.2">
       <c r="E56" s="14" t="s">
         <v>23</v>
       </c>
@@ -5001,19 +4999,19 @@
         <v>28</v>
       </c>
     </row>
-    <row r="57" spans="4:15" x14ac:dyDescent="0.4">
+    <row r="57" spans="4:15" x14ac:dyDescent="0.2">
       <c r="E57" s="15" t="s">
         <v>64</v>
       </c>
       <c r="G57" s="15"/>
     </row>
-    <row r="58" spans="4:15" x14ac:dyDescent="0.4">
+    <row r="58" spans="4:15" x14ac:dyDescent="0.2">
       <c r="F58" s="15" t="s">
         <v>65</v>
       </c>
       <c r="G58" s="15"/>
     </row>
-    <row r="59" spans="4:15" x14ac:dyDescent="0.4">
+    <row r="59" spans="4:15" x14ac:dyDescent="0.2">
       <c r="G59" s="14" t="s">
         <v>23</v>
       </c>
@@ -5024,18 +5022,18 @@
         <v>25</v>
       </c>
     </row>
-    <row r="60" spans="4:15" x14ac:dyDescent="0.4">
+    <row r="60" spans="4:15" x14ac:dyDescent="0.2">
       <c r="G60" s="15"/>
     </row>
-    <row r="61" spans="4:15" x14ac:dyDescent="0.4">
+    <row r="61" spans="4:15" x14ac:dyDescent="0.2">
       <c r="G61" s="15"/>
     </row>
-    <row r="62" spans="4:15" x14ac:dyDescent="0.4">
+    <row r="62" spans="4:15" x14ac:dyDescent="0.2">
       <c r="D62" s="15" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="63" spans="4:15" x14ac:dyDescent="0.4">
+    <row r="63" spans="4:15" x14ac:dyDescent="0.2">
       <c r="E63" s="14" t="s">
         <v>23</v>
       </c>
@@ -5048,22 +5046,22 @@
       </c>
       <c r="L63" s="17"/>
     </row>
-    <row r="64" spans="4:15" x14ac:dyDescent="0.4">
+    <row r="64" spans="4:15" x14ac:dyDescent="0.2">
       <c r="E64" s="15" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="65" spans="4:12" x14ac:dyDescent="0.4">
+    <row r="65" spans="4:12" x14ac:dyDescent="0.2">
       <c r="F65" s="16" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="66" spans="4:12" x14ac:dyDescent="0.4">
+    <row r="66" spans="4:12" x14ac:dyDescent="0.2">
       <c r="F66" s="15" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="67" spans="4:12" x14ac:dyDescent="0.4">
+    <row r="67" spans="4:12" x14ac:dyDescent="0.2">
       <c r="G67" s="16" t="s">
         <v>23</v>
       </c>
@@ -5074,12 +5072,12 @@
         <v>40</v>
       </c>
     </row>
-    <row r="69" spans="4:12" x14ac:dyDescent="0.4">
+    <row r="69" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D69" s="15" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="70" spans="4:12" x14ac:dyDescent="0.4">
+    <row r="70" spans="4:12" x14ac:dyDescent="0.2">
       <c r="E70" s="14" t="s">
         <v>23</v>
       </c>
@@ -5113,30 +5111,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{181CBE01-A132-4622-968D-AEA8523FD87F}">
   <dimension ref="A1:G324"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView topLeftCell="A203" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
+      <selection activeCell="D212" sqref="D212"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.76171875" defaultRowHeight="15.6" x14ac:dyDescent="0.6"/>
+  <sheetFormatPr defaultColWidth="10.7265625" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.47265625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="4" width="21.47265625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="21.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="21.453125" style="1" customWidth="1"/>
     <col min="5" max="5" width="22" style="2" customWidth="1"/>
-    <col min="6" max="6" width="35.37890625" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="10.76171875" style="1"/>
+    <col min="6" max="6" width="35.36328125" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="10.7265625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="24.3" x14ac:dyDescent="0.7">
-      <c r="A1" s="28" t="s">
+    <row r="1" spans="1:7" ht="24.6" x14ac:dyDescent="0.4">
+      <c r="A1" s="29" t="s">
         <v>112</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
-    </row>
-    <row r="2" spans="1:7" ht="29.4" x14ac:dyDescent="0.4">
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+    </row>
+    <row r="2" spans="1:7" ht="32.4" x14ac:dyDescent="0.2">
       <c r="A2" s="25" t="s">
         <v>103</v>
       </c>
@@ -5156,7 +5154,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:7" s="7" customFormat="1" ht="24.6" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:7" s="7" customFormat="1" ht="25.2" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
         <v>113</v>
       </c>
@@ -5177,7 +5175,7 @@
       </c>
       <c r="G3" s="9"/>
     </row>
-    <row r="4" spans="1:7" ht="25.8" x14ac:dyDescent="0.6">
+    <row r="4" spans="1:7" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>119</v>
       </c>
@@ -5197,7 +5195,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="25.8" x14ac:dyDescent="0.6">
+    <row r="5" spans="1:7" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>121</v>
       </c>
@@ -5217,7 +5215,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="25.8" x14ac:dyDescent="0.6">
+    <row r="6" spans="1:7" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>124</v>
       </c>
@@ -5237,7 +5235,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="25.8" x14ac:dyDescent="0.6">
+    <row r="7" spans="1:7" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>127</v>
       </c>
@@ -5257,7 +5255,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="25.8" x14ac:dyDescent="0.6">
+    <row r="8" spans="1:7" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>130</v>
       </c>
@@ -5277,7 +5275,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="25.8" x14ac:dyDescent="0.6">
+    <row r="9" spans="1:7" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>132</v>
       </c>
@@ -5297,7 +5295,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="25.8" x14ac:dyDescent="0.6">
+    <row r="10" spans="1:7" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>134</v>
       </c>
@@ -5317,7 +5315,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="25.8" x14ac:dyDescent="0.6">
+    <row r="11" spans="1:7" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>136</v>
       </c>
@@ -5337,7 +5335,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="25.8" x14ac:dyDescent="0.6">
+    <row r="12" spans="1:7" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A12" s="13" t="s">
         <v>138</v>
       </c>
@@ -5350,14 +5348,14 @@
       <c r="D12" s="13" t="s">
         <v>124</v>
       </c>
-      <c r="E12" s="31" t="s">
+      <c r="E12" s="28" t="s">
         <v>125</v>
       </c>
       <c r="F12" s="13" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="25.8" x14ac:dyDescent="0.6">
+    <row r="13" spans="1:7" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A13" s="13" t="s">
         <v>140</v>
       </c>
@@ -5370,14 +5368,14 @@
       <c r="D13" s="13" t="s">
         <v>124</v>
       </c>
-      <c r="E13" s="31" t="s">
+      <c r="E13" s="28" t="s">
         <v>125</v>
       </c>
       <c r="F13" s="13" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="25.8" x14ac:dyDescent="0.6">
+    <row r="14" spans="1:7" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A14" s="13" t="s">
         <v>142</v>
       </c>
@@ -5390,14 +5388,14 @@
       <c r="D14" s="13" t="s">
         <v>124</v>
       </c>
-      <c r="E14" s="31" t="s">
+      <c r="E14" s="28" t="s">
         <v>125</v>
       </c>
       <c r="F14" s="13" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="25.8" x14ac:dyDescent="0.6">
+    <row r="15" spans="1:7" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A15" s="13" t="s">
         <v>144</v>
       </c>
@@ -5410,14 +5408,14 @@
       <c r="D15" s="13" t="s">
         <v>121</v>
       </c>
-      <c r="E15" s="31" t="s">
+      <c r="E15" s="28" t="s">
         <v>122</v>
       </c>
       <c r="F15" s="13" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="25.8" x14ac:dyDescent="0.6">
+    <row r="16" spans="1:7" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A16" s="13" t="s">
         <v>146</v>
       </c>
@@ -5430,14 +5428,14 @@
       <c r="D16" s="13" t="s">
         <v>144</v>
       </c>
-      <c r="E16" s="31" t="s">
+      <c r="E16" s="28" t="s">
         <v>125</v>
       </c>
       <c r="F16" s="13" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="25.8" x14ac:dyDescent="0.6">
+    <row r="17" spans="1:6" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A17" s="13" t="s">
         <v>148</v>
       </c>
@@ -5450,14 +5448,14 @@
       <c r="D17" s="13" t="s">
         <v>144</v>
       </c>
-      <c r="E17" s="31" t="s">
+      <c r="E17" s="28" t="s">
         <v>125</v>
       </c>
       <c r="F17" s="13" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="25.8" x14ac:dyDescent="0.6">
+    <row r="18" spans="1:6" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A18" s="13" t="s">
         <v>150</v>
       </c>
@@ -5470,14 +5468,14 @@
       <c r="D18" s="13" t="s">
         <v>144</v>
       </c>
-      <c r="E18" s="31" t="s">
+      <c r="E18" s="28" t="s">
         <v>125</v>
       </c>
       <c r="F18" s="13" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="25.8" x14ac:dyDescent="0.6">
+    <row r="19" spans="1:6" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A19" s="13" t="s">
         <v>152</v>
       </c>
@@ -5490,14 +5488,14 @@
       <c r="D19" s="13" t="s">
         <v>144</v>
       </c>
-      <c r="E19" s="31" t="s">
+      <c r="E19" s="28" t="s">
         <v>125</v>
       </c>
       <c r="F19" s="13" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="25.8" x14ac:dyDescent="0.6">
+    <row r="20" spans="1:6" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A20" s="13" t="s">
         <v>154</v>
       </c>
@@ -5510,14 +5508,14 @@
       <c r="D20" s="13" t="s">
         <v>144</v>
       </c>
-      <c r="E20" s="31" t="s">
+      <c r="E20" s="28" t="s">
         <v>125</v>
       </c>
       <c r="F20" s="13" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="25.8" x14ac:dyDescent="0.6">
+    <row r="21" spans="1:6" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A21" s="13" t="s">
         <v>156</v>
       </c>
@@ -5530,14 +5528,14 @@
       <c r="D21" s="13" t="s">
         <v>144</v>
       </c>
-      <c r="E21" s="31" t="s">
+      <c r="E21" s="28" t="s">
         <v>125</v>
       </c>
       <c r="F21" s="13" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="38.1" x14ac:dyDescent="0.6">
+    <row r="22" spans="1:6" ht="39" x14ac:dyDescent="0.3">
       <c r="A22" s="13" t="s">
         <v>158</v>
       </c>
@@ -5550,14 +5548,14 @@
       <c r="D22" s="13" t="s">
         <v>144</v>
       </c>
-      <c r="E22" s="31" t="s">
+      <c r="E22" s="28" t="s">
         <v>125</v>
       </c>
       <c r="F22" s="13" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="25.8" x14ac:dyDescent="0.6">
+    <row r="23" spans="1:6" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A23" s="13" t="s">
         <v>160</v>
       </c>
@@ -5570,14 +5568,14 @@
       <c r="D23" s="13" t="s">
         <v>144</v>
       </c>
-      <c r="E23" s="31" t="s">
+      <c r="E23" s="28" t="s">
         <v>125</v>
       </c>
       <c r="F23" s="13" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="25.8" x14ac:dyDescent="0.6">
+    <row r="24" spans="1:6" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A24" s="13" t="s">
         <v>162</v>
       </c>
@@ -5590,14 +5588,14 @@
       <c r="D24" s="13" t="s">
         <v>144</v>
       </c>
-      <c r="E24" s="31" t="s">
+      <c r="E24" s="28" t="s">
         <v>125</v>
       </c>
       <c r="F24" s="13" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="25.8" x14ac:dyDescent="0.6">
+    <row r="25" spans="1:6" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A25" s="13" t="s">
         <v>164</v>
       </c>
@@ -5610,14 +5608,14 @@
       <c r="D25" s="13" t="s">
         <v>144</v>
       </c>
-      <c r="E25" s="31" t="s">
+      <c r="E25" s="28" t="s">
         <v>125</v>
       </c>
       <c r="F25" s="13" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="25.8" x14ac:dyDescent="0.6">
+    <row r="26" spans="1:6" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A26" s="13" t="s">
         <v>166</v>
       </c>
@@ -5630,14 +5628,14 @@
       <c r="D26" s="13" t="s">
         <v>144</v>
       </c>
-      <c r="E26" s="31" t="s">
+      <c r="E26" s="28" t="s">
         <v>125</v>
       </c>
       <c r="F26" s="13" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="25.8" x14ac:dyDescent="0.6">
+    <row r="27" spans="1:6" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A27" s="13" t="s">
         <v>168</v>
       </c>
@@ -5650,14 +5648,14 @@
       <c r="D27" s="13" t="s">
         <v>144</v>
       </c>
-      <c r="E27" s="31" t="s">
+      <c r="E27" s="28" t="s">
         <v>125</v>
       </c>
       <c r="F27" s="13" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="25.8" x14ac:dyDescent="0.6">
+    <row r="28" spans="1:6" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A28" s="13" t="s">
         <v>170</v>
       </c>
@@ -5670,14 +5668,14 @@
       <c r="D28" s="13" t="s">
         <v>144</v>
       </c>
-      <c r="E28" s="31" t="s">
+      <c r="E28" s="28" t="s">
         <v>125</v>
       </c>
       <c r="F28" s="13" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="25.8" x14ac:dyDescent="0.6">
+    <row r="29" spans="1:6" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A29" s="13" t="s">
         <v>172</v>
       </c>
@@ -5690,14 +5688,14 @@
       <c r="D29" s="13" t="s">
         <v>144</v>
       </c>
-      <c r="E29" s="31" t="s">
+      <c r="E29" s="28" t="s">
         <v>125</v>
       </c>
       <c r="F29" s="13" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="25.8" x14ac:dyDescent="0.6">
+    <row r="30" spans="1:6" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A30" s="13" t="s">
         <v>174</v>
       </c>
@@ -5710,14 +5708,14 @@
       <c r="D30" s="13" t="s">
         <v>144</v>
       </c>
-      <c r="E30" s="31" t="s">
+      <c r="E30" s="28" t="s">
         <v>125</v>
       </c>
       <c r="F30" s="13" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="25.8" x14ac:dyDescent="0.6">
+    <row r="31" spans="1:6" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A31" s="13" t="s">
         <v>176</v>
       </c>
@@ -5730,14 +5728,14 @@
       <c r="D31" s="13" t="s">
         <v>144</v>
       </c>
-      <c r="E31" s="31" t="s">
+      <c r="E31" s="28" t="s">
         <v>125</v>
       </c>
       <c r="F31" s="13" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="25.8" x14ac:dyDescent="0.6">
+    <row r="32" spans="1:6" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A32" s="13" t="s">
         <v>178</v>
       </c>
@@ -5750,14 +5748,14 @@
       <c r="D32" s="13" t="s">
         <v>144</v>
       </c>
-      <c r="E32" s="31" t="s">
+      <c r="E32" s="28" t="s">
         <v>125</v>
       </c>
       <c r="F32" s="13" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="25.8" x14ac:dyDescent="0.6">
+    <row r="33" spans="1:6" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A33" s="13" t="s">
         <v>180</v>
       </c>
@@ -5770,14 +5768,14 @@
       <c r="D33" s="13" t="s">
         <v>144</v>
       </c>
-      <c r="E33" s="31" t="s">
+      <c r="E33" s="28" t="s">
         <v>125</v>
       </c>
       <c r="F33" s="13" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="25.8" x14ac:dyDescent="0.6">
+    <row r="34" spans="1:6" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A34" s="13" t="s">
         <v>182</v>
       </c>
@@ -5790,14 +5788,14 @@
       <c r="D34" s="13" t="s">
         <v>144</v>
       </c>
-      <c r="E34" s="31" t="s">
+      <c r="E34" s="28" t="s">
         <v>125</v>
       </c>
       <c r="F34" s="13" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="25.8" x14ac:dyDescent="0.6">
+    <row r="35" spans="1:6" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A35" s="13" t="s">
         <v>184</v>
       </c>
@@ -5810,14 +5808,14 @@
       <c r="D35" s="13" t="s">
         <v>144</v>
       </c>
-      <c r="E35" s="31" t="s">
+      <c r="E35" s="28" t="s">
         <v>125</v>
       </c>
       <c r="F35" s="13" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="25.8" x14ac:dyDescent="0.6">
+    <row r="36" spans="1:6" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A36" s="13" t="s">
         <v>186</v>
       </c>
@@ -5830,14 +5828,14 @@
       <c r="D36" s="13" t="s">
         <v>144</v>
       </c>
-      <c r="E36" s="31" t="s">
+      <c r="E36" s="28" t="s">
         <v>125</v>
       </c>
       <c r="F36" s="13" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="25.8" x14ac:dyDescent="0.6">
+    <row r="37" spans="1:6" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A37" s="13" t="s">
         <v>188</v>
       </c>
@@ -5850,14 +5848,14 @@
       <c r="D37" s="13" t="s">
         <v>144</v>
       </c>
-      <c r="E37" s="31" t="s">
+      <c r="E37" s="28" t="s">
         <v>125</v>
       </c>
       <c r="F37" s="13" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="25.8" x14ac:dyDescent="0.6">
+    <row r="38" spans="1:6" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A38" s="13" t="s">
         <v>190</v>
       </c>
@@ -5870,14 +5868,14 @@
       <c r="D38" s="13" t="s">
         <v>144</v>
       </c>
-      <c r="E38" s="31" t="s">
+      <c r="E38" s="28" t="s">
         <v>125</v>
       </c>
       <c r="F38" s="13" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="25.8" x14ac:dyDescent="0.6">
+    <row r="39" spans="1:6" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A39" s="13" t="s">
         <v>192</v>
       </c>
@@ -5890,14 +5888,14 @@
       <c r="D39" s="13" t="s">
         <v>144</v>
       </c>
-      <c r="E39" s="31" t="s">
+      <c r="E39" s="28" t="s">
         <v>125</v>
       </c>
       <c r="F39" s="13" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="25.8" x14ac:dyDescent="0.6">
+    <row r="40" spans="1:6" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A40" s="13" t="s">
         <v>194</v>
       </c>
@@ -5910,14 +5908,14 @@
       <c r="D40" s="13" t="s">
         <v>121</v>
       </c>
-      <c r="E40" s="31" t="s">
+      <c r="E40" s="28" t="s">
         <v>122</v>
       </c>
       <c r="F40" s="13" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="41" spans="1:6" ht="25.8" x14ac:dyDescent="0.6">
+    <row r="41" spans="1:6" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A41" s="13" t="s">
         <v>196</v>
       </c>
@@ -5930,14 +5928,14 @@
       <c r="D41" s="13" t="s">
         <v>194</v>
       </c>
-      <c r="E41" s="31" t="s">
+      <c r="E41" s="28" t="s">
         <v>125</v>
       </c>
       <c r="F41" s="13" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="42" spans="1:6" ht="25.8" x14ac:dyDescent="0.6">
+    <row r="42" spans="1:6" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A42" s="13" t="s">
         <v>198</v>
       </c>
@@ -5950,14 +5948,14 @@
       <c r="D42" s="13" t="s">
         <v>194</v>
       </c>
-      <c r="E42" s="31" t="s">
+      <c r="E42" s="28" t="s">
         <v>125</v>
       </c>
       <c r="F42" s="13" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="25.8" x14ac:dyDescent="0.6">
+    <row r="43" spans="1:6" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A43" s="13" t="s">
         <v>200</v>
       </c>
@@ -5970,14 +5968,14 @@
       <c r="D43" s="13" t="s">
         <v>194</v>
       </c>
-      <c r="E43" s="31" t="s">
+      <c r="E43" s="28" t="s">
         <v>125</v>
       </c>
       <c r="F43" s="13" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="25.8" x14ac:dyDescent="0.6">
+    <row r="44" spans="1:6" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A44" s="13" t="s">
         <v>202</v>
       </c>
@@ -5990,14 +5988,14 @@
       <c r="D44" s="13" t="s">
         <v>194</v>
       </c>
-      <c r="E44" s="31" t="s">
+      <c r="E44" s="28" t="s">
         <v>125</v>
       </c>
       <c r="F44" s="13" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="45" spans="1:6" ht="25.8" x14ac:dyDescent="0.6">
+    <row r="45" spans="1:6" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A45" s="13" t="s">
         <v>204</v>
       </c>
@@ -6010,14 +6008,14 @@
       <c r="D45" s="13" t="s">
         <v>194</v>
       </c>
-      <c r="E45" s="31" t="s">
+      <c r="E45" s="28" t="s">
         <v>125</v>
       </c>
       <c r="F45" s="13" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="46" spans="1:6" ht="25.8" x14ac:dyDescent="0.6">
+    <row r="46" spans="1:6" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A46" s="13" t="s">
         <v>206</v>
       </c>
@@ -6030,14 +6028,14 @@
       <c r="D46" s="13" t="s">
         <v>194</v>
       </c>
-      <c r="E46" s="31" t="s">
+      <c r="E46" s="28" t="s">
         <v>125</v>
       </c>
       <c r="F46" s="13" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="47" spans="1:6" ht="25.8" x14ac:dyDescent="0.6">
+    <row r="47" spans="1:6" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A47" s="13" t="s">
         <v>208</v>
       </c>
@@ -6050,14 +6048,14 @@
       <c r="D47" s="13" t="s">
         <v>194</v>
       </c>
-      <c r="E47" s="31" t="s">
+      <c r="E47" s="28" t="s">
         <v>125</v>
       </c>
       <c r="F47" s="13" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="48" spans="1:6" ht="25.8" x14ac:dyDescent="0.6">
+    <row r="48" spans="1:6" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A48" s="13" t="s">
         <v>210</v>
       </c>
@@ -6070,14 +6068,14 @@
       <c r="D48" s="13" t="s">
         <v>194</v>
       </c>
-      <c r="E48" s="31" t="s">
+      <c r="E48" s="28" t="s">
         <v>125</v>
       </c>
       <c r="F48" s="13" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="49" spans="1:6" ht="25.8" x14ac:dyDescent="0.6">
+    <row r="49" spans="1:6" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A49" s="13" t="s">
         <v>212</v>
       </c>
@@ -6090,14 +6088,14 @@
       <c r="D49" s="13" t="s">
         <v>194</v>
       </c>
-      <c r="E49" s="31" t="s">
+      <c r="E49" s="28" t="s">
         <v>125</v>
       </c>
       <c r="F49" s="13" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="50" spans="1:6" ht="25.8" x14ac:dyDescent="0.6">
+    <row r="50" spans="1:6" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A50" s="13" t="s">
         <v>214</v>
       </c>
@@ -6110,14 +6108,14 @@
       <c r="D50" s="13" t="s">
         <v>194</v>
       </c>
-      <c r="E50" s="31" t="s">
+      <c r="E50" s="28" t="s">
         <v>125</v>
       </c>
       <c r="F50" s="13" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="51" spans="1:6" ht="25.8" x14ac:dyDescent="0.6">
+    <row r="51" spans="1:6" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A51" s="13" t="s">
         <v>216</v>
       </c>
@@ -6130,14 +6128,14 @@
       <c r="D51" s="13" t="s">
         <v>194</v>
       </c>
-      <c r="E51" s="31" t="s">
+      <c r="E51" s="28" t="s">
         <v>125</v>
       </c>
       <c r="F51" s="13" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="52" spans="1:6" ht="25.8" x14ac:dyDescent="0.6">
+    <row r="52" spans="1:6" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A52" s="13" t="s">
         <v>218</v>
       </c>
@@ -6150,14 +6148,14 @@
       <c r="D52" s="13" t="s">
         <v>194</v>
       </c>
-      <c r="E52" s="31" t="s">
+      <c r="E52" s="28" t="s">
         <v>125</v>
       </c>
       <c r="F52" s="13" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="53" spans="1:6" ht="25.8" x14ac:dyDescent="0.6">
+    <row r="53" spans="1:6" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A53" s="13" t="s">
         <v>220</v>
       </c>
@@ -6170,14 +6168,14 @@
       <c r="D53" s="13" t="s">
         <v>194</v>
       </c>
-      <c r="E53" s="31" t="s">
+      <c r="E53" s="28" t="s">
         <v>125</v>
       </c>
       <c r="F53" s="13" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="54" spans="1:6" ht="25.8" x14ac:dyDescent="0.6">
+    <row r="54" spans="1:6" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A54" s="13" t="s">
         <v>222</v>
       </c>
@@ -6190,14 +6188,14 @@
       <c r="D54" s="13" t="s">
         <v>194</v>
       </c>
-      <c r="E54" s="31" t="s">
+      <c r="E54" s="28" t="s">
         <v>125</v>
       </c>
       <c r="F54" s="13" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="55" spans="1:6" ht="25.8" x14ac:dyDescent="0.6">
+    <row r="55" spans="1:6" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A55" s="13" t="s">
         <v>224</v>
       </c>
@@ -6210,14 +6208,14 @@
       <c r="D55" s="13" t="s">
         <v>194</v>
       </c>
-      <c r="E55" s="31" t="s">
+      <c r="E55" s="28" t="s">
         <v>125</v>
       </c>
       <c r="F55" s="13" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="56" spans="1:6" ht="25.8" x14ac:dyDescent="0.6">
+    <row r="56" spans="1:6" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A56" s="13" t="s">
         <v>226</v>
       </c>
@@ -6230,14 +6228,14 @@
       <c r="D56" s="13" t="s">
         <v>194</v>
       </c>
-      <c r="E56" s="31" t="s">
+      <c r="E56" s="28" t="s">
         <v>125</v>
       </c>
       <c r="F56" s="13" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="57" spans="1:6" ht="62.7" x14ac:dyDescent="0.6">
+    <row r="57" spans="1:6" ht="64.2" x14ac:dyDescent="0.3">
       <c r="A57" s="13" t="s">
         <v>228</v>
       </c>
@@ -6250,14 +6248,14 @@
       <c r="D57" s="13" t="s">
         <v>121</v>
       </c>
-      <c r="E57" s="31" t="s">
+      <c r="E57" s="28" t="s">
         <v>122</v>
       </c>
       <c r="F57" s="13" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="58" spans="1:6" ht="38.1" x14ac:dyDescent="0.6">
+    <row r="58" spans="1:6" ht="39" x14ac:dyDescent="0.3">
       <c r="A58" s="13" t="s">
         <v>231</v>
       </c>
@@ -6270,14 +6268,14 @@
       <c r="D58" s="13" t="s">
         <v>121</v>
       </c>
-      <c r="E58" s="31" t="s">
+      <c r="E58" s="28" t="s">
         <v>122</v>
       </c>
       <c r="F58" s="13" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="59" spans="1:6" ht="25.8" x14ac:dyDescent="0.6">
+    <row r="59" spans="1:6" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A59" s="13" t="s">
         <v>233</v>
       </c>
@@ -6290,14 +6288,14 @@
       <c r="D59" s="13" t="s">
         <v>231</v>
       </c>
-      <c r="E59" s="31" t="s">
+      <c r="E59" s="28" t="s">
         <v>125</v>
       </c>
       <c r="F59" s="13" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="60" spans="1:6" ht="25.8" x14ac:dyDescent="0.6">
+    <row r="60" spans="1:6" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A60" s="13" t="s">
         <v>235</v>
       </c>
@@ -6310,14 +6308,14 @@
       <c r="D60" s="13" t="s">
         <v>231</v>
       </c>
-      <c r="E60" s="31" t="s">
+      <c r="E60" s="28" t="s">
         <v>125</v>
       </c>
       <c r="F60" s="13" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="61" spans="1:6" ht="25.8" x14ac:dyDescent="0.6">
+    <row r="61" spans="1:6" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A61" s="13" t="s">
         <v>237</v>
       </c>
@@ -6330,14 +6328,14 @@
       <c r="D61" s="13" t="s">
         <v>231</v>
       </c>
-      <c r="E61" s="31" t="s">
+      <c r="E61" s="28" t="s">
         <v>125</v>
       </c>
       <c r="F61" s="13" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="62" spans="1:6" ht="25.8" x14ac:dyDescent="0.6">
+    <row r="62" spans="1:6" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A62" s="13" t="s">
         <v>239</v>
       </c>
@@ -6350,14 +6348,14 @@
       <c r="D62" s="13" t="s">
         <v>231</v>
       </c>
-      <c r="E62" s="31" t="s">
+      <c r="E62" s="28" t="s">
         <v>125</v>
       </c>
       <c r="F62" s="13" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="63" spans="1:6" ht="25.8" x14ac:dyDescent="0.6">
+    <row r="63" spans="1:6" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A63" s="13" t="s">
         <v>241</v>
       </c>
@@ -6370,14 +6368,14 @@
       <c r="D63" s="13" t="s">
         <v>231</v>
       </c>
-      <c r="E63" s="31" t="s">
+      <c r="E63" s="28" t="s">
         <v>125</v>
       </c>
       <c r="F63" s="13" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="64" spans="1:6" ht="25.8" x14ac:dyDescent="0.6">
+    <row r="64" spans="1:6" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A64" s="13" t="s">
         <v>243</v>
       </c>
@@ -6390,14 +6388,14 @@
       <c r="D64" s="13" t="s">
         <v>231</v>
       </c>
-      <c r="E64" s="31" t="s">
+      <c r="E64" s="28" t="s">
         <v>125</v>
       </c>
       <c r="F64" s="13" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="65" spans="1:6" ht="25.8" x14ac:dyDescent="0.6">
+    <row r="65" spans="1:6" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A65" s="13" t="s">
         <v>245</v>
       </c>
@@ -6410,14 +6408,14 @@
       <c r="D65" s="13" t="s">
         <v>231</v>
       </c>
-      <c r="E65" s="31" t="s">
+      <c r="E65" s="28" t="s">
         <v>125</v>
       </c>
       <c r="F65" s="13" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="66" spans="1:6" ht="25.8" x14ac:dyDescent="0.6">
+    <row r="66" spans="1:6" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A66" s="13" t="s">
         <v>247</v>
       </c>
@@ -6430,14 +6428,14 @@
       <c r="D66" s="13" t="s">
         <v>231</v>
       </c>
-      <c r="E66" s="31" t="s">
+      <c r="E66" s="28" t="s">
         <v>125</v>
       </c>
       <c r="F66" s="13" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="67" spans="1:6" ht="25.8" x14ac:dyDescent="0.6">
+    <row r="67" spans="1:6" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A67" s="13" t="s">
         <v>249</v>
       </c>
@@ -6450,14 +6448,14 @@
       <c r="D67" s="13" t="s">
         <v>231</v>
       </c>
-      <c r="E67" s="31" t="s">
+      <c r="E67" s="28" t="s">
         <v>125</v>
       </c>
       <c r="F67" s="13" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="68" spans="1:6" ht="25.8" x14ac:dyDescent="0.6">
+    <row r="68" spans="1:6" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A68" s="13" t="s">
         <v>251</v>
       </c>
@@ -6470,14 +6468,14 @@
       <c r="D68" s="13" t="s">
         <v>231</v>
       </c>
-      <c r="E68" s="31" t="s">
+      <c r="E68" s="28" t="s">
         <v>125</v>
       </c>
       <c r="F68" s="13" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="69" spans="1:6" ht="25.8" x14ac:dyDescent="0.6">
+    <row r="69" spans="1:6" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A69" s="13" t="s">
         <v>253</v>
       </c>
@@ -6490,14 +6488,14 @@
       <c r="D69" s="13" t="s">
         <v>231</v>
       </c>
-      <c r="E69" s="31" t="s">
+      <c r="E69" s="28" t="s">
         <v>125</v>
       </c>
       <c r="F69" s="13" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="70" spans="1:6" ht="25.8" x14ac:dyDescent="0.6">
+    <row r="70" spans="1:6" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A70" s="13" t="s">
         <v>255</v>
       </c>
@@ -6510,14 +6508,14 @@
       <c r="D70" s="13" t="s">
         <v>231</v>
       </c>
-      <c r="E70" s="31" t="s">
+      <c r="E70" s="28" t="s">
         <v>125</v>
       </c>
       <c r="F70" s="13" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="71" spans="1:6" ht="25.8" x14ac:dyDescent="0.6">
+    <row r="71" spans="1:6" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A71" s="13" t="s">
         <v>257</v>
       </c>
@@ -6530,14 +6528,14 @@
       <c r="D71" s="13" t="s">
         <v>231</v>
       </c>
-      <c r="E71" s="31" t="s">
+      <c r="E71" s="28" t="s">
         <v>125</v>
       </c>
       <c r="F71" s="13" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="72" spans="1:6" ht="25.8" x14ac:dyDescent="0.6">
+    <row r="72" spans="1:6" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A72" s="13" t="s">
         <v>259</v>
       </c>
@@ -6550,14 +6548,14 @@
       <c r="D72" s="13" t="s">
         <v>231</v>
       </c>
-      <c r="E72" s="31" t="s">
+      <c r="E72" s="28" t="s">
         <v>125</v>
       </c>
       <c r="F72" s="13" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="73" spans="1:6" ht="25.8" x14ac:dyDescent="0.6">
+    <row r="73" spans="1:6" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A73" s="13" t="s">
         <v>261</v>
       </c>
@@ -6570,14 +6568,14 @@
       <c r="D73" s="13" t="s">
         <v>231</v>
       </c>
-      <c r="E73" s="31" t="s">
+      <c r="E73" s="28" t="s">
         <v>125</v>
       </c>
       <c r="F73" s="13" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="74" spans="1:6" ht="25.8" x14ac:dyDescent="0.6">
+    <row r="74" spans="1:6" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A74" s="13" t="s">
         <v>263</v>
       </c>
@@ -6590,14 +6588,14 @@
       <c r="D74" s="13" t="s">
         <v>231</v>
       </c>
-      <c r="E74" s="31" t="s">
+      <c r="E74" s="28" t="s">
         <v>125</v>
       </c>
       <c r="F74" s="13" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="75" spans="1:6" ht="25.8" x14ac:dyDescent="0.6">
+    <row r="75" spans="1:6" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A75" s="13" t="s">
         <v>265</v>
       </c>
@@ -6610,14 +6608,14 @@
       <c r="D75" s="13" t="s">
         <v>231</v>
       </c>
-      <c r="E75" s="31" t="s">
+      <c r="E75" s="28" t="s">
         <v>125</v>
       </c>
       <c r="F75" s="13" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="76" spans="1:6" ht="25.8" x14ac:dyDescent="0.6">
+    <row r="76" spans="1:6" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A76" s="13" t="s">
         <v>267</v>
       </c>
@@ -6630,14 +6628,14 @@
       <c r="D76" s="13" t="s">
         <v>231</v>
       </c>
-      <c r="E76" s="31" t="s">
+      <c r="E76" s="28" t="s">
         <v>125</v>
       </c>
       <c r="F76" s="13" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="77" spans="1:6" ht="25.8" x14ac:dyDescent="0.6">
+    <row r="77" spans="1:6" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A77" s="13" t="s">
         <v>269</v>
       </c>
@@ -6650,14 +6648,14 @@
       <c r="D77" s="13" t="s">
         <v>231</v>
       </c>
-      <c r="E77" s="31" t="s">
+      <c r="E77" s="28" t="s">
         <v>125</v>
       </c>
       <c r="F77" s="13" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="78" spans="1:6" ht="38.1" x14ac:dyDescent="0.6">
+    <row r="78" spans="1:6" ht="39" x14ac:dyDescent="0.3">
       <c r="A78" s="13" t="s">
         <v>271</v>
       </c>
@@ -6670,14 +6668,14 @@
       <c r="D78" s="13" t="s">
         <v>231</v>
       </c>
-      <c r="E78" s="31" t="s">
+      <c r="E78" s="28" t="s">
         <v>125</v>
       </c>
       <c r="F78" s="13" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="79" spans="1:6" ht="25.8" x14ac:dyDescent="0.6">
+    <row r="79" spans="1:6" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A79" s="13" t="s">
         <v>273</v>
       </c>
@@ -6690,14 +6688,14 @@
       <c r="D79" s="13" t="s">
         <v>231</v>
       </c>
-      <c r="E79" s="31" t="s">
+      <c r="E79" s="28" t="s">
         <v>125</v>
       </c>
       <c r="F79" s="13" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="80" spans="1:6" ht="25.8" x14ac:dyDescent="0.6">
+    <row r="80" spans="1:6" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A80" s="13" t="s">
         <v>275</v>
       </c>
@@ -6710,14 +6708,14 @@
       <c r="D80" s="13" t="s">
         <v>231</v>
       </c>
-      <c r="E80" s="31" t="s">
+      <c r="E80" s="28" t="s">
         <v>125</v>
       </c>
       <c r="F80" s="13" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="81" spans="1:6" ht="25.8" x14ac:dyDescent="0.6">
+    <row r="81" spans="1:6" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A81" s="13" t="s">
         <v>277</v>
       </c>
@@ -6730,14 +6728,14 @@
       <c r="D81" s="13" t="s">
         <v>231</v>
       </c>
-      <c r="E81" s="31" t="s">
+      <c r="E81" s="28" t="s">
         <v>125</v>
       </c>
       <c r="F81" s="13" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="82" spans="1:6" ht="25.8" x14ac:dyDescent="0.6">
+    <row r="82" spans="1:6" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A82" s="13" t="s">
         <v>279</v>
       </c>
@@ -6750,14 +6748,14 @@
       <c r="D82" s="13" t="s">
         <v>231</v>
       </c>
-      <c r="E82" s="31" t="s">
+      <c r="E82" s="28" t="s">
         <v>125</v>
       </c>
       <c r="F82" s="13" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="83" spans="1:6" ht="25.8" x14ac:dyDescent="0.6">
+    <row r="83" spans="1:6" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A83" s="13" t="s">
         <v>281</v>
       </c>
@@ -6770,14 +6768,14 @@
       <c r="D83" s="13" t="s">
         <v>231</v>
       </c>
-      <c r="E83" s="31" t="s">
+      <c r="E83" s="28" t="s">
         <v>125</v>
       </c>
       <c r="F83" s="13" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="84" spans="1:6" ht="38.1" x14ac:dyDescent="0.6">
+    <row r="84" spans="1:6" ht="39" x14ac:dyDescent="0.3">
       <c r="A84" s="13" t="s">
         <v>283</v>
       </c>
@@ -6790,14 +6788,14 @@
       <c r="D84" s="13" t="s">
         <v>121</v>
       </c>
-      <c r="E84" s="31" t="s">
+      <c r="E84" s="28" t="s">
         <v>122</v>
       </c>
       <c r="F84" s="13" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="85" spans="1:6" ht="25.8" x14ac:dyDescent="0.6">
+    <row r="85" spans="1:6" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A85" s="13" t="s">
         <v>285</v>
       </c>
@@ -6810,14 +6808,14 @@
       <c r="D85" s="13" t="s">
         <v>283</v>
       </c>
-      <c r="E85" s="31" t="s">
+      <c r="E85" s="28" t="s">
         <v>125</v>
       </c>
       <c r="F85" s="13" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="86" spans="1:6" ht="25.8" x14ac:dyDescent="0.6">
+    <row r="86" spans="1:6" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A86" s="13" t="s">
         <v>287</v>
       </c>
@@ -6830,14 +6828,14 @@
       <c r="D86" s="13" t="s">
         <v>283</v>
       </c>
-      <c r="E86" s="31" t="s">
+      <c r="E86" s="28" t="s">
         <v>125</v>
       </c>
       <c r="F86" s="13" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="87" spans="1:6" ht="25.8" x14ac:dyDescent="0.6">
+    <row r="87" spans="1:6" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A87" s="13" t="s">
         <v>289</v>
       </c>
@@ -6850,14 +6848,14 @@
       <c r="D87" s="13" t="s">
         <v>283</v>
       </c>
-      <c r="E87" s="31" t="s">
+      <c r="E87" s="28" t="s">
         <v>125</v>
       </c>
       <c r="F87" s="13" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="88" spans="1:6" ht="25.8" x14ac:dyDescent="0.6">
+    <row r="88" spans="1:6" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A88" s="13" t="s">
         <v>291</v>
       </c>
@@ -6870,14 +6868,14 @@
       <c r="D88" s="13" t="s">
         <v>283</v>
       </c>
-      <c r="E88" s="31" t="s">
+      <c r="E88" s="28" t="s">
         <v>125</v>
       </c>
       <c r="F88" s="13" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="89" spans="1:6" ht="38.1" x14ac:dyDescent="0.6">
+    <row r="89" spans="1:6" ht="39" x14ac:dyDescent="0.3">
       <c r="A89" s="13" t="s">
         <v>293</v>
       </c>
@@ -6890,14 +6888,14 @@
       <c r="D89" s="13" t="s">
         <v>283</v>
       </c>
-      <c r="E89" s="31" t="s">
+      <c r="E89" s="28" t="s">
         <v>125</v>
       </c>
       <c r="F89" s="13" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="90" spans="1:6" ht="25.8" x14ac:dyDescent="0.6">
+    <row r="90" spans="1:6" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A90" s="13" t="s">
         <v>295</v>
       </c>
@@ -6910,14 +6908,14 @@
       <c r="D90" s="13" t="s">
         <v>283</v>
       </c>
-      <c r="E90" s="31" t="s">
+      <c r="E90" s="28" t="s">
         <v>125</v>
       </c>
       <c r="F90" s="13" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="91" spans="1:6" ht="25.8" x14ac:dyDescent="0.6">
+    <row r="91" spans="1:6" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A91" s="13" t="s">
         <v>297</v>
       </c>
@@ -6930,14 +6928,14 @@
       <c r="D91" s="13" t="s">
         <v>283</v>
       </c>
-      <c r="E91" s="31" t="s">
+      <c r="E91" s="28" t="s">
         <v>125</v>
       </c>
       <c r="F91" s="13" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="92" spans="1:6" ht="25.8" x14ac:dyDescent="0.6">
+    <row r="92" spans="1:6" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A92" s="13" t="s">
         <v>299</v>
       </c>
@@ -6950,14 +6948,14 @@
       <c r="D92" s="13" t="s">
         <v>283</v>
       </c>
-      <c r="E92" s="31" t="s">
+      <c r="E92" s="28" t="s">
         <v>125</v>
       </c>
       <c r="F92" s="13" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="93" spans="1:6" ht="25.8" x14ac:dyDescent="0.6">
+    <row r="93" spans="1:6" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A93" s="13" t="s">
         <v>301</v>
       </c>
@@ -6970,14 +6968,14 @@
       <c r="D93" s="13" t="s">
         <v>283</v>
       </c>
-      <c r="E93" s="31" t="s">
+      <c r="E93" s="28" t="s">
         <v>125</v>
       </c>
       <c r="F93" s="13" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="94" spans="1:6" ht="25.8" x14ac:dyDescent="0.6">
+    <row r="94" spans="1:6" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A94" s="13" t="s">
         <v>303</v>
       </c>
@@ -6990,14 +6988,14 @@
       <c r="D94" s="13" t="s">
         <v>283</v>
       </c>
-      <c r="E94" s="31" t="s">
+      <c r="E94" s="28" t="s">
         <v>125</v>
       </c>
       <c r="F94" s="13" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="95" spans="1:6" ht="25.8" x14ac:dyDescent="0.6">
+    <row r="95" spans="1:6" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A95" s="13" t="s">
         <v>305</v>
       </c>
@@ -7010,14 +7008,14 @@
       <c r="D95" s="13" t="s">
         <v>283</v>
       </c>
-      <c r="E95" s="31" t="s">
+      <c r="E95" s="28" t="s">
         <v>125</v>
       </c>
       <c r="F95" s="13" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="96" spans="1:6" ht="25.8" x14ac:dyDescent="0.6">
+    <row r="96" spans="1:6" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A96" s="13" t="s">
         <v>307</v>
       </c>
@@ -7030,14 +7028,14 @@
       <c r="D96" s="13" t="s">
         <v>283</v>
       </c>
-      <c r="E96" s="31" t="s">
+      <c r="E96" s="28" t="s">
         <v>125</v>
       </c>
       <c r="F96" s="13" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="97" spans="1:6" ht="25.8" x14ac:dyDescent="0.6">
+    <row r="97" spans="1:6" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A97" s="13" t="s">
         <v>309</v>
       </c>
@@ -7050,14 +7048,14 @@
       <c r="D97" s="13" t="s">
         <v>283</v>
       </c>
-      <c r="E97" s="31" t="s">
+      <c r="E97" s="28" t="s">
         <v>125</v>
       </c>
       <c r="F97" s="13" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="98" spans="1:6" ht="25.8" x14ac:dyDescent="0.6">
+    <row r="98" spans="1:6" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A98" s="13" t="s">
         <v>311</v>
       </c>
@@ -7070,14 +7068,14 @@
       <c r="D98" s="13" t="s">
         <v>283</v>
       </c>
-      <c r="E98" s="31" t="s">
+      <c r="E98" s="28" t="s">
         <v>125</v>
       </c>
       <c r="F98" s="13" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="99" spans="1:6" ht="25.8" x14ac:dyDescent="0.6">
+    <row r="99" spans="1:6" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A99" s="13" t="s">
         <v>313</v>
       </c>
@@ -7090,14 +7088,14 @@
       <c r="D99" s="13" t="s">
         <v>283</v>
       </c>
-      <c r="E99" s="31" t="s">
+      <c r="E99" s="28" t="s">
         <v>125</v>
       </c>
       <c r="F99" s="13" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="100" spans="1:6" ht="25.8" x14ac:dyDescent="0.6">
+    <row r="100" spans="1:6" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A100" s="13" t="s">
         <v>315</v>
       </c>
@@ -7110,14 +7108,14 @@
       <c r="D100" s="13" t="s">
         <v>283</v>
       </c>
-      <c r="E100" s="31" t="s">
+      <c r="E100" s="28" t="s">
         <v>125</v>
       </c>
       <c r="F100" s="13" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="101" spans="1:6" ht="62.7" x14ac:dyDescent="0.6">
+    <row r="101" spans="1:6" ht="64.2" x14ac:dyDescent="0.3">
       <c r="A101" s="13" t="s">
         <v>317</v>
       </c>
@@ -7130,14 +7128,14 @@
       <c r="D101" s="13" t="s">
         <v>121</v>
       </c>
-      <c r="E101" s="31" t="s">
+      <c r="E101" s="28" t="s">
         <v>122</v>
       </c>
       <c r="F101" s="13" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="102" spans="1:6" ht="62.7" x14ac:dyDescent="0.6">
+    <row r="102" spans="1:6" ht="64.2" x14ac:dyDescent="0.3">
       <c r="A102" s="13" t="s">
         <v>319</v>
       </c>
@@ -7150,14 +7148,14 @@
       <c r="D102" s="13" t="s">
         <v>121</v>
       </c>
-      <c r="E102" s="31" t="s">
+      <c r="E102" s="28" t="s">
         <v>122</v>
       </c>
       <c r="F102" s="13" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="103" spans="1:6" ht="62.7" x14ac:dyDescent="0.6">
+    <row r="103" spans="1:6" ht="64.2" x14ac:dyDescent="0.3">
       <c r="A103" s="13" t="s">
         <v>321</v>
       </c>
@@ -7170,14 +7168,14 @@
       <c r="D103" s="13" t="s">
         <v>121</v>
       </c>
-      <c r="E103" s="31" t="s">
+      <c r="E103" s="28" t="s">
         <v>122</v>
       </c>
       <c r="F103" s="13" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="104" spans="1:6" ht="62.7" x14ac:dyDescent="0.6">
+    <row r="104" spans="1:6" ht="76.8" x14ac:dyDescent="0.3">
       <c r="A104" s="13" t="s">
         <v>323</v>
       </c>
@@ -7190,14 +7188,14 @@
       <c r="D104" s="13" t="s">
         <v>121</v>
       </c>
-      <c r="E104" s="31" t="s">
+      <c r="E104" s="28" t="s">
         <v>122</v>
       </c>
       <c r="F104" s="13" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="105" spans="1:6" ht="25.8" x14ac:dyDescent="0.6">
+    <row r="105" spans="1:6" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A105" s="13" t="s">
         <v>325</v>
       </c>
@@ -7210,14 +7208,14 @@
       <c r="D105" s="13" t="s">
         <v>121</v>
       </c>
-      <c r="E105" s="31" t="s">
+      <c r="E105" s="28" t="s">
         <v>122</v>
       </c>
       <c r="F105" s="13" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="106" spans="1:6" ht="25.8" x14ac:dyDescent="0.6">
+    <row r="106" spans="1:6" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A106" s="13" t="s">
         <v>327</v>
       </c>
@@ -7230,14 +7228,14 @@
       <c r="D106" s="13" t="s">
         <v>325</v>
       </c>
-      <c r="E106" s="31" t="s">
+      <c r="E106" s="28" t="s">
         <v>125</v>
       </c>
       <c r="F106" s="13" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="107" spans="1:6" ht="25.8" x14ac:dyDescent="0.6">
+    <row r="107" spans="1:6" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A107" s="13" t="s">
         <v>329</v>
       </c>
@@ -7250,14 +7248,14 @@
       <c r="D107" s="13" t="s">
         <v>325</v>
       </c>
-      <c r="E107" s="31" t="s">
+      <c r="E107" s="28" t="s">
         <v>125</v>
       </c>
       <c r="F107" s="13" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="108" spans="1:6" ht="25.8" x14ac:dyDescent="0.6">
+    <row r="108" spans="1:6" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A108" s="13" t="s">
         <v>331</v>
       </c>
@@ -7270,14 +7268,14 @@
       <c r="D108" s="13" t="s">
         <v>325</v>
       </c>
-      <c r="E108" s="31" t="s">
+      <c r="E108" s="28" t="s">
         <v>125</v>
       </c>
       <c r="F108" s="13" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="109" spans="1:6" ht="25.8" x14ac:dyDescent="0.6">
+    <row r="109" spans="1:6" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A109" s="13" t="s">
         <v>333</v>
       </c>
@@ -7290,14 +7288,14 @@
       <c r="D109" s="13" t="s">
         <v>325</v>
       </c>
-      <c r="E109" s="31" t="s">
+      <c r="E109" s="28" t="s">
         <v>125</v>
       </c>
       <c r="F109" s="13" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="110" spans="1:6" ht="25.8" x14ac:dyDescent="0.6">
+    <row r="110" spans="1:6" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A110" s="13" t="s">
         <v>335</v>
       </c>
@@ -7310,14 +7308,14 @@
       <c r="D110" s="13" t="s">
         <v>325</v>
       </c>
-      <c r="E110" s="31" t="s">
+      <c r="E110" s="28" t="s">
         <v>125</v>
       </c>
       <c r="F110" s="13" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="111" spans="1:6" ht="25.8" x14ac:dyDescent="0.6">
+    <row r="111" spans="1:6" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A111" s="13" t="s">
         <v>337</v>
       </c>
@@ -7330,14 +7328,14 @@
       <c r="D111" s="13" t="s">
         <v>325</v>
       </c>
-      <c r="E111" s="31" t="s">
+      <c r="E111" s="28" t="s">
         <v>125</v>
       </c>
       <c r="F111" s="13" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="112" spans="1:6" ht="25.8" x14ac:dyDescent="0.6">
+    <row r="112" spans="1:6" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A112" s="13" t="s">
         <v>339</v>
       </c>
@@ -7350,14 +7348,14 @@
       <c r="D112" s="13" t="s">
         <v>325</v>
       </c>
-      <c r="E112" s="31" t="s">
+      <c r="E112" s="28" t="s">
         <v>125</v>
       </c>
       <c r="F112" s="13" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="113" spans="1:6" ht="25.8" x14ac:dyDescent="0.6">
+    <row r="113" spans="1:6" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A113" s="13" t="s">
         <v>341</v>
       </c>
@@ -7370,14 +7368,14 @@
       <c r="D113" s="13" t="s">
         <v>325</v>
       </c>
-      <c r="E113" s="31" t="s">
+      <c r="E113" s="28" t="s">
         <v>125</v>
       </c>
       <c r="F113" s="13" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="114" spans="1:6" ht="25.8" x14ac:dyDescent="0.6">
+    <row r="114" spans="1:6" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A114" s="13" t="s">
         <v>343</v>
       </c>
@@ -7390,14 +7388,14 @@
       <c r="D114" s="13" t="s">
         <v>325</v>
       </c>
-      <c r="E114" s="31" t="s">
+      <c r="E114" s="28" t="s">
         <v>125</v>
       </c>
       <c r="F114" s="13" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="115" spans="1:6" ht="25.8" x14ac:dyDescent="0.6">
+    <row r="115" spans="1:6" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A115" s="13" t="s">
         <v>345</v>
       </c>
@@ -7410,14 +7408,14 @@
       <c r="D115" s="13" t="s">
         <v>325</v>
       </c>
-      <c r="E115" s="31" t="s">
+      <c r="E115" s="28" t="s">
         <v>125</v>
       </c>
       <c r="F115" s="13" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="116" spans="1:6" ht="25.8" x14ac:dyDescent="0.6">
+    <row r="116" spans="1:6" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A116" s="13" t="s">
         <v>347</v>
       </c>
@@ -7430,14 +7428,14 @@
       <c r="D116" s="13" t="s">
         <v>325</v>
       </c>
-      <c r="E116" s="31" t="s">
+      <c r="E116" s="28" t="s">
         <v>125</v>
       </c>
       <c r="F116" s="13" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="117" spans="1:6" ht="25.8" x14ac:dyDescent="0.6">
+    <row r="117" spans="1:6" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A117" s="13" t="s">
         <v>349</v>
       </c>
@@ -7450,14 +7448,14 @@
       <c r="D117" s="13" t="s">
         <v>121</v>
       </c>
-      <c r="E117" s="31" t="s">
+      <c r="E117" s="28" t="s">
         <v>122</v>
       </c>
       <c r="F117" s="13" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="118" spans="1:6" ht="25.8" x14ac:dyDescent="0.6">
+    <row r="118" spans="1:6" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A118" s="13" t="s">
         <v>351</v>
       </c>
@@ -7470,14 +7468,14 @@
       <c r="D118" s="13" t="s">
         <v>349</v>
       </c>
-      <c r="E118" s="31" t="s">
+      <c r="E118" s="28" t="s">
         <v>125</v>
       </c>
       <c r="F118" s="13" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="119" spans="1:6" ht="25.8" x14ac:dyDescent="0.6">
+    <row r="119" spans="1:6" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A119" s="13" t="s">
         <v>353</v>
       </c>
@@ -7490,14 +7488,14 @@
       <c r="D119" s="13" t="s">
         <v>349</v>
       </c>
-      <c r="E119" s="31" t="s">
+      <c r="E119" s="28" t="s">
         <v>125</v>
       </c>
       <c r="F119" s="13" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="120" spans="1:6" ht="25.8" x14ac:dyDescent="0.6">
+    <row r="120" spans="1:6" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A120" s="13" t="s">
         <v>355</v>
       </c>
@@ -7510,14 +7508,14 @@
       <c r="D120" s="13" t="s">
         <v>349</v>
       </c>
-      <c r="E120" s="31" t="s">
+      <c r="E120" s="28" t="s">
         <v>125</v>
       </c>
       <c r="F120" s="13" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="121" spans="1:6" ht="25.8" x14ac:dyDescent="0.6">
+    <row r="121" spans="1:6" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A121" s="13" t="s">
         <v>357</v>
       </c>
@@ -7530,14 +7528,14 @@
       <c r="D121" s="13" t="s">
         <v>349</v>
       </c>
-      <c r="E121" s="31" t="s">
+      <c r="E121" s="28" t="s">
         <v>125</v>
       </c>
       <c r="F121" s="13" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="122" spans="1:6" ht="25.8" x14ac:dyDescent="0.6">
+    <row r="122" spans="1:6" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A122" s="13" t="s">
         <v>359</v>
       </c>
@@ -7550,14 +7548,14 @@
       <c r="D122" s="13" t="s">
         <v>349</v>
       </c>
-      <c r="E122" s="31" t="s">
+      <c r="E122" s="28" t="s">
         <v>125</v>
       </c>
       <c r="F122" s="13" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="123" spans="1:6" ht="25.8" x14ac:dyDescent="0.6">
+    <row r="123" spans="1:6" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A123" s="13" t="s">
         <v>361</v>
       </c>
@@ -7570,14 +7568,14 @@
       <c r="D123" s="13" t="s">
         <v>349</v>
       </c>
-      <c r="E123" s="31" t="s">
+      <c r="E123" s="28" t="s">
         <v>125</v>
       </c>
       <c r="F123" s="13" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="124" spans="1:6" ht="25.8" x14ac:dyDescent="0.6">
+    <row r="124" spans="1:6" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A124" s="13" t="s">
         <v>363</v>
       </c>
@@ -7590,14 +7588,14 @@
       <c r="D124" s="13" t="s">
         <v>349</v>
       </c>
-      <c r="E124" s="31" t="s">
+      <c r="E124" s="28" t="s">
         <v>125</v>
       </c>
       <c r="F124" s="13" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="125" spans="1:6" ht="25.8" x14ac:dyDescent="0.6">
+    <row r="125" spans="1:6" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A125" s="13" t="s">
         <v>365</v>
       </c>
@@ -7610,14 +7608,14 @@
       <c r="D125" s="13" t="s">
         <v>349</v>
       </c>
-      <c r="E125" s="31" t="s">
+      <c r="E125" s="28" t="s">
         <v>125</v>
       </c>
       <c r="F125" s="13" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="126" spans="1:6" ht="25.8" x14ac:dyDescent="0.6">
+    <row r="126" spans="1:6" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A126" s="13" t="s">
         <v>367</v>
       </c>
@@ -7630,14 +7628,14 @@
       <c r="D126" s="13" t="s">
         <v>349</v>
       </c>
-      <c r="E126" s="31" t="s">
+      <c r="E126" s="28" t="s">
         <v>125</v>
       </c>
       <c r="F126" s="13" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="127" spans="1:6" ht="25.8" x14ac:dyDescent="0.6">
+    <row r="127" spans="1:6" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A127" s="13" t="s">
         <v>369</v>
       </c>
@@ -7650,14 +7648,14 @@
       <c r="D127" s="13" t="s">
         <v>349</v>
       </c>
-      <c r="E127" s="31" t="s">
+      <c r="E127" s="28" t="s">
         <v>125</v>
       </c>
       <c r="F127" s="13" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="128" spans="1:6" ht="25.8" x14ac:dyDescent="0.6">
+    <row r="128" spans="1:6" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A128" s="13" t="s">
         <v>371</v>
       </c>
@@ -7670,14 +7668,14 @@
       <c r="D128" s="13" t="s">
         <v>349</v>
       </c>
-      <c r="E128" s="31" t="s">
+      <c r="E128" s="28" t="s">
         <v>125</v>
       </c>
       <c r="F128" s="13" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="129" spans="1:6" ht="25.8" x14ac:dyDescent="0.6">
+    <row r="129" spans="1:6" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A129" s="13" t="s">
         <v>373</v>
       </c>
@@ -7690,14 +7688,14 @@
       <c r="D129" s="13" t="s">
         <v>349</v>
       </c>
-      <c r="E129" s="31" t="s">
+      <c r="E129" s="28" t="s">
         <v>125</v>
       </c>
       <c r="F129" s="13" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="130" spans="1:6" ht="25.8" x14ac:dyDescent="0.6">
+    <row r="130" spans="1:6" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A130" s="13" t="s">
         <v>375</v>
       </c>
@@ -7710,14 +7708,14 @@
       <c r="D130" s="13" t="s">
         <v>121</v>
       </c>
-      <c r="E130" s="31" t="s">
+      <c r="E130" s="28" t="s">
         <v>122</v>
       </c>
       <c r="F130" s="13" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="131" spans="1:6" ht="38.1" x14ac:dyDescent="0.6">
+    <row r="131" spans="1:6" ht="39" x14ac:dyDescent="0.3">
       <c r="A131" s="13" t="s">
         <v>377</v>
       </c>
@@ -7730,14 +7728,14 @@
       <c r="D131" s="13" t="s">
         <v>375</v>
       </c>
-      <c r="E131" s="31" t="s">
+      <c r="E131" s="28" t="s">
         <v>125</v>
       </c>
       <c r="F131" s="13" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="132" spans="1:6" ht="25.8" x14ac:dyDescent="0.6">
+    <row r="132" spans="1:6" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A132" s="13" t="s">
         <v>380</v>
       </c>
@@ -7750,14 +7748,14 @@
       <c r="D132" s="13" t="s">
         <v>375</v>
       </c>
-      <c r="E132" s="31" t="s">
+      <c r="E132" s="28" t="s">
         <v>125</v>
       </c>
       <c r="F132" s="13" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="133" spans="1:6" ht="38.1" x14ac:dyDescent="0.6">
+    <row r="133" spans="1:6" ht="39" x14ac:dyDescent="0.3">
       <c r="A133" s="13" t="s">
         <v>382</v>
       </c>
@@ -7770,14 +7768,14 @@
       <c r="D133" s="13" t="s">
         <v>375</v>
       </c>
-      <c r="E133" s="31" t="s">
+      <c r="E133" s="28" t="s">
         <v>125</v>
       </c>
       <c r="F133" s="13" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="134" spans="1:6" ht="25.8" x14ac:dyDescent="0.6">
+    <row r="134" spans="1:6" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A134" s="13" t="s">
         <v>384</v>
       </c>
@@ -7790,14 +7788,14 @@
       <c r="D134" s="13" t="s">
         <v>375</v>
       </c>
-      <c r="E134" s="31" t="s">
+      <c r="E134" s="28" t="s">
         <v>125</v>
       </c>
       <c r="F134" s="13" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="135" spans="1:6" ht="38.1" x14ac:dyDescent="0.6">
+    <row r="135" spans="1:6" ht="39" x14ac:dyDescent="0.3">
       <c r="A135" s="13" t="s">
         <v>386</v>
       </c>
@@ -7810,14 +7808,14 @@
       <c r="D135" s="13" t="s">
         <v>375</v>
       </c>
-      <c r="E135" s="31" t="s">
+      <c r="E135" s="28" t="s">
         <v>125</v>
       </c>
       <c r="F135" s="13" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="136" spans="1:6" ht="50.4" x14ac:dyDescent="0.6">
+    <row r="136" spans="1:6" ht="51.6" x14ac:dyDescent="0.3">
       <c r="A136" s="13" t="s">
         <v>388</v>
       </c>
@@ -7830,14 +7828,14 @@
       <c r="D136" s="13" t="s">
         <v>375</v>
       </c>
-      <c r="E136" s="31" t="s">
+      <c r="E136" s="28" t="s">
         <v>125</v>
       </c>
       <c r="F136" s="13" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="137" spans="1:6" ht="25.8" x14ac:dyDescent="0.6">
+    <row r="137" spans="1:6" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A137" s="13" t="s">
         <v>390</v>
       </c>
@@ -7850,14 +7848,14 @@
       <c r="D137" s="13" t="s">
         <v>375</v>
       </c>
-      <c r="E137" s="31" t="s">
+      <c r="E137" s="28" t="s">
         <v>125</v>
       </c>
       <c r="F137" s="13" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="138" spans="1:6" ht="50.4" x14ac:dyDescent="0.6">
+    <row r="138" spans="1:6" ht="51.6" x14ac:dyDescent="0.3">
       <c r="A138" s="13" t="s">
         <v>392</v>
       </c>
@@ -7870,14 +7868,14 @@
       <c r="D138" s="13" t="s">
         <v>375</v>
       </c>
-      <c r="E138" s="31" t="s">
+      <c r="E138" s="28" t="s">
         <v>125</v>
       </c>
       <c r="F138" s="13" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="139" spans="1:6" ht="38.1" x14ac:dyDescent="0.6">
+    <row r="139" spans="1:6" ht="39" x14ac:dyDescent="0.3">
       <c r="A139" s="13" t="s">
         <v>394</v>
       </c>
@@ -7890,14 +7888,14 @@
       <c r="D139" s="13" t="s">
         <v>375</v>
       </c>
-      <c r="E139" s="31" t="s">
+      <c r="E139" s="28" t="s">
         <v>125</v>
       </c>
       <c r="F139" s="13" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="140" spans="1:6" ht="75" x14ac:dyDescent="0.6">
+    <row r="140" spans="1:6" ht="76.8" x14ac:dyDescent="0.3">
       <c r="A140" s="13" t="s">
         <v>396</v>
       </c>
@@ -7910,14 +7908,14 @@
       <c r="D140" s="13" t="s">
         <v>375</v>
       </c>
-      <c r="E140" s="31" t="s">
+      <c r="E140" s="28" t="s">
         <v>125</v>
       </c>
       <c r="F140" s="13" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="141" spans="1:6" ht="38.1" x14ac:dyDescent="0.6">
+    <row r="141" spans="1:6" ht="39" x14ac:dyDescent="0.3">
       <c r="A141" s="13" t="s">
         <v>398</v>
       </c>
@@ -7930,14 +7928,14 @@
       <c r="D141" s="13" t="s">
         <v>375</v>
       </c>
-      <c r="E141" s="31" t="s">
+      <c r="E141" s="28" t="s">
         <v>125</v>
       </c>
       <c r="F141" s="13" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="142" spans="1:6" ht="25.8" x14ac:dyDescent="0.6">
+    <row r="142" spans="1:6" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A142" s="13" t="s">
         <v>400</v>
       </c>
@@ -7950,14 +7948,14 @@
       <c r="D142" s="13" t="s">
         <v>375</v>
       </c>
-      <c r="E142" s="31" t="s">
+      <c r="E142" s="28" t="s">
         <v>125</v>
       </c>
       <c r="F142" s="13" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="143" spans="1:6" ht="38.1" x14ac:dyDescent="0.6">
+    <row r="143" spans="1:6" ht="39" x14ac:dyDescent="0.3">
       <c r="A143" s="13" t="s">
         <v>402</v>
       </c>
@@ -7970,14 +7968,14 @@
       <c r="D143" s="13" t="s">
         <v>375</v>
       </c>
-      <c r="E143" s="31" t="s">
+      <c r="E143" s="28" t="s">
         <v>125</v>
       </c>
       <c r="F143" s="13" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="144" spans="1:6" ht="38.1" x14ac:dyDescent="0.6">
+    <row r="144" spans="1:6" ht="39" x14ac:dyDescent="0.3">
       <c r="A144" s="13" t="s">
         <v>404</v>
       </c>
@@ -7990,14 +7988,14 @@
       <c r="D144" s="13" t="s">
         <v>375</v>
       </c>
-      <c r="E144" s="31" t="s">
+      <c r="E144" s="28" t="s">
         <v>125</v>
       </c>
       <c r="F144" s="13" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="145" spans="1:6" ht="38.1" x14ac:dyDescent="0.6">
+    <row r="145" spans="1:6" ht="39" x14ac:dyDescent="0.3">
       <c r="A145" s="13" t="s">
         <v>406</v>
       </c>
@@ -8010,14 +8008,14 @@
       <c r="D145" s="13" t="s">
         <v>375</v>
       </c>
-      <c r="E145" s="31" t="s">
+      <c r="E145" s="28" t="s">
         <v>125</v>
       </c>
       <c r="F145" s="13" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="146" spans="1:6" ht="25.8" x14ac:dyDescent="0.6">
+    <row r="146" spans="1:6" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A146" s="13" t="s">
         <v>408</v>
       </c>
@@ -8030,14 +8028,14 @@
       <c r="D146" s="13" t="s">
         <v>375</v>
       </c>
-      <c r="E146" s="31" t="s">
+      <c r="E146" s="28" t="s">
         <v>125</v>
       </c>
       <c r="F146" s="13" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="147" spans="1:6" ht="50.4" x14ac:dyDescent="0.6">
+    <row r="147" spans="1:6" ht="51.6" x14ac:dyDescent="0.3">
       <c r="A147" s="13" t="s">
         <v>410</v>
       </c>
@@ -8050,14 +8048,14 @@
       <c r="D147" s="13" t="s">
         <v>375</v>
       </c>
-      <c r="E147" s="31" t="s">
+      <c r="E147" s="28" t="s">
         <v>125</v>
       </c>
       <c r="F147" s="13" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="148" spans="1:6" ht="25.8" x14ac:dyDescent="0.6">
+    <row r="148" spans="1:6" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A148" s="13" t="s">
         <v>412</v>
       </c>
@@ -8070,14 +8068,14 @@
       <c r="D148" s="13" t="s">
         <v>375</v>
       </c>
-      <c r="E148" s="31" t="s">
+      <c r="E148" s="28" t="s">
         <v>125</v>
       </c>
       <c r="F148" s="13" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="149" spans="1:6" ht="25.8" x14ac:dyDescent="0.6">
+    <row r="149" spans="1:6" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A149" s="13" t="s">
         <v>414</v>
       </c>
@@ -8090,14 +8088,14 @@
       <c r="D149" s="13" t="s">
         <v>375</v>
       </c>
-      <c r="E149" s="31" t="s">
+      <c r="E149" s="28" t="s">
         <v>125</v>
       </c>
       <c r="F149" s="13" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="150" spans="1:6" ht="50.4" x14ac:dyDescent="0.6">
+    <row r="150" spans="1:6" ht="51.6" x14ac:dyDescent="0.3">
       <c r="A150" s="13" t="s">
         <v>416</v>
       </c>
@@ -8110,14 +8108,14 @@
       <c r="D150" s="13" t="s">
         <v>375</v>
       </c>
-      <c r="E150" s="31" t="s">
+      <c r="E150" s="28" t="s">
         <v>125</v>
       </c>
       <c r="F150" s="13" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="151" spans="1:6" ht="50.4" x14ac:dyDescent="0.6">
+    <row r="151" spans="1:6" ht="51.6" x14ac:dyDescent="0.3">
       <c r="A151" s="13" t="s">
         <v>418</v>
       </c>
@@ -8130,14 +8128,14 @@
       <c r="D151" s="13" t="s">
         <v>375</v>
       </c>
-      <c r="E151" s="31" t="s">
+      <c r="E151" s="28" t="s">
         <v>125</v>
       </c>
       <c r="F151" s="13" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="152" spans="1:6" ht="25.8" x14ac:dyDescent="0.6">
+    <row r="152" spans="1:6" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A152" s="13" t="s">
         <v>420</v>
       </c>
@@ -8150,14 +8148,14 @@
       <c r="D152" s="13" t="s">
         <v>375</v>
       </c>
-      <c r="E152" s="31" t="s">
+      <c r="E152" s="28" t="s">
         <v>125</v>
       </c>
       <c r="F152" s="13" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="153" spans="1:6" ht="38.1" x14ac:dyDescent="0.6">
+    <row r="153" spans="1:6" ht="39" x14ac:dyDescent="0.3">
       <c r="A153" s="13" t="s">
         <v>422</v>
       </c>
@@ -8170,14 +8168,14 @@
       <c r="D153" s="13" t="s">
         <v>375</v>
       </c>
-      <c r="E153" s="31" t="s">
+      <c r="E153" s="28" t="s">
         <v>125</v>
       </c>
       <c r="F153" s="13" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="154" spans="1:6" ht="25.8" x14ac:dyDescent="0.6">
+    <row r="154" spans="1:6" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A154" s="13" t="s">
         <v>424</v>
       </c>
@@ -8190,14 +8188,14 @@
       <c r="D154" s="13" t="s">
         <v>375</v>
       </c>
-      <c r="E154" s="31" t="s">
+      <c r="E154" s="28" t="s">
         <v>125</v>
       </c>
       <c r="F154" s="13" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="155" spans="1:6" ht="38.1" x14ac:dyDescent="0.6">
+    <row r="155" spans="1:6" ht="39" x14ac:dyDescent="0.3">
       <c r="A155" s="13" t="s">
         <v>426</v>
       </c>
@@ -8210,14 +8208,14 @@
       <c r="D155" s="13" t="s">
         <v>375</v>
       </c>
-      <c r="E155" s="31" t="s">
+      <c r="E155" s="28" t="s">
         <v>125</v>
       </c>
       <c r="F155" s="13" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="156" spans="1:6" ht="50.4" x14ac:dyDescent="0.6">
+    <row r="156" spans="1:6" ht="51.6" x14ac:dyDescent="0.3">
       <c r="A156" s="13" t="s">
         <v>428</v>
       </c>
@@ -8230,14 +8228,14 @@
       <c r="D156" s="13" t="s">
         <v>375</v>
       </c>
-      <c r="E156" s="31" t="s">
+      <c r="E156" s="28" t="s">
         <v>125</v>
       </c>
       <c r="F156" s="13" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="157" spans="1:6" ht="50.4" x14ac:dyDescent="0.6">
+    <row r="157" spans="1:6" ht="51.6" x14ac:dyDescent="0.3">
       <c r="A157" s="13" t="s">
         <v>430</v>
       </c>
@@ -8250,14 +8248,14 @@
       <c r="D157" s="13" t="s">
         <v>375</v>
       </c>
-      <c r="E157" s="31" t="s">
+      <c r="E157" s="28" t="s">
         <v>125</v>
       </c>
       <c r="F157" s="13" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="158" spans="1:6" ht="25.8" x14ac:dyDescent="0.6">
+    <row r="158" spans="1:6" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A158" s="13" t="s">
         <v>432</v>
       </c>
@@ -8270,14 +8268,14 @@
       <c r="D158" s="13" t="s">
         <v>375</v>
       </c>
-      <c r="E158" s="31" t="s">
+      <c r="E158" s="28" t="s">
         <v>125</v>
       </c>
       <c r="F158" s="13" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="159" spans="1:6" ht="25.8" x14ac:dyDescent="0.6">
+    <row r="159" spans="1:6" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A159" s="13" t="s">
         <v>434</v>
       </c>
@@ -8290,14 +8288,14 @@
       <c r="D159" s="13" t="s">
         <v>375</v>
       </c>
-      <c r="E159" s="31" t="s">
+      <c r="E159" s="28" t="s">
         <v>125</v>
       </c>
       <c r="F159" s="13" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="160" spans="1:6" ht="25.8" x14ac:dyDescent="0.6">
+    <row r="160" spans="1:6" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A160" s="13" t="s">
         <v>436</v>
       </c>
@@ -8310,14 +8308,14 @@
       <c r="D160" s="13" t="s">
         <v>121</v>
       </c>
-      <c r="E160" s="31" t="s">
+      <c r="E160" s="28" t="s">
         <v>122</v>
       </c>
       <c r="F160" s="13" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="161" spans="1:6" ht="25.8" x14ac:dyDescent="0.6">
+    <row r="161" spans="1:6" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A161" s="13" t="s">
         <v>438</v>
       </c>
@@ -8330,14 +8328,14 @@
       <c r="D161" s="13" t="s">
         <v>436</v>
       </c>
-      <c r="E161" s="31" t="s">
+      <c r="E161" s="28" t="s">
         <v>125</v>
       </c>
       <c r="F161" s="13" t="s">
         <v>437</v>
       </c>
     </row>
-    <row r="162" spans="1:6" ht="25.8" x14ac:dyDescent="0.6">
+    <row r="162" spans="1:6" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A162" s="13" t="s">
         <v>440</v>
       </c>
@@ -8350,14 +8348,14 @@
       <c r="D162" s="13" t="s">
         <v>436</v>
       </c>
-      <c r="E162" s="31" t="s">
+      <c r="E162" s="28" t="s">
         <v>125</v>
       </c>
       <c r="F162" s="13" t="s">
         <v>437</v>
       </c>
     </row>
-    <row r="163" spans="1:6" ht="25.8" x14ac:dyDescent="0.6">
+    <row r="163" spans="1:6" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A163" s="13" t="s">
         <v>442</v>
       </c>
@@ -8370,14 +8368,14 @@
       <c r="D163" s="13" t="s">
         <v>436</v>
       </c>
-      <c r="E163" s="31" t="s">
+      <c r="E163" s="28" t="s">
         <v>125</v>
       </c>
       <c r="F163" s="13" t="s">
         <v>437</v>
       </c>
     </row>
-    <row r="164" spans="1:6" ht="25.8" x14ac:dyDescent="0.6">
+    <row r="164" spans="1:6" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A164" s="13" t="s">
         <v>443</v>
       </c>
@@ -8390,14 +8388,14 @@
       <c r="D164" s="13" t="s">
         <v>436</v>
       </c>
-      <c r="E164" s="31" t="s">
+      <c r="E164" s="28" t="s">
         <v>125</v>
       </c>
       <c r="F164" s="13" t="s">
         <v>437</v>
       </c>
     </row>
-    <row r="165" spans="1:6" ht="25.8" x14ac:dyDescent="0.6">
+    <row r="165" spans="1:6" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A165" s="13" t="s">
         <v>445</v>
       </c>
@@ -8410,14 +8408,14 @@
       <c r="D165" s="13" t="s">
         <v>436</v>
       </c>
-      <c r="E165" s="31" t="s">
+      <c r="E165" s="28" t="s">
         <v>125</v>
       </c>
       <c r="F165" s="13" t="s">
         <v>437</v>
       </c>
     </row>
-    <row r="166" spans="1:6" ht="25.8" x14ac:dyDescent="0.6">
+    <row r="166" spans="1:6" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A166" s="13" t="s">
         <v>447</v>
       </c>
@@ -8430,14 +8428,14 @@
       <c r="D166" s="13" t="s">
         <v>436</v>
       </c>
-      <c r="E166" s="31" t="s">
+      <c r="E166" s="28" t="s">
         <v>125</v>
       </c>
       <c r="F166" s="13" t="s">
         <v>437</v>
       </c>
     </row>
-    <row r="167" spans="1:6" ht="25.8" x14ac:dyDescent="0.6">
+    <row r="167" spans="1:6" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A167" s="13" t="s">
         <v>449</v>
       </c>
@@ -8450,14 +8448,14 @@
       <c r="D167" s="13" t="s">
         <v>436</v>
       </c>
-      <c r="E167" s="31" t="s">
+      <c r="E167" s="28" t="s">
         <v>125</v>
       </c>
       <c r="F167" s="13" t="s">
         <v>437</v>
       </c>
     </row>
-    <row r="168" spans="1:6" ht="25.8" x14ac:dyDescent="0.6">
+    <row r="168" spans="1:6" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A168" s="13" t="s">
         <v>451</v>
       </c>
@@ -8470,14 +8468,14 @@
       <c r="D168" s="13" t="s">
         <v>436</v>
       </c>
-      <c r="E168" s="31" t="s">
+      <c r="E168" s="28" t="s">
         <v>125</v>
       </c>
       <c r="F168" s="13" t="s">
         <v>437</v>
       </c>
     </row>
-    <row r="169" spans="1:6" ht="25.8" x14ac:dyDescent="0.6">
+    <row r="169" spans="1:6" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A169" s="13" t="s">
         <v>453</v>
       </c>
@@ -8490,14 +8488,14 @@
       <c r="D169" s="13" t="s">
         <v>436</v>
       </c>
-      <c r="E169" s="31" t="s">
+      <c r="E169" s="28" t="s">
         <v>125</v>
       </c>
       <c r="F169" s="13" t="s">
         <v>437</v>
       </c>
     </row>
-    <row r="170" spans="1:6" ht="25.8" x14ac:dyDescent="0.6">
+    <row r="170" spans="1:6" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A170" s="13" t="s">
         <v>455</v>
       </c>
@@ -8510,14 +8508,14 @@
       <c r="D170" s="13" t="s">
         <v>436</v>
       </c>
-      <c r="E170" s="31" t="s">
+      <c r="E170" s="28" t="s">
         <v>125</v>
       </c>
       <c r="F170" s="13" t="s">
         <v>437</v>
       </c>
     </row>
-    <row r="171" spans="1:6" ht="25.8" x14ac:dyDescent="0.6">
+    <row r="171" spans="1:6" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A171" s="13" t="s">
         <v>457</v>
       </c>
@@ -8530,14 +8528,14 @@
       <c r="D171" s="13" t="s">
         <v>436</v>
       </c>
-      <c r="E171" s="31" t="s">
+      <c r="E171" s="28" t="s">
         <v>125</v>
       </c>
       <c r="F171" s="13" t="s">
         <v>437</v>
       </c>
     </row>
-    <row r="172" spans="1:6" ht="25.8" x14ac:dyDescent="0.6">
+    <row r="172" spans="1:6" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A172" s="13" t="s">
         <v>459</v>
       </c>
@@ -8550,14 +8548,14 @@
       <c r="D172" s="13" t="s">
         <v>436</v>
       </c>
-      <c r="E172" s="31" t="s">
+      <c r="E172" s="28" t="s">
         <v>125</v>
       </c>
       <c r="F172" s="13" t="s">
         <v>437</v>
       </c>
     </row>
-    <row r="173" spans="1:6" ht="25.8" x14ac:dyDescent="0.6">
+    <row r="173" spans="1:6" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A173" s="13" t="s">
         <v>461</v>
       </c>
@@ -8570,14 +8568,14 @@
       <c r="D173" s="13" t="s">
         <v>436</v>
       </c>
-      <c r="E173" s="31" t="s">
+      <c r="E173" s="28" t="s">
         <v>125</v>
       </c>
       <c r="F173" s="13" t="s">
         <v>437</v>
       </c>
     </row>
-    <row r="174" spans="1:6" ht="62.7" x14ac:dyDescent="0.6">
+    <row r="174" spans="1:6" ht="64.2" x14ac:dyDescent="0.3">
       <c r="A174" s="13" t="s">
         <v>463</v>
       </c>
@@ -8590,14 +8588,14 @@
       <c r="D174" s="13" t="s">
         <v>121</v>
       </c>
-      <c r="E174" s="31" t="s">
+      <c r="E174" s="28" t="s">
         <v>122</v>
       </c>
       <c r="F174" s="13" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="175" spans="1:6" ht="62.7" x14ac:dyDescent="0.6">
+    <row r="175" spans="1:6" ht="64.2" x14ac:dyDescent="0.3">
       <c r="A175" s="13" t="s">
         <v>465</v>
       </c>
@@ -8610,14 +8608,14 @@
       <c r="D175" s="13" t="s">
         <v>121</v>
       </c>
-      <c r="E175" s="31" t="s">
+      <c r="E175" s="28" t="s">
         <v>122</v>
       </c>
       <c r="F175" s="13" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="176" spans="1:6" ht="25.8" x14ac:dyDescent="0.6">
+    <row r="176" spans="1:6" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A176" s="13" t="s">
         <v>467</v>
       </c>
@@ -8630,14 +8628,14 @@
       <c r="D176" s="13" t="s">
         <v>121</v>
       </c>
-      <c r="E176" s="31" t="s">
+      <c r="E176" s="28" t="s">
         <v>122</v>
       </c>
       <c r="F176" s="13" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="177" spans="1:6" ht="25.8" x14ac:dyDescent="0.6">
+    <row r="177" spans="1:6" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A177" s="13" t="s">
         <v>470</v>
       </c>
@@ -8650,14 +8648,14 @@
       <c r="D177" s="13" t="s">
         <v>121</v>
       </c>
-      <c r="E177" s="31" t="s">
+      <c r="E177" s="28" t="s">
         <v>122</v>
       </c>
       <c r="F177" s="13" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="178" spans="1:6" ht="25.8" x14ac:dyDescent="0.6">
+    <row r="178" spans="1:6" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A178" s="13" t="s">
         <v>472</v>
       </c>
@@ -8670,14 +8668,14 @@
       <c r="D178" s="13" t="s">
         <v>113</v>
       </c>
-      <c r="E178" s="31" t="s">
+      <c r="E178" s="28" t="s">
         <v>114</v>
       </c>
       <c r="F178" s="13" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="179" spans="1:6" ht="25.8" x14ac:dyDescent="0.6">
+    <row r="179" spans="1:6" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A179" s="13" t="s">
         <v>475</v>
       </c>
@@ -8690,14 +8688,14 @@
       <c r="D179" s="13" t="s">
         <v>472</v>
       </c>
-      <c r="E179" s="31" t="s">
+      <c r="E179" s="28" t="s">
         <v>473</v>
       </c>
       <c r="F179" s="13" t="s">
         <v>474</v>
       </c>
     </row>
-    <row r="180" spans="1:6" ht="25.8" x14ac:dyDescent="0.6">
+    <row r="180" spans="1:6" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A180" s="13" t="s">
         <v>478</v>
       </c>
@@ -8710,14 +8708,14 @@
       <c r="D180" s="13" t="s">
         <v>472</v>
       </c>
-      <c r="E180" s="31" t="s">
+      <c r="E180" s="28" t="s">
         <v>473</v>
       </c>
       <c r="F180" s="13" t="s">
         <v>474</v>
       </c>
     </row>
-    <row r="181" spans="1:6" ht="25.8" x14ac:dyDescent="0.6">
+    <row r="181" spans="1:6" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A181" s="13" t="s">
         <v>480</v>
       </c>
@@ -8730,14 +8728,14 @@
       <c r="D181" s="13" t="s">
         <v>472</v>
       </c>
-      <c r="E181" s="31" t="s">
+      <c r="E181" s="28" t="s">
         <v>473</v>
       </c>
       <c r="F181" s="13" t="s">
         <v>474</v>
       </c>
     </row>
-    <row r="182" spans="1:6" ht="25.8" x14ac:dyDescent="0.6">
+    <row r="182" spans="1:6" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A182" s="13" t="s">
         <v>482</v>
       </c>
@@ -8750,14 +8748,14 @@
       <c r="D182" s="13" t="s">
         <v>472</v>
       </c>
-      <c r="E182" s="31" t="s">
+      <c r="E182" s="28" t="s">
         <v>473</v>
       </c>
       <c r="F182" s="13" t="s">
         <v>474</v>
       </c>
     </row>
-    <row r="183" spans="1:6" ht="25.8" x14ac:dyDescent="0.6">
+    <row r="183" spans="1:6" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A183" s="13" t="s">
         <v>484</v>
       </c>
@@ -8770,14 +8768,14 @@
       <c r="D183" s="13" t="s">
         <v>472</v>
       </c>
-      <c r="E183" s="31" t="s">
+      <c r="E183" s="28" t="s">
         <v>473</v>
       </c>
       <c r="F183" s="13" t="s">
         <v>474</v>
       </c>
     </row>
-    <row r="184" spans="1:6" ht="25.8" x14ac:dyDescent="0.6">
+    <row r="184" spans="1:6" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A184" s="13" t="s">
         <v>486</v>
       </c>
@@ -8790,14 +8788,14 @@
       <c r="D184" s="13" t="s">
         <v>113</v>
       </c>
-      <c r="E184" s="31" t="s">
+      <c r="E184" s="28" t="s">
         <v>114</v>
       </c>
       <c r="F184" s="13" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="185" spans="1:6" ht="25.8" x14ac:dyDescent="0.6">
+    <row r="185" spans="1:6" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A185" s="13" t="s">
         <v>487</v>
       </c>
@@ -8810,14 +8808,14 @@
       <c r="D185" s="13" t="s">
         <v>486</v>
       </c>
-      <c r="E185" s="31" t="s">
+      <c r="E185" s="28" t="s">
         <v>473</v>
       </c>
       <c r="F185" s="13" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="186" spans="1:6" ht="25.8" x14ac:dyDescent="0.6">
+    <row r="186" spans="1:6" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A186" s="13" t="s">
         <v>488</v>
       </c>
@@ -8830,14 +8828,14 @@
       <c r="D186" s="13" t="s">
         <v>487</v>
       </c>
-      <c r="E186" s="31" t="s">
+      <c r="E186" s="28" t="s">
         <v>125</v>
       </c>
       <c r="F186" s="13" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="187" spans="1:6" ht="25.8" x14ac:dyDescent="0.6">
+    <row r="187" spans="1:6" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A187" s="13" t="s">
         <v>489</v>
       </c>
@@ -8850,14 +8848,14 @@
       <c r="D187" s="13" t="s">
         <v>487</v>
       </c>
-      <c r="E187" s="31" t="s">
+      <c r="E187" s="28" t="s">
         <v>125</v>
       </c>
       <c r="F187" s="13" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="188" spans="1:6" ht="25.8" x14ac:dyDescent="0.6">
+    <row r="188" spans="1:6" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A188" s="13" t="s">
         <v>490</v>
       </c>
@@ -8870,14 +8868,14 @@
       <c r="D188" s="13" t="s">
         <v>487</v>
       </c>
-      <c r="E188" s="31" t="s">
+      <c r="E188" s="28" t="s">
         <v>125</v>
       </c>
       <c r="F188" s="13" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="189" spans="1:6" ht="25.8" x14ac:dyDescent="0.6">
+    <row r="189" spans="1:6" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A189" s="13" t="s">
         <v>491</v>
       </c>
@@ -8890,14 +8888,14 @@
       <c r="D189" s="13" t="s">
         <v>487</v>
       </c>
-      <c r="E189" s="31" t="s">
+      <c r="E189" s="28" t="s">
         <v>125</v>
       </c>
       <c r="F189" s="13" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="190" spans="1:6" ht="25.8" x14ac:dyDescent="0.6">
+    <row r="190" spans="1:6" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A190" s="13" t="s">
         <v>492</v>
       </c>
@@ -8910,14 +8908,14 @@
       <c r="D190" s="13" t="s">
         <v>487</v>
       </c>
-      <c r="E190" s="31" t="s">
+      <c r="E190" s="28" t="s">
         <v>125</v>
       </c>
       <c r="F190" s="13" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="191" spans="1:6" ht="25.8" x14ac:dyDescent="0.6">
+    <row r="191" spans="1:6" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A191" s="13" t="s">
         <v>493</v>
       </c>
@@ -8930,14 +8928,14 @@
       <c r="D191" s="13" t="s">
         <v>487</v>
       </c>
-      <c r="E191" s="31" t="s">
+      <c r="E191" s="28" t="s">
         <v>125</v>
       </c>
       <c r="F191" s="13" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="192" spans="1:6" ht="25.8" x14ac:dyDescent="0.6">
+    <row r="192" spans="1:6" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A192" s="13" t="s">
         <v>494</v>
       </c>
@@ -8950,14 +8948,14 @@
       <c r="D192" s="13" t="s">
         <v>487</v>
       </c>
-      <c r="E192" s="31" t="s">
+      <c r="E192" s="28" t="s">
         <v>125</v>
       </c>
       <c r="F192" s="13" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="193" spans="1:6" ht="25.8" x14ac:dyDescent="0.6">
+    <row r="193" spans="1:6" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A193" s="13" t="s">
         <v>495</v>
       </c>
@@ -8970,14 +8968,14 @@
       <c r="D193" s="13" t="s">
         <v>487</v>
       </c>
-      <c r="E193" s="31" t="s">
+      <c r="E193" s="28" t="s">
         <v>125</v>
       </c>
       <c r="F193" s="13" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="194" spans="1:6" ht="25.8" x14ac:dyDescent="0.6">
+    <row r="194" spans="1:6" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A194" s="13" t="s">
         <v>496</v>
       </c>
@@ -8990,14 +8988,14 @@
       <c r="D194" s="13" t="s">
         <v>487</v>
       </c>
-      <c r="E194" s="31" t="s">
+      <c r="E194" s="28" t="s">
         <v>125</v>
       </c>
       <c r="F194" s="13" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="195" spans="1:6" ht="25.8" x14ac:dyDescent="0.6">
+    <row r="195" spans="1:6" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A195" s="13" t="s">
         <v>497</v>
       </c>
@@ -9010,14 +9008,14 @@
       <c r="D195" s="13" t="s">
         <v>487</v>
       </c>
-      <c r="E195" s="31" t="s">
+      <c r="E195" s="28" t="s">
         <v>125</v>
       </c>
       <c r="F195" s="13" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="196" spans="1:6" ht="25.8" x14ac:dyDescent="0.6">
+    <row r="196" spans="1:6" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A196" s="13" t="s">
         <v>498</v>
       </c>
@@ -9030,14 +9028,14 @@
       <c r="D196" s="13" t="s">
         <v>487</v>
       </c>
-      <c r="E196" s="31" t="s">
+      <c r="E196" s="28" t="s">
         <v>125</v>
       </c>
       <c r="F196" s="13" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="197" spans="1:6" ht="25.8" x14ac:dyDescent="0.6">
+    <row r="197" spans="1:6" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A197" s="13" t="s">
         <v>499</v>
       </c>
@@ -9050,14 +9048,14 @@
       <c r="D197" s="13" t="s">
         <v>487</v>
       </c>
-      <c r="E197" s="31" t="s">
+      <c r="E197" s="28" t="s">
         <v>125</v>
       </c>
       <c r="F197" s="13" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="198" spans="1:6" ht="25.8" x14ac:dyDescent="0.6">
+    <row r="198" spans="1:6" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A198" s="13" t="s">
         <v>500</v>
       </c>
@@ -9070,14 +9068,14 @@
       <c r="D198" s="13" t="s">
         <v>487</v>
       </c>
-      <c r="E198" s="31" t="s">
+      <c r="E198" s="28" t="s">
         <v>125</v>
       </c>
       <c r="F198" s="13" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="199" spans="1:6" ht="25.8" x14ac:dyDescent="0.6">
+    <row r="199" spans="1:6" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A199" s="13" t="s">
         <v>501</v>
       </c>
@@ -9090,14 +9088,14 @@
       <c r="D199" s="13" t="s">
         <v>487</v>
       </c>
-      <c r="E199" s="31" t="s">
+      <c r="E199" s="28" t="s">
         <v>125</v>
       </c>
       <c r="F199" s="13" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="200" spans="1:6" ht="25.8" x14ac:dyDescent="0.6">
+    <row r="200" spans="1:6" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A200" s="13" t="s">
         <v>502</v>
       </c>
@@ -9110,14 +9108,14 @@
       <c r="D200" s="13" t="s">
         <v>487</v>
       </c>
-      <c r="E200" s="31" t="s">
+      <c r="E200" s="28" t="s">
         <v>125</v>
       </c>
       <c r="F200" s="13" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="201" spans="1:6" ht="25.8" x14ac:dyDescent="0.6">
+    <row r="201" spans="1:6" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A201" s="13" t="s">
         <v>503</v>
       </c>
@@ -9130,14 +9128,14 @@
       <c r="D201" s="13" t="s">
         <v>487</v>
       </c>
-      <c r="E201" s="31" t="s">
+      <c r="E201" s="28" t="s">
         <v>125</v>
       </c>
       <c r="F201" s="13" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="202" spans="1:6" ht="38.1" x14ac:dyDescent="0.6">
+    <row r="202" spans="1:6" ht="39" x14ac:dyDescent="0.3">
       <c r="A202" s="13" t="s">
         <v>504</v>
       </c>
@@ -9150,14 +9148,14 @@
       <c r="D202" s="13" t="s">
         <v>486</v>
       </c>
-      <c r="E202" s="31" t="s">
+      <c r="E202" s="28" t="s">
         <v>473</v>
       </c>
       <c r="F202" s="13" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="203" spans="1:6" ht="38.1" x14ac:dyDescent="0.6">
+    <row r="203" spans="1:6" ht="39" x14ac:dyDescent="0.3">
       <c r="A203" s="13" t="s">
         <v>505</v>
       </c>
@@ -9170,14 +9168,14 @@
       <c r="D203" s="13" t="s">
         <v>504</v>
       </c>
-      <c r="E203" s="31" t="s">
+      <c r="E203" s="28" t="s">
         <v>125</v>
       </c>
       <c r="F203" s="13" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="204" spans="1:6" ht="25.8" x14ac:dyDescent="0.6">
+    <row r="204" spans="1:6" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A204" s="13" t="s">
         <v>506</v>
       </c>
@@ -9190,14 +9188,14 @@
       <c r="D204" s="13" t="s">
         <v>504</v>
       </c>
-      <c r="E204" s="31" t="s">
+      <c r="E204" s="28" t="s">
         <v>125</v>
       </c>
       <c r="F204" s="13" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="205" spans="1:6" ht="25.8" x14ac:dyDescent="0.6">
+    <row r="205" spans="1:6" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A205" s="13" t="s">
         <v>507</v>
       </c>
@@ -9210,14 +9208,14 @@
       <c r="D205" s="13" t="s">
         <v>504</v>
       </c>
-      <c r="E205" s="31" t="s">
+      <c r="E205" s="28" t="s">
         <v>125</v>
       </c>
       <c r="F205" s="13" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="206" spans="1:6" ht="25.8" x14ac:dyDescent="0.6">
+    <row r="206" spans="1:6" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A206" s="13" t="s">
         <v>508</v>
       </c>
@@ -9230,14 +9228,14 @@
       <c r="D206" s="13" t="s">
         <v>504</v>
       </c>
-      <c r="E206" s="31" t="s">
+      <c r="E206" s="28" t="s">
         <v>125</v>
       </c>
       <c r="F206" s="13" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="207" spans="1:6" ht="25.8" x14ac:dyDescent="0.6">
+    <row r="207" spans="1:6" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A207" s="13" t="s">
         <v>509</v>
       </c>
@@ -9250,14 +9248,14 @@
       <c r="D207" s="13" t="s">
         <v>504</v>
       </c>
-      <c r="E207" s="31" t="s">
+      <c r="E207" s="28" t="s">
         <v>125</v>
       </c>
       <c r="F207" s="13" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="208" spans="1:6" ht="25.8" x14ac:dyDescent="0.6">
+    <row r="208" spans="1:6" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A208" s="13" t="s">
         <v>510</v>
       </c>
@@ -9270,14 +9268,14 @@
       <c r="D208" s="13" t="s">
         <v>504</v>
       </c>
-      <c r="E208" s="31" t="s">
+      <c r="E208" s="28" t="s">
         <v>125</v>
       </c>
       <c r="F208" s="13" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="209" spans="1:6" ht="25.8" x14ac:dyDescent="0.6">
+    <row r="209" spans="1:6" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A209" s="13" t="s">
         <v>511</v>
       </c>
@@ -9290,14 +9288,14 @@
       <c r="D209" s="13" t="s">
         <v>504</v>
       </c>
-      <c r="E209" s="31" t="s">
+      <c r="E209" s="28" t="s">
         <v>125</v>
       </c>
       <c r="F209" s="13" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="210" spans="1:6" ht="25.8" x14ac:dyDescent="0.6">
+    <row r="210" spans="1:6" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A210" s="13" t="s">
         <v>512</v>
       </c>
@@ -9310,14 +9308,14 @@
       <c r="D210" s="13" t="s">
         <v>504</v>
       </c>
-      <c r="E210" s="31" t="s">
+      <c r="E210" s="28" t="s">
         <v>125</v>
       </c>
       <c r="F210" s="13" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="211" spans="1:6" ht="25.8" x14ac:dyDescent="0.6">
+    <row r="211" spans="1:6" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A211" s="13" t="s">
         <v>513</v>
       </c>
@@ -9330,14 +9328,14 @@
       <c r="D211" s="13" t="s">
         <v>504</v>
       </c>
-      <c r="E211" s="31" t="s">
+      <c r="E211" s="28" t="s">
         <v>125</v>
       </c>
       <c r="F211" s="13" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="212" spans="1:6" ht="25.8" x14ac:dyDescent="0.6">
+    <row r="212" spans="1:6" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A212" s="13" t="s">
         <v>514</v>
       </c>
@@ -9350,14 +9348,14 @@
       <c r="D212" s="13" t="s">
         <v>504</v>
       </c>
-      <c r="E212" s="31" t="s">
+      <c r="E212" s="28" t="s">
         <v>125</v>
       </c>
       <c r="F212" s="13" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="213" spans="1:6" ht="25.8" x14ac:dyDescent="0.6">
+    <row r="213" spans="1:6" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A213" s="13" t="s">
         <v>515</v>
       </c>
@@ -9370,14 +9368,14 @@
       <c r="D213" s="13" t="s">
         <v>504</v>
       </c>
-      <c r="E213" s="31" t="s">
+      <c r="E213" s="28" t="s">
         <v>125</v>
       </c>
       <c r="F213" s="13" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="214" spans="1:6" ht="25.8" x14ac:dyDescent="0.6">
+    <row r="214" spans="1:6" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A214" s="13" t="s">
         <v>516</v>
       </c>
@@ -9390,14 +9388,14 @@
       <c r="D214" s="13" t="s">
         <v>504</v>
       </c>
-      <c r="E214" s="31" t="s">
+      <c r="E214" s="28" t="s">
         <v>125</v>
       </c>
       <c r="F214" s="13" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="215" spans="1:6" ht="25.8" x14ac:dyDescent="0.6">
+    <row r="215" spans="1:6" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A215" s="13" t="s">
         <v>517</v>
       </c>
@@ -9410,14 +9408,14 @@
       <c r="D215" s="13" t="s">
         <v>504</v>
       </c>
-      <c r="E215" s="31" t="s">
+      <c r="E215" s="28" t="s">
         <v>125</v>
       </c>
       <c r="F215" s="13" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="216" spans="1:6" ht="25.8" x14ac:dyDescent="0.6">
+    <row r="216" spans="1:6" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A216" s="13" t="s">
         <v>518</v>
       </c>
@@ -9430,14 +9428,14 @@
       <c r="D216" s="13" t="s">
         <v>504</v>
       </c>
-      <c r="E216" s="31" t="s">
+      <c r="E216" s="28" t="s">
         <v>125</v>
       </c>
       <c r="F216" s="13" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="217" spans="1:6" ht="25.8" x14ac:dyDescent="0.6">
+    <row r="217" spans="1:6" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A217" s="13" t="s">
         <v>519</v>
       </c>
@@ -9450,14 +9448,14 @@
       <c r="D217" s="13" t="s">
         <v>504</v>
       </c>
-      <c r="E217" s="31" t="s">
+      <c r="E217" s="28" t="s">
         <v>125</v>
       </c>
       <c r="F217" s="13" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="218" spans="1:6" ht="25.8" x14ac:dyDescent="0.6">
+    <row r="218" spans="1:6" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A218" s="13" t="s">
         <v>520</v>
       </c>
@@ -9470,14 +9468,14 @@
       <c r="D218" s="13" t="s">
         <v>504</v>
       </c>
-      <c r="E218" s="31" t="s">
+      <c r="E218" s="28" t="s">
         <v>125</v>
       </c>
       <c r="F218" s="13" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="219" spans="1:6" ht="25.8" x14ac:dyDescent="0.6">
+    <row r="219" spans="1:6" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A219" s="13" t="s">
         <v>521</v>
       </c>
@@ -9490,14 +9488,14 @@
       <c r="D219" s="13" t="s">
         <v>486</v>
       </c>
-      <c r="E219" s="31" t="s">
+      <c r="E219" s="28" t="s">
         <v>473</v>
       </c>
       <c r="F219" s="13" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="220" spans="1:6" ht="25.8" x14ac:dyDescent="0.6">
+    <row r="220" spans="1:6" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A220" s="13" t="s">
         <v>522</v>
       </c>
@@ -9510,14 +9508,14 @@
       <c r="D220" s="13" t="s">
         <v>521</v>
       </c>
-      <c r="E220" s="31" t="s">
+      <c r="E220" s="28" t="s">
         <v>125</v>
       </c>
       <c r="F220" s="13" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="221" spans="1:6" ht="25.8" x14ac:dyDescent="0.6">
+    <row r="221" spans="1:6" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A221" s="13" t="s">
         <v>523</v>
       </c>
@@ -9530,14 +9528,14 @@
       <c r="D221" s="13" t="s">
         <v>521</v>
       </c>
-      <c r="E221" s="31" t="s">
+      <c r="E221" s="28" t="s">
         <v>125</v>
       </c>
       <c r="F221" s="13" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="222" spans="1:6" ht="25.8" x14ac:dyDescent="0.6">
+    <row r="222" spans="1:6" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A222" s="13" t="s">
         <v>524</v>
       </c>
@@ -9550,14 +9548,14 @@
       <c r="D222" s="13" t="s">
         <v>521</v>
       </c>
-      <c r="E222" s="31" t="s">
+      <c r="E222" s="28" t="s">
         <v>125</v>
       </c>
       <c r="F222" s="13" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="223" spans="1:6" ht="25.8" x14ac:dyDescent="0.6">
+    <row r="223" spans="1:6" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A223" s="13" t="s">
         <v>525</v>
       </c>
@@ -9570,14 +9568,14 @@
       <c r="D223" s="13" t="s">
         <v>521</v>
       </c>
-      <c r="E223" s="31" t="s">
+      <c r="E223" s="28" t="s">
         <v>125</v>
       </c>
       <c r="F223" s="13" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="224" spans="1:6" ht="25.8" x14ac:dyDescent="0.6">
+    <row r="224" spans="1:6" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A224" s="13" t="s">
         <v>526</v>
       </c>
@@ -9590,14 +9588,14 @@
       <c r="D224" s="13" t="s">
         <v>521</v>
       </c>
-      <c r="E224" s="31" t="s">
+      <c r="E224" s="28" t="s">
         <v>125</v>
       </c>
       <c r="F224" s="13" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="225" spans="1:6" ht="25.8" x14ac:dyDescent="0.6">
+    <row r="225" spans="1:6" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A225" s="13" t="s">
         <v>527</v>
       </c>
@@ -9610,14 +9608,14 @@
       <c r="D225" s="13" t="s">
         <v>521</v>
       </c>
-      <c r="E225" s="31" t="s">
+      <c r="E225" s="28" t="s">
         <v>125</v>
       </c>
       <c r="F225" s="13" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="226" spans="1:6" ht="25.8" x14ac:dyDescent="0.6">
+    <row r="226" spans="1:6" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A226" s="13" t="s">
         <v>528</v>
       </c>
@@ -9630,14 +9628,14 @@
       <c r="D226" s="13" t="s">
         <v>521</v>
       </c>
-      <c r="E226" s="31" t="s">
+      <c r="E226" s="28" t="s">
         <v>125</v>
       </c>
       <c r="F226" s="13" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="227" spans="1:6" ht="25.8" x14ac:dyDescent="0.6">
+    <row r="227" spans="1:6" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A227" s="13" t="s">
         <v>529</v>
       </c>
@@ -9650,14 +9648,14 @@
       <c r="D227" s="13" t="s">
         <v>521</v>
       </c>
-      <c r="E227" s="31" t="s">
+      <c r="E227" s="28" t="s">
         <v>125</v>
       </c>
       <c r="F227" s="13" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="228" spans="1:6" ht="25.8" x14ac:dyDescent="0.6">
+    <row r="228" spans="1:6" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A228" s="13" t="s">
         <v>530</v>
       </c>
@@ -9670,14 +9668,14 @@
       <c r="D228" s="13" t="s">
         <v>521</v>
       </c>
-      <c r="E228" s="31" t="s">
+      <c r="E228" s="28" t="s">
         <v>125</v>
       </c>
       <c r="F228" s="13" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="229" spans="1:6" ht="25.8" x14ac:dyDescent="0.6">
+    <row r="229" spans="1:6" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A229" s="13" t="s">
         <v>531</v>
       </c>
@@ -9690,14 +9688,14 @@
       <c r="D229" s="13" t="s">
         <v>521</v>
       </c>
-      <c r="E229" s="31" t="s">
+      <c r="E229" s="28" t="s">
         <v>125</v>
       </c>
       <c r="F229" s="13" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="230" spans="1:6" ht="25.8" x14ac:dyDescent="0.6">
+    <row r="230" spans="1:6" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A230" s="13" t="s">
         <v>532</v>
       </c>
@@ -9710,14 +9708,14 @@
       <c r="D230" s="13" t="s">
         <v>521</v>
       </c>
-      <c r="E230" s="31" t="s">
+      <c r="E230" s="28" t="s">
         <v>125</v>
       </c>
       <c r="F230" s="13" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="231" spans="1:6" ht="25.8" x14ac:dyDescent="0.6">
+    <row r="231" spans="1:6" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A231" s="13" t="s">
         <v>533</v>
       </c>
@@ -9730,14 +9728,14 @@
       <c r="D231" s="13" t="s">
         <v>486</v>
       </c>
-      <c r="E231" s="31" t="s">
+      <c r="E231" s="28" t="s">
         <v>473</v>
       </c>
       <c r="F231" s="13" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="232" spans="1:6" ht="25.8" x14ac:dyDescent="0.6">
+    <row r="232" spans="1:6" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A232" s="13" t="s">
         <v>534</v>
       </c>
@@ -9750,14 +9748,14 @@
       <c r="D232" s="13" t="s">
         <v>533</v>
       </c>
-      <c r="E232" s="31" t="s">
+      <c r="E232" s="28" t="s">
         <v>125</v>
       </c>
       <c r="F232" s="13" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="233" spans="1:6" ht="25.8" x14ac:dyDescent="0.6">
+    <row r="233" spans="1:6" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A233" s="13" t="s">
         <v>535</v>
       </c>
@@ -9770,14 +9768,14 @@
       <c r="D233" s="13" t="s">
         <v>533</v>
       </c>
-      <c r="E233" s="31" t="s">
+      <c r="E233" s="28" t="s">
         <v>125</v>
       </c>
       <c r="F233" s="13" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="234" spans="1:6" ht="25.8" x14ac:dyDescent="0.6">
+    <row r="234" spans="1:6" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A234" s="13" t="s">
         <v>536</v>
       </c>
@@ -9790,14 +9788,14 @@
       <c r="D234" s="13" t="s">
         <v>533</v>
       </c>
-      <c r="E234" s="31" t="s">
+      <c r="E234" s="28" t="s">
         <v>125</v>
       </c>
       <c r="F234" s="13" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="235" spans="1:6" ht="25.8" x14ac:dyDescent="0.6">
+    <row r="235" spans="1:6" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A235" s="13" t="s">
         <v>537</v>
       </c>
@@ -9810,14 +9808,14 @@
       <c r="D235" s="13" t="s">
         <v>533</v>
       </c>
-      <c r="E235" s="31" t="s">
+      <c r="E235" s="28" t="s">
         <v>125</v>
       </c>
       <c r="F235" s="13" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="236" spans="1:6" ht="25.8" x14ac:dyDescent="0.6">
+    <row r="236" spans="1:6" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A236" s="13" t="s">
         <v>538</v>
       </c>
@@ -9830,14 +9828,14 @@
       <c r="D236" s="13" t="s">
         <v>533</v>
       </c>
-      <c r="E236" s="31" t="s">
+      <c r="E236" s="28" t="s">
         <v>125</v>
       </c>
       <c r="F236" s="13" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="237" spans="1:6" ht="25.8" x14ac:dyDescent="0.6">
+    <row r="237" spans="1:6" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A237" s="13" t="s">
         <v>539</v>
       </c>
@@ -9850,14 +9848,14 @@
       <c r="D237" s="13" t="s">
         <v>533</v>
       </c>
-      <c r="E237" s="31" t="s">
+      <c r="E237" s="28" t="s">
         <v>125</v>
       </c>
       <c r="F237" s="13" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="238" spans="1:6" ht="25.8" x14ac:dyDescent="0.6">
+    <row r="238" spans="1:6" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A238" s="13" t="s">
         <v>540</v>
       </c>
@@ -9870,14 +9868,14 @@
       <c r="D238" s="13" t="s">
         <v>533</v>
       </c>
-      <c r="E238" s="31" t="s">
+      <c r="E238" s="28" t="s">
         <v>125</v>
       </c>
       <c r="F238" s="13" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="239" spans="1:6" ht="25.8" x14ac:dyDescent="0.6">
+    <row r="239" spans="1:6" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A239" s="13" t="s">
         <v>541</v>
       </c>
@@ -9890,14 +9888,14 @@
       <c r="D239" s="13" t="s">
         <v>533</v>
       </c>
-      <c r="E239" s="31" t="s">
+      <c r="E239" s="28" t="s">
         <v>125</v>
       </c>
       <c r="F239" s="13" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="240" spans="1:6" ht="25.8" x14ac:dyDescent="0.6">
+    <row r="240" spans="1:6" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A240" s="13" t="s">
         <v>542</v>
       </c>
@@ -9910,14 +9908,14 @@
       <c r="D240" s="13" t="s">
         <v>533</v>
       </c>
-      <c r="E240" s="31" t="s">
+      <c r="E240" s="28" t="s">
         <v>125</v>
       </c>
       <c r="F240" s="13" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="241" spans="1:6" ht="25.8" x14ac:dyDescent="0.6">
+    <row r="241" spans="1:6" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A241" s="13" t="s">
         <v>543</v>
       </c>
@@ -9930,14 +9928,14 @@
       <c r="D241" s="13" t="s">
         <v>533</v>
       </c>
-      <c r="E241" s="31" t="s">
+      <c r="E241" s="28" t="s">
         <v>125</v>
       </c>
       <c r="F241" s="13" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="242" spans="1:6" ht="25.8" x14ac:dyDescent="0.6">
+    <row r="242" spans="1:6" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A242" s="13" t="s">
         <v>544</v>
       </c>
@@ -9950,14 +9948,14 @@
       <c r="D242" s="13" t="s">
         <v>533</v>
       </c>
-      <c r="E242" s="31" t="s">
+      <c r="E242" s="28" t="s">
         <v>125</v>
       </c>
       <c r="F242" s="13" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="243" spans="1:6" ht="25.8" x14ac:dyDescent="0.6">
+    <row r="243" spans="1:6" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A243" s="13" t="s">
         <v>545</v>
       </c>
@@ -9970,14 +9968,14 @@
       <c r="D243" s="13" t="s">
         <v>533</v>
       </c>
-      <c r="E243" s="31" t="s">
+      <c r="E243" s="28" t="s">
         <v>125</v>
       </c>
       <c r="F243" s="13" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="244" spans="1:6" ht="25.8" x14ac:dyDescent="0.6">
+    <row r="244" spans="1:6" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A244" s="13" t="s">
         <v>546</v>
       </c>
@@ -9990,14 +9988,14 @@
       <c r="D244" s="13" t="s">
         <v>533</v>
       </c>
-      <c r="E244" s="31" t="s">
+      <c r="E244" s="28" t="s">
         <v>125</v>
       </c>
       <c r="F244" s="13" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="245" spans="1:6" ht="25.8" x14ac:dyDescent="0.6">
+    <row r="245" spans="1:6" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A245" s="13" t="s">
         <v>547</v>
       </c>
@@ -10010,14 +10008,14 @@
       <c r="D245" s="13" t="s">
         <v>533</v>
       </c>
-      <c r="E245" s="31" t="s">
+      <c r="E245" s="28" t="s">
         <v>125</v>
       </c>
       <c r="F245" s="13" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="246" spans="1:6" ht="25.8" x14ac:dyDescent="0.6">
+    <row r="246" spans="1:6" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A246" s="13" t="s">
         <v>548</v>
       </c>
@@ -10030,14 +10028,14 @@
       <c r="D246" s="13" t="s">
         <v>533</v>
       </c>
-      <c r="E246" s="31" t="s">
+      <c r="E246" s="28" t="s">
         <v>125</v>
       </c>
       <c r="F246" s="13" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="247" spans="1:6" ht="25.8" x14ac:dyDescent="0.6">
+    <row r="247" spans="1:6" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A247" s="13" t="s">
         <v>549</v>
       </c>
@@ -10050,14 +10048,14 @@
       <c r="D247" s="13" t="s">
         <v>533</v>
       </c>
-      <c r="E247" s="31" t="s">
+      <c r="E247" s="28" t="s">
         <v>125</v>
       </c>
       <c r="F247" s="13" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="248" spans="1:6" ht="25.8" x14ac:dyDescent="0.6">
+    <row r="248" spans="1:6" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A248" s="13" t="s">
         <v>550</v>
       </c>
@@ -10070,14 +10068,14 @@
       <c r="D248" s="13" t="s">
         <v>533</v>
       </c>
-      <c r="E248" s="31" t="s">
+      <c r="E248" s="28" t="s">
         <v>125</v>
       </c>
       <c r="F248" s="13" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="249" spans="1:6" ht="25.8" x14ac:dyDescent="0.6">
+    <row r="249" spans="1:6" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A249" s="13" t="s">
         <v>551</v>
       </c>
@@ -10090,14 +10088,14 @@
       <c r="D249" s="13" t="s">
         <v>533</v>
       </c>
-      <c r="E249" s="31" t="s">
+      <c r="E249" s="28" t="s">
         <v>125</v>
       </c>
       <c r="F249" s="13" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="250" spans="1:6" ht="25.8" x14ac:dyDescent="0.6">
+    <row r="250" spans="1:6" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A250" s="13" t="s">
         <v>552</v>
       </c>
@@ -10110,14 +10108,14 @@
       <c r="D250" s="13" t="s">
         <v>533</v>
       </c>
-      <c r="E250" s="31" t="s">
+      <c r="E250" s="28" t="s">
         <v>125</v>
       </c>
       <c r="F250" s="13" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="251" spans="1:6" ht="25.8" x14ac:dyDescent="0.6">
+    <row r="251" spans="1:6" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A251" s="13" t="s">
         <v>553</v>
       </c>
@@ -10130,14 +10128,14 @@
       <c r="D251" s="13" t="s">
         <v>533</v>
       </c>
-      <c r="E251" s="31" t="s">
+      <c r="E251" s="28" t="s">
         <v>125</v>
       </c>
       <c r="F251" s="13" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="252" spans="1:6" ht="25.8" x14ac:dyDescent="0.6">
+    <row r="252" spans="1:6" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A252" s="13" t="s">
         <v>554</v>
       </c>
@@ -10150,14 +10148,14 @@
       <c r="D252" s="13" t="s">
         <v>533</v>
       </c>
-      <c r="E252" s="31" t="s">
+      <c r="E252" s="28" t="s">
         <v>125</v>
       </c>
       <c r="F252" s="13" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="253" spans="1:6" ht="25.8" x14ac:dyDescent="0.6">
+    <row r="253" spans="1:6" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A253" s="13" t="s">
         <v>555</v>
       </c>
@@ -10170,14 +10168,14 @@
       <c r="D253" s="13" t="s">
         <v>533</v>
       </c>
-      <c r="E253" s="31" t="s">
+      <c r="E253" s="28" t="s">
         <v>125</v>
       </c>
       <c r="F253" s="13" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="254" spans="1:6" ht="38.1" x14ac:dyDescent="0.6">
+    <row r="254" spans="1:6" ht="39" x14ac:dyDescent="0.3">
       <c r="A254" s="13" t="s">
         <v>556</v>
       </c>
@@ -10190,14 +10188,14 @@
       <c r="D254" s="13" t="s">
         <v>533</v>
       </c>
-      <c r="E254" s="31" t="s">
+      <c r="E254" s="28" t="s">
         <v>125</v>
       </c>
       <c r="F254" s="13" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="255" spans="1:6" ht="25.8" x14ac:dyDescent="0.6">
+    <row r="255" spans="1:6" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A255" s="13" t="s">
         <v>557</v>
       </c>
@@ -10210,14 +10208,14 @@
       <c r="D255" s="13" t="s">
         <v>533</v>
       </c>
-      <c r="E255" s="31" t="s">
+      <c r="E255" s="28" t="s">
         <v>125</v>
       </c>
       <c r="F255" s="13" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="256" spans="1:6" ht="38.1" x14ac:dyDescent="0.6">
+    <row r="256" spans="1:6" ht="39" x14ac:dyDescent="0.3">
       <c r="A256" s="13" t="s">
         <v>558</v>
       </c>
@@ -10230,14 +10228,14 @@
       <c r="D256" s="13" t="s">
         <v>486</v>
       </c>
-      <c r="E256" s="31" t="s">
+      <c r="E256" s="28" t="s">
         <v>473</v>
       </c>
       <c r="F256" s="13" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="257" spans="1:6" ht="38.1" x14ac:dyDescent="0.6">
+    <row r="257" spans="1:6" ht="39" x14ac:dyDescent="0.3">
       <c r="A257" s="13" t="s">
         <v>559</v>
       </c>
@@ -10250,14 +10248,14 @@
       <c r="D257" s="13" t="s">
         <v>558</v>
       </c>
-      <c r="E257" s="31" t="s">
+      <c r="E257" s="28" t="s">
         <v>125</v>
       </c>
       <c r="F257" s="13" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="258" spans="1:6" ht="25.8" x14ac:dyDescent="0.6">
+    <row r="258" spans="1:6" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A258" s="13" t="s">
         <v>560</v>
       </c>
@@ -10270,14 +10268,14 @@
       <c r="D258" s="13" t="s">
         <v>558</v>
       </c>
-      <c r="E258" s="31" t="s">
+      <c r="E258" s="28" t="s">
         <v>125</v>
       </c>
       <c r="F258" s="13" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="259" spans="1:6" ht="25.8" x14ac:dyDescent="0.6">
+    <row r="259" spans="1:6" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A259" s="13" t="s">
         <v>561</v>
       </c>
@@ -10290,14 +10288,14 @@
       <c r="D259" s="13" t="s">
         <v>558</v>
       </c>
-      <c r="E259" s="31" t="s">
+      <c r="E259" s="28" t="s">
         <v>125</v>
       </c>
       <c r="F259" s="13" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="260" spans="1:6" ht="25.8" x14ac:dyDescent="0.6">
+    <row r="260" spans="1:6" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A260" s="13" t="s">
         <v>562</v>
       </c>
@@ -10310,14 +10308,14 @@
       <c r="D260" s="13" t="s">
         <v>558</v>
       </c>
-      <c r="E260" s="31" t="s">
+      <c r="E260" s="28" t="s">
         <v>125</v>
       </c>
       <c r="F260" s="13" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="261" spans="1:6" ht="25.8" x14ac:dyDescent="0.6">
+    <row r="261" spans="1:6" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A261" s="13" t="s">
         <v>563</v>
       </c>
@@ -10330,14 +10328,14 @@
       <c r="D261" s="13" t="s">
         <v>558</v>
       </c>
-      <c r="E261" s="31" t="s">
+      <c r="E261" s="28" t="s">
         <v>125</v>
       </c>
       <c r="F261" s="13" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="262" spans="1:6" ht="25.8" x14ac:dyDescent="0.6">
+    <row r="262" spans="1:6" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A262" s="13" t="s">
         <v>564</v>
       </c>
@@ -10350,14 +10348,14 @@
       <c r="D262" s="13" t="s">
         <v>558</v>
       </c>
-      <c r="E262" s="31" t="s">
+      <c r="E262" s="28" t="s">
         <v>125</v>
       </c>
       <c r="F262" s="13" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="263" spans="1:6" ht="25.8" x14ac:dyDescent="0.6">
+    <row r="263" spans="1:6" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A263" s="13" t="s">
         <v>565</v>
       </c>
@@ -10370,14 +10368,14 @@
       <c r="D263" s="13" t="s">
         <v>558</v>
       </c>
-      <c r="E263" s="31" t="s">
+      <c r="E263" s="28" t="s">
         <v>125</v>
       </c>
       <c r="F263" s="13" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="264" spans="1:6" ht="25.8" x14ac:dyDescent="0.6">
+    <row r="264" spans="1:6" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A264" s="13" t="s">
         <v>566</v>
       </c>
@@ -10390,14 +10388,14 @@
       <c r="D264" s="13" t="s">
         <v>558</v>
       </c>
-      <c r="E264" s="31" t="s">
+      <c r="E264" s="28" t="s">
         <v>125</v>
       </c>
       <c r="F264" s="13" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="265" spans="1:6" ht="25.8" x14ac:dyDescent="0.6">
+    <row r="265" spans="1:6" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A265" s="13" t="s">
         <v>567</v>
       </c>
@@ -10410,14 +10408,14 @@
       <c r="D265" s="13" t="s">
         <v>558</v>
       </c>
-      <c r="E265" s="31" t="s">
+      <c r="E265" s="28" t="s">
         <v>125</v>
       </c>
       <c r="F265" s="13" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="266" spans="1:6" ht="25.8" x14ac:dyDescent="0.6">
+    <row r="266" spans="1:6" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A266" s="13" t="s">
         <v>568</v>
       </c>
@@ -10430,14 +10428,14 @@
       <c r="D266" s="13" t="s">
         <v>558</v>
       </c>
-      <c r="E266" s="31" t="s">
+      <c r="E266" s="28" t="s">
         <v>125</v>
       </c>
       <c r="F266" s="13" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="267" spans="1:6" ht="25.8" x14ac:dyDescent="0.6">
+    <row r="267" spans="1:6" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A267" s="13" t="s">
         <v>569</v>
       </c>
@@ -10450,14 +10448,14 @@
       <c r="D267" s="13" t="s">
         <v>558</v>
       </c>
-      <c r="E267" s="31" t="s">
+      <c r="E267" s="28" t="s">
         <v>125</v>
       </c>
       <c r="F267" s="13" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="268" spans="1:6" ht="25.8" x14ac:dyDescent="0.6">
+    <row r="268" spans="1:6" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A268" s="13" t="s">
         <v>570</v>
       </c>
@@ -10470,14 +10468,14 @@
       <c r="D268" s="13" t="s">
         <v>558</v>
       </c>
-      <c r="E268" s="31" t="s">
+      <c r="E268" s="28" t="s">
         <v>125</v>
       </c>
       <c r="F268" s="13" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="269" spans="1:6" ht="25.8" x14ac:dyDescent="0.6">
+    <row r="269" spans="1:6" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A269" s="13" t="s">
         <v>571</v>
       </c>
@@ -10490,14 +10488,14 @@
       <c r="D269" s="13" t="s">
         <v>558</v>
       </c>
-      <c r="E269" s="31" t="s">
+      <c r="E269" s="28" t="s">
         <v>125</v>
       </c>
       <c r="F269" s="13" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="270" spans="1:6" ht="25.8" x14ac:dyDescent="0.6">
+    <row r="270" spans="1:6" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A270" s="13" t="s">
         <v>572</v>
       </c>
@@ -10510,14 +10508,14 @@
       <c r="D270" s="13" t="s">
         <v>558</v>
       </c>
-      <c r="E270" s="31" t="s">
+      <c r="E270" s="28" t="s">
         <v>125</v>
       </c>
       <c r="F270" s="13" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="271" spans="1:6" ht="25.8" x14ac:dyDescent="0.6">
+    <row r="271" spans="1:6" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A271" s="13" t="s">
         <v>573</v>
       </c>
@@ -10530,14 +10528,14 @@
       <c r="D271" s="13" t="s">
         <v>558</v>
       </c>
-      <c r="E271" s="31" t="s">
+      <c r="E271" s="28" t="s">
         <v>125</v>
       </c>
       <c r="F271" s="13" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="272" spans="1:6" ht="25.8" x14ac:dyDescent="0.6">
+    <row r="272" spans="1:6" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A272" s="13" t="s">
         <v>574</v>
       </c>
@@ -10550,14 +10548,14 @@
       <c r="D272" s="13" t="s">
         <v>558</v>
       </c>
-      <c r="E272" s="31" t="s">
+      <c r="E272" s="28" t="s">
         <v>125</v>
       </c>
       <c r="F272" s="13" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="273" spans="1:6" ht="25.8" x14ac:dyDescent="0.6">
+    <row r="273" spans="1:6" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A273" s="13" t="s">
         <v>575</v>
       </c>
@@ -10570,14 +10568,14 @@
       <c r="D273" s="13" t="s">
         <v>558</v>
       </c>
-      <c r="E273" s="31" t="s">
+      <c r="E273" s="28" t="s">
         <v>125</v>
       </c>
       <c r="F273" s="13" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="274" spans="1:6" ht="25.8" x14ac:dyDescent="0.6">
+    <row r="274" spans="1:6" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A274" s="13" t="s">
         <v>576</v>
       </c>
@@ -10590,14 +10588,14 @@
       <c r="D274" s="13" t="s">
         <v>558</v>
       </c>
-      <c r="E274" s="31" t="s">
+      <c r="E274" s="28" t="s">
         <v>125</v>
       </c>
       <c r="F274" s="13" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="275" spans="1:6" ht="25.8" x14ac:dyDescent="0.6">
+    <row r="275" spans="1:6" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A275" s="13" t="s">
         <v>577</v>
       </c>
@@ -10610,14 +10608,14 @@
       <c r="D275" s="13" t="s">
         <v>558</v>
       </c>
-      <c r="E275" s="31" t="s">
+      <c r="E275" s="28" t="s">
         <v>125</v>
       </c>
       <c r="F275" s="13" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="276" spans="1:6" ht="25.8" x14ac:dyDescent="0.6">
+    <row r="276" spans="1:6" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A276" s="13" t="s">
         <v>578</v>
       </c>
@@ -10630,14 +10628,14 @@
       <c r="D276" s="13" t="s">
         <v>558</v>
       </c>
-      <c r="E276" s="31" t="s">
+      <c r="E276" s="28" t="s">
         <v>125</v>
       </c>
       <c r="F276" s="13" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="277" spans="1:6" ht="25.8" x14ac:dyDescent="0.6">
+    <row r="277" spans="1:6" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A277" s="13" t="s">
         <v>579</v>
       </c>
@@ -10650,14 +10648,14 @@
       <c r="D277" s="13" t="s">
         <v>558</v>
       </c>
-      <c r="E277" s="31" t="s">
+      <c r="E277" s="28" t="s">
         <v>125</v>
       </c>
       <c r="F277" s="13" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="278" spans="1:6" ht="25.8" x14ac:dyDescent="0.6">
+    <row r="278" spans="1:6" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A278" s="13" t="s">
         <v>580</v>
       </c>
@@ -10670,14 +10668,14 @@
       <c r="D278" s="13" t="s">
         <v>558</v>
       </c>
-      <c r="E278" s="31" t="s">
+      <c r="E278" s="28" t="s">
         <v>125</v>
       </c>
       <c r="F278" s="13" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="279" spans="1:6" ht="25.8" x14ac:dyDescent="0.6">
+    <row r="279" spans="1:6" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A279" s="13" t="s">
         <v>581</v>
       </c>
@@ -10690,14 +10688,14 @@
       <c r="D279" s="13" t="s">
         <v>558</v>
       </c>
-      <c r="E279" s="31" t="s">
+      <c r="E279" s="28" t="s">
         <v>125</v>
       </c>
       <c r="F279" s="13" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="280" spans="1:6" ht="25.8" x14ac:dyDescent="0.6">
+    <row r="280" spans="1:6" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A280" s="13" t="s">
         <v>582</v>
       </c>
@@ -10710,14 +10708,14 @@
       <c r="D280" s="13" t="s">
         <v>558</v>
       </c>
-      <c r="E280" s="31" t="s">
+      <c r="E280" s="28" t="s">
         <v>125</v>
       </c>
       <c r="F280" s="13" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="281" spans="1:6" ht="25.8" x14ac:dyDescent="0.6">
+    <row r="281" spans="1:6" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A281" s="13" t="s">
         <v>583</v>
       </c>
@@ -10730,14 +10728,14 @@
       <c r="D281" s="13" t="s">
         <v>558</v>
       </c>
-      <c r="E281" s="31" t="s">
+      <c r="E281" s="28" t="s">
         <v>125</v>
       </c>
       <c r="F281" s="13" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="282" spans="1:6" ht="25.8" x14ac:dyDescent="0.6">
+    <row r="282" spans="1:6" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A282" s="13" t="s">
         <v>584</v>
       </c>
@@ -10750,14 +10748,14 @@
       <c r="D282" s="13" t="s">
         <v>486</v>
       </c>
-      <c r="E282" s="31" t="s">
+      <c r="E282" s="28" t="s">
         <v>473</v>
       </c>
       <c r="F282" s="13" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="283" spans="1:6" ht="25.8" x14ac:dyDescent="0.6">
+    <row r="283" spans="1:6" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A283" s="13" t="s">
         <v>585</v>
       </c>
@@ -10770,14 +10768,14 @@
       <c r="D283" s="13" t="s">
         <v>584</v>
       </c>
-      <c r="E283" s="31" t="s">
+      <c r="E283" s="28" t="s">
         <v>125</v>
       </c>
       <c r="F283" s="13" t="s">
         <v>437</v>
       </c>
     </row>
-    <row r="284" spans="1:6" ht="25.8" x14ac:dyDescent="0.6">
+    <row r="284" spans="1:6" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A284" s="13" t="s">
         <v>586</v>
       </c>
@@ -10790,14 +10788,14 @@
       <c r="D284" s="13" t="s">
         <v>584</v>
       </c>
-      <c r="E284" s="31" t="s">
+      <c r="E284" s="28" t="s">
         <v>125</v>
       </c>
       <c r="F284" s="13" t="s">
         <v>437</v>
       </c>
     </row>
-    <row r="285" spans="1:6" ht="25.8" x14ac:dyDescent="0.6">
+    <row r="285" spans="1:6" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A285" s="13" t="s">
         <v>587</v>
       </c>
@@ -10810,14 +10808,14 @@
       <c r="D285" s="13" t="s">
         <v>584</v>
       </c>
-      <c r="E285" s="31" t="s">
+      <c r="E285" s="28" t="s">
         <v>125</v>
       </c>
       <c r="F285" s="13" t="s">
         <v>437</v>
       </c>
     </row>
-    <row r="286" spans="1:6" ht="25.8" x14ac:dyDescent="0.6">
+    <row r="286" spans="1:6" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A286" s="13" t="s">
         <v>588</v>
       </c>
@@ -10830,14 +10828,14 @@
       <c r="D286" s="13" t="s">
         <v>584</v>
       </c>
-      <c r="E286" s="31" t="s">
+      <c r="E286" s="28" t="s">
         <v>125</v>
       </c>
       <c r="F286" s="13" t="s">
         <v>437</v>
       </c>
     </row>
-    <row r="287" spans="1:6" ht="25.8" x14ac:dyDescent="0.6">
+    <row r="287" spans="1:6" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A287" s="13" t="s">
         <v>589</v>
       </c>
@@ -10850,14 +10848,14 @@
       <c r="D287" s="13" t="s">
         <v>584</v>
       </c>
-      <c r="E287" s="31" t="s">
+      <c r="E287" s="28" t="s">
         <v>125</v>
       </c>
       <c r="F287" s="13" t="s">
         <v>437</v>
       </c>
     </row>
-    <row r="288" spans="1:6" ht="25.8" x14ac:dyDescent="0.6">
+    <row r="288" spans="1:6" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A288" s="13" t="s">
         <v>590</v>
       </c>
@@ -10870,14 +10868,14 @@
       <c r="D288" s="13" t="s">
         <v>584</v>
       </c>
-      <c r="E288" s="31" t="s">
+      <c r="E288" s="28" t="s">
         <v>125</v>
       </c>
       <c r="F288" s="13" t="s">
         <v>437</v>
       </c>
     </row>
-    <row r="289" spans="1:6" ht="25.8" x14ac:dyDescent="0.6">
+    <row r="289" spans="1:6" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A289" s="13" t="s">
         <v>591</v>
       </c>
@@ -10890,14 +10888,14 @@
       <c r="D289" s="13" t="s">
         <v>584</v>
       </c>
-      <c r="E289" s="31" t="s">
+      <c r="E289" s="28" t="s">
         <v>125</v>
       </c>
       <c r="F289" s="13" t="s">
         <v>437</v>
       </c>
     </row>
-    <row r="290" spans="1:6" ht="25.8" x14ac:dyDescent="0.6">
+    <row r="290" spans="1:6" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A290" s="13" t="s">
         <v>592</v>
       </c>
@@ -10910,14 +10908,14 @@
       <c r="D290" s="13" t="s">
         <v>584</v>
       </c>
-      <c r="E290" s="31" t="s">
+      <c r="E290" s="28" t="s">
         <v>125</v>
       </c>
       <c r="F290" s="13" t="s">
         <v>437</v>
       </c>
     </row>
-    <row r="291" spans="1:6" ht="25.8" x14ac:dyDescent="0.6">
+    <row r="291" spans="1:6" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A291" s="13" t="s">
         <v>593</v>
       </c>
@@ -10930,14 +10928,14 @@
       <c r="D291" s="13" t="s">
         <v>584</v>
       </c>
-      <c r="E291" s="31" t="s">
+      <c r="E291" s="28" t="s">
         <v>125</v>
       </c>
       <c r="F291" s="13" t="s">
         <v>437</v>
       </c>
     </row>
-    <row r="292" spans="1:6" ht="25.8" x14ac:dyDescent="0.6">
+    <row r="292" spans="1:6" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A292" s="13" t="s">
         <v>594</v>
       </c>
@@ -10950,14 +10948,14 @@
       <c r="D292" s="13" t="s">
         <v>584</v>
       </c>
-      <c r="E292" s="31" t="s">
+      <c r="E292" s="28" t="s">
         <v>125</v>
       </c>
       <c r="F292" s="13" t="s">
         <v>437</v>
       </c>
     </row>
-    <row r="293" spans="1:6" ht="25.8" x14ac:dyDescent="0.6">
+    <row r="293" spans="1:6" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A293" s="13" t="s">
         <v>595</v>
       </c>
@@ -10970,14 +10968,14 @@
       <c r="D293" s="13" t="s">
         <v>584</v>
       </c>
-      <c r="E293" s="31" t="s">
+      <c r="E293" s="28" t="s">
         <v>125</v>
       </c>
       <c r="F293" s="13" t="s">
         <v>437</v>
       </c>
     </row>
-    <row r="294" spans="1:6" ht="25.8" x14ac:dyDescent="0.6">
+    <row r="294" spans="1:6" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A294" s="13" t="s">
         <v>596</v>
       </c>
@@ -10990,14 +10988,14 @@
       <c r="D294" s="13" t="s">
         <v>584</v>
       </c>
-      <c r="E294" s="31" t="s">
+      <c r="E294" s="28" t="s">
         <v>125</v>
       </c>
       <c r="F294" s="13" t="s">
         <v>437</v>
       </c>
     </row>
-    <row r="295" spans="1:6" ht="25.8" x14ac:dyDescent="0.6">
+    <row r="295" spans="1:6" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A295" s="13" t="s">
         <v>597</v>
       </c>
@@ -11010,14 +11008,14 @@
       <c r="D295" s="13" t="s">
         <v>584</v>
       </c>
-      <c r="E295" s="31" t="s">
+      <c r="E295" s="28" t="s">
         <v>125</v>
       </c>
       <c r="F295" s="13" t="s">
         <v>437</v>
       </c>
     </row>
-    <row r="296" spans="1:6" ht="25.8" x14ac:dyDescent="0.6">
+    <row r="296" spans="1:6" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A296" s="13" t="s">
         <v>598</v>
       </c>
@@ -11030,14 +11028,14 @@
       <c r="D296" s="13" t="s">
         <v>486</v>
       </c>
-      <c r="E296" s="31" t="s">
+      <c r="E296" s="28" t="s">
         <v>473</v>
       </c>
       <c r="F296" s="13" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="297" spans="1:6" ht="25.8" x14ac:dyDescent="0.6">
+    <row r="297" spans="1:6" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A297" s="13" t="s">
         <v>599</v>
       </c>
@@ -11050,14 +11048,14 @@
       <c r="D297" s="13" t="s">
         <v>598</v>
       </c>
-      <c r="E297" s="31" t="s">
+      <c r="E297" s="28" t="s">
         <v>125</v>
       </c>
       <c r="F297" s="13" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="298" spans="1:6" ht="25.8" x14ac:dyDescent="0.6">
+    <row r="298" spans="1:6" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A298" s="13" t="s">
         <v>600</v>
       </c>
@@ -11070,14 +11068,14 @@
       <c r="D298" s="13" t="s">
         <v>598</v>
       </c>
-      <c r="E298" s="31" t="s">
+      <c r="E298" s="28" t="s">
         <v>125</v>
       </c>
       <c r="F298" s="13" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="299" spans="1:6" ht="25.8" x14ac:dyDescent="0.6">
+    <row r="299" spans="1:6" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A299" s="13" t="s">
         <v>601</v>
       </c>
@@ -11090,14 +11088,14 @@
       <c r="D299" s="13" t="s">
         <v>598</v>
       </c>
-      <c r="E299" s="31" t="s">
+      <c r="E299" s="28" t="s">
         <v>125</v>
       </c>
       <c r="F299" s="13" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="300" spans="1:6" ht="25.8" x14ac:dyDescent="0.6">
+    <row r="300" spans="1:6" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A300" s="13" t="s">
         <v>602</v>
       </c>
@@ -11110,14 +11108,14 @@
       <c r="D300" s="13" t="s">
         <v>598</v>
       </c>
-      <c r="E300" s="31" t="s">
+      <c r="E300" s="28" t="s">
         <v>125</v>
       </c>
       <c r="F300" s="13" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="301" spans="1:6" ht="25.8" x14ac:dyDescent="0.6">
+    <row r="301" spans="1:6" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A301" s="13" t="s">
         <v>603</v>
       </c>
@@ -11130,14 +11128,14 @@
       <c r="D301" s="13" t="s">
         <v>598</v>
       </c>
-      <c r="E301" s="31" t="s">
+      <c r="E301" s="28" t="s">
         <v>125</v>
       </c>
       <c r="F301" s="13" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="302" spans="1:6" ht="25.8" x14ac:dyDescent="0.6">
+    <row r="302" spans="1:6" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A302" s="13" t="s">
         <v>604</v>
       </c>
@@ -11150,14 +11148,14 @@
       <c r="D302" s="13" t="s">
         <v>598</v>
       </c>
-      <c r="E302" s="31" t="s">
+      <c r="E302" s="28" t="s">
         <v>125</v>
       </c>
       <c r="F302" s="13" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="303" spans="1:6" ht="25.8" x14ac:dyDescent="0.6">
+    <row r="303" spans="1:6" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A303" s="13" t="s">
         <v>605</v>
       </c>
@@ -11170,14 +11168,14 @@
       <c r="D303" s="13" t="s">
         <v>598</v>
       </c>
-      <c r="E303" s="31" t="s">
+      <c r="E303" s="28" t="s">
         <v>125</v>
       </c>
       <c r="F303" s="13" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="304" spans="1:6" ht="25.8" x14ac:dyDescent="0.6">
+    <row r="304" spans="1:6" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A304" s="13" t="s">
         <v>606</v>
       </c>
@@ -11190,14 +11188,14 @@
       <c r="D304" s="13" t="s">
         <v>598</v>
       </c>
-      <c r="E304" s="31" t="s">
+      <c r="E304" s="28" t="s">
         <v>125</v>
       </c>
       <c r="F304" s="13" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="305" spans="1:6" ht="25.8" x14ac:dyDescent="0.6">
+    <row r="305" spans="1:6" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A305" s="13" t="s">
         <v>607</v>
       </c>
@@ -11210,14 +11208,14 @@
       <c r="D305" s="13" t="s">
         <v>598</v>
       </c>
-      <c r="E305" s="31" t="s">
+      <c r="E305" s="28" t="s">
         <v>125</v>
       </c>
       <c r="F305" s="13" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="306" spans="1:6" ht="25.8" x14ac:dyDescent="0.6">
+    <row r="306" spans="1:6" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A306" s="13" t="s">
         <v>608</v>
       </c>
@@ -11230,14 +11228,14 @@
       <c r="D306" s="13" t="s">
         <v>598</v>
       </c>
-      <c r="E306" s="31" t="s">
+      <c r="E306" s="28" t="s">
         <v>125</v>
       </c>
       <c r="F306" s="13" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="307" spans="1:6" ht="25.8" x14ac:dyDescent="0.6">
+    <row r="307" spans="1:6" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A307" s="13" t="s">
         <v>609</v>
       </c>
@@ -11250,14 +11248,14 @@
       <c r="D307" s="13" t="s">
         <v>598</v>
       </c>
-      <c r="E307" s="31" t="s">
+      <c r="E307" s="28" t="s">
         <v>125</v>
       </c>
       <c r="F307" s="13" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="308" spans="1:6" ht="25.8" x14ac:dyDescent="0.6">
+    <row r="308" spans="1:6" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A308" s="13" t="s">
         <v>610</v>
       </c>
@@ -11270,14 +11268,14 @@
       <c r="D308" s="13" t="s">
         <v>598</v>
       </c>
-      <c r="E308" s="31" t="s">
+      <c r="E308" s="28" t="s">
         <v>125</v>
       </c>
       <c r="F308" s="13" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="309" spans="1:6" ht="25.8" x14ac:dyDescent="0.6">
+    <row r="309" spans="1:6" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A309" s="13" t="s">
         <v>611</v>
       </c>
@@ -11290,14 +11288,14 @@
       <c r="D309" s="13" t="s">
         <v>486</v>
       </c>
-      <c r="E309" s="31" t="s">
+      <c r="E309" s="28" t="s">
         <v>473</v>
       </c>
       <c r="F309" s="13" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="310" spans="1:6" ht="25.8" x14ac:dyDescent="0.6">
+    <row r="310" spans="1:6" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A310" s="13" t="s">
         <v>612</v>
       </c>
@@ -11310,14 +11308,14 @@
       <c r="D310" s="13" t="s">
         <v>611</v>
       </c>
-      <c r="E310" s="31" t="s">
+      <c r="E310" s="28" t="s">
         <v>125</v>
       </c>
       <c r="F310" s="13" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="311" spans="1:6" ht="25.8" x14ac:dyDescent="0.6">
+    <row r="311" spans="1:6" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A311" s="13" t="s">
         <v>613</v>
       </c>
@@ -11330,14 +11328,14 @@
       <c r="D311" s="13" t="s">
         <v>611</v>
       </c>
-      <c r="E311" s="31" t="s">
+      <c r="E311" s="28" t="s">
         <v>125</v>
       </c>
       <c r="F311" s="13" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="312" spans="1:6" ht="25.8" x14ac:dyDescent="0.6">
+    <row r="312" spans="1:6" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A312" s="13" t="s">
         <v>614</v>
       </c>
@@ -11350,14 +11348,14 @@
       <c r="D312" s="13" t="s">
         <v>611</v>
       </c>
-      <c r="E312" s="31" t="s">
+      <c r="E312" s="28" t="s">
         <v>125</v>
       </c>
       <c r="F312" s="13" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="313" spans="1:6" ht="25.8" x14ac:dyDescent="0.6">
+    <row r="313" spans="1:6" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A313" s="13" t="s">
         <v>615</v>
       </c>
@@ -11370,14 +11368,14 @@
       <c r="D313" s="13" t="s">
         <v>611</v>
       </c>
-      <c r="E313" s="31" t="s">
+      <c r="E313" s="28" t="s">
         <v>125</v>
       </c>
       <c r="F313" s="13" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="314" spans="1:6" ht="25.8" x14ac:dyDescent="0.6">
+    <row r="314" spans="1:6" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A314" s="13" t="s">
         <v>616</v>
       </c>
@@ -11390,14 +11388,14 @@
       <c r="D314" s="13" t="s">
         <v>611</v>
       </c>
-      <c r="E314" s="31" t="s">
+      <c r="E314" s="28" t="s">
         <v>125</v>
       </c>
       <c r="F314" s="13" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="315" spans="1:6" ht="25.8" x14ac:dyDescent="0.6">
+    <row r="315" spans="1:6" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A315" s="13" t="s">
         <v>617</v>
       </c>
@@ -11410,14 +11408,14 @@
       <c r="D315" s="13" t="s">
         <v>611</v>
       </c>
-      <c r="E315" s="31" t="s">
+      <c r="E315" s="28" t="s">
         <v>125</v>
       </c>
       <c r="F315" s="13" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="316" spans="1:6" ht="25.8" x14ac:dyDescent="0.6">
+    <row r="316" spans="1:6" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A316" s="13" t="s">
         <v>618</v>
       </c>
@@ -11430,14 +11428,14 @@
       <c r="D316" s="13" t="s">
         <v>611</v>
       </c>
-      <c r="E316" s="31" t="s">
+      <c r="E316" s="28" t="s">
         <v>125</v>
       </c>
       <c r="F316" s="13" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="317" spans="1:6" ht="25.8" x14ac:dyDescent="0.6">
+    <row r="317" spans="1:6" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A317" s="13" t="s">
         <v>619</v>
       </c>
@@ -11450,14 +11448,14 @@
       <c r="D317" s="13" t="s">
         <v>611</v>
       </c>
-      <c r="E317" s="31" t="s">
+      <c r="E317" s="28" t="s">
         <v>125</v>
       </c>
       <c r="F317" s="13" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="318" spans="1:6" ht="62.7" x14ac:dyDescent="0.6">
+    <row r="318" spans="1:6" ht="64.2" x14ac:dyDescent="0.3">
       <c r="A318" s="13" t="s">
         <v>620</v>
       </c>
@@ -11470,14 +11468,14 @@
       <c r="D318" s="13" t="s">
         <v>486</v>
       </c>
-      <c r="E318" s="31" t="s">
+      <c r="E318" s="28" t="s">
         <v>473</v>
       </c>
       <c r="F318" s="13" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="319" spans="1:6" ht="62.7" x14ac:dyDescent="0.6">
+    <row r="319" spans="1:6" ht="64.2" x14ac:dyDescent="0.3">
       <c r="A319" s="13" t="s">
         <v>621</v>
       </c>
@@ -11490,14 +11488,14 @@
       <c r="D319" s="13" t="s">
         <v>486</v>
       </c>
-      <c r="E319" s="31" t="s">
+      <c r="E319" s="28" t="s">
         <v>473</v>
       </c>
       <c r="F319" s="13" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="320" spans="1:6" ht="62.7" x14ac:dyDescent="0.6">
+    <row r="320" spans="1:6" ht="64.2" x14ac:dyDescent="0.3">
       <c r="A320" s="13" t="s">
         <v>622</v>
       </c>
@@ -11510,14 +11508,14 @@
       <c r="D320" s="13" t="s">
         <v>486</v>
       </c>
-      <c r="E320" s="31" t="s">
+      <c r="E320" s="28" t="s">
         <v>473</v>
       </c>
       <c r="F320" s="13" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="321" spans="1:6" ht="62.7" x14ac:dyDescent="0.6">
+    <row r="321" spans="1:6" ht="64.2" x14ac:dyDescent="0.3">
       <c r="A321" s="13" t="s">
         <v>623</v>
       </c>
@@ -11530,14 +11528,14 @@
       <c r="D321" s="13" t="s">
         <v>486</v>
       </c>
-      <c r="E321" s="31" t="s">
+      <c r="E321" s="28" t="s">
         <v>473</v>
       </c>
       <c r="F321" s="13" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="322" spans="1:6" ht="62.7" x14ac:dyDescent="0.6">
+    <row r="322" spans="1:6" ht="64.2" x14ac:dyDescent="0.3">
       <c r="A322" s="13" t="s">
         <v>624</v>
       </c>
@@ -11550,14 +11548,14 @@
       <c r="D322" s="13" t="s">
         <v>486</v>
       </c>
-      <c r="E322" s="31" t="s">
+      <c r="E322" s="28" t="s">
         <v>473</v>
       </c>
       <c r="F322" s="13" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="323" spans="1:6" ht="62.7" x14ac:dyDescent="0.6">
+    <row r="323" spans="1:6" ht="64.2" x14ac:dyDescent="0.3">
       <c r="A323" s="13" t="s">
         <v>625</v>
       </c>
@@ -11570,14 +11568,14 @@
       <c r="D323" s="13" t="s">
         <v>486</v>
       </c>
-      <c r="E323" s="31" t="s">
+      <c r="E323" s="28" t="s">
         <v>473</v>
       </c>
       <c r="F323" s="13" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="324" spans="1:6" ht="62.7" x14ac:dyDescent="0.6">
+    <row r="324" spans="1:6" ht="76.8" x14ac:dyDescent="0.3">
       <c r="A324" s="13" t="s">
         <v>626</v>
       </c>
@@ -11590,7 +11588,7 @@
       <c r="D324" s="13" t="s">
         <v>486</v>
       </c>
-      <c r="E324" s="31" t="s">
+      <c r="E324" s="28" t="s">
         <v>473</v>
       </c>
       <c r="F324" s="13" t="s">
@@ -11622,46 +11620,46 @@
       <selection sqref="A1:V1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.76171875" defaultRowHeight="15.6" x14ac:dyDescent="0.6"/>
+  <sheetFormatPr defaultColWidth="10.7265625" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.47265625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="4" width="21.47265625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="21.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="21.453125" style="1" customWidth="1"/>
     <col min="5" max="5" width="22" style="2" customWidth="1"/>
-    <col min="6" max="6" width="47.6171875" style="1" customWidth="1"/>
-    <col min="7" max="8" width="29.37890625" style="1" customWidth="1"/>
-    <col min="9" max="10" width="22.6171875" style="1" customWidth="1"/>
-    <col min="11" max="19" width="10.76171875" style="1"/>
-    <col min="20" max="22" width="13.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="10.76171875" style="1"/>
+    <col min="6" max="6" width="47.6328125" style="1" customWidth="1"/>
+    <col min="7" max="8" width="29.36328125" style="1" customWidth="1"/>
+    <col min="9" max="10" width="22.6328125" style="1" customWidth="1"/>
+    <col min="11" max="19" width="10.7265625" style="1"/>
+    <col min="20" max="22" width="13.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="10.7265625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="24.6" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A1" s="30" t="s">
+    <row r="1" spans="1:22" ht="24.6" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="31" t="s">
         <v>112</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30"/>
-      <c r="I1" s="30"/>
-      <c r="J1" s="30"/>
-      <c r="K1" s="30"/>
-      <c r="L1" s="30"/>
-      <c r="M1" s="30"/>
-      <c r="N1" s="30"/>
-      <c r="O1" s="30"/>
-      <c r="P1" s="30"/>
-      <c r="Q1" s="30"/>
-      <c r="R1" s="30"/>
-      <c r="S1" s="30"/>
-      <c r="T1" s="30"/>
-      <c r="U1" s="30"/>
-      <c r="V1" s="30"/>
-    </row>
-    <row r="2" spans="1:22" ht="29.4" x14ac:dyDescent="0.4">
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="31"/>
+      <c r="L1" s="31"/>
+      <c r="M1" s="31"/>
+      <c r="N1" s="31"/>
+      <c r="O1" s="31"/>
+      <c r="P1" s="31"/>
+      <c r="Q1" s="31"/>
+      <c r="R1" s="31"/>
+      <c r="S1" s="31"/>
+      <c r="T1" s="31"/>
+      <c r="U1" s="31"/>
+      <c r="V1" s="31"/>
+    </row>
+    <row r="2" spans="1:22" ht="32.4" x14ac:dyDescent="0.2">
       <c r="A2" s="11" t="s">
         <v>15</v>
       </c>
@@ -11729,7 +11727,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="3" spans="1:22" s="7" customFormat="1" ht="24.6" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:22" s="7" customFormat="1" ht="25.2" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
         <v>125</v>
       </c>
@@ -11775,7 +11773,7 @@
       <c r="U3" s="13"/>
       <c r="V3" s="13"/>
     </row>
-    <row r="4" spans="1:22" ht="38.1" x14ac:dyDescent="0.6">
+    <row r="4" spans="1:22" ht="39" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>128</v>
       </c>
@@ -11833,7 +11831,7 @@
       <c r="U4" s="13"/>
       <c r="V4" s="13"/>
     </row>
-    <row r="5" spans="1:22" ht="38.1" x14ac:dyDescent="0.6">
+    <row r="5" spans="1:22" ht="39" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>128</v>
       </c>
@@ -11891,7 +11889,7 @@
       <c r="U5" s="13"/>
       <c r="V5" s="13"/>
     </row>
-    <row r="6" spans="1:22" ht="38.1" x14ac:dyDescent="0.6">
+    <row r="6" spans="1:22" ht="39" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>128</v>
       </c>
@@ -11949,7 +11947,7 @@
       <c r="U6" s="13"/>
       <c r="V6" s="13"/>
     </row>
-    <row r="7" spans="1:22" ht="38.1" x14ac:dyDescent="0.6">
+    <row r="7" spans="1:22" ht="39" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>128</v>
       </c>
@@ -12007,7 +12005,7 @@
       <c r="U7" s="13"/>
       <c r="V7" s="13"/>
     </row>
-    <row r="8" spans="1:22" ht="38.1" x14ac:dyDescent="0.6">
+    <row r="8" spans="1:22" ht="39" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>128</v>
       </c>
@@ -12065,7 +12063,7 @@
       <c r="U8" s="13"/>
       <c r="V8" s="13"/>
     </row>
-    <row r="9" spans="1:22" ht="38.1" x14ac:dyDescent="0.6">
+    <row r="9" spans="1:22" ht="39" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>128</v>
       </c>
@@ -12123,7 +12121,7 @@
       <c r="U9" s="13"/>
       <c r="V9" s="13"/>
     </row>
-    <row r="10" spans="1:22" ht="38.1" x14ac:dyDescent="0.6">
+    <row r="10" spans="1:22" ht="39" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>128</v>
       </c>
@@ -12181,7 +12179,7 @@
       <c r="U10" s="13"/>
       <c r="V10" s="13"/>
     </row>
-    <row r="11" spans="1:22" ht="38.1" x14ac:dyDescent="0.6">
+    <row r="11" spans="1:22" ht="39" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>128</v>
       </c>
@@ -12239,7 +12237,7 @@
       <c r="U11" s="13"/>
       <c r="V11" s="13"/>
     </row>
-    <row r="12" spans="1:22" ht="38.1" x14ac:dyDescent="0.6">
+    <row r="12" spans="1:22" ht="39" x14ac:dyDescent="0.3">
       <c r="A12" s="13" t="s">
         <v>128</v>
       </c>
@@ -12252,7 +12250,7 @@
       <c r="D12" s="13" t="s">
         <v>496</v>
       </c>
-      <c r="E12" s="31" t="s">
+      <c r="E12" s="28" t="s">
         <v>227</v>
       </c>
       <c r="F12" s="13" t="s">
@@ -12297,7 +12295,7 @@
       <c r="U12" s="13"/>
       <c r="V12" s="13"/>
     </row>
-    <row r="13" spans="1:22" ht="38.1" x14ac:dyDescent="0.6">
+    <row r="13" spans="1:22" ht="39" x14ac:dyDescent="0.3">
       <c r="A13" s="13" t="s">
         <v>128</v>
       </c>
@@ -12310,7 +12308,7 @@
       <c r="D13" s="13" t="s">
         <v>497</v>
       </c>
-      <c r="E13" s="31" t="s">
+      <c r="E13" s="28" t="s">
         <v>199</v>
       </c>
       <c r="F13" s="13" t="s">
@@ -12355,7 +12353,7 @@
       <c r="U13" s="13"/>
       <c r="V13" s="13"/>
     </row>
-    <row r="14" spans="1:22" ht="38.1" x14ac:dyDescent="0.6">
+    <row r="14" spans="1:22" ht="39" x14ac:dyDescent="0.3">
       <c r="A14" s="13" t="s">
         <v>128</v>
       </c>
@@ -12368,7 +12366,7 @@
       <c r="D14" s="13" t="s">
         <v>498</v>
       </c>
-      <c r="E14" s="31" t="s">
+      <c r="E14" s="28" t="s">
         <v>209</v>
       </c>
       <c r="F14" s="13" t="s">
@@ -12413,7 +12411,7 @@
       <c r="U14" s="13"/>
       <c r="V14" s="13"/>
     </row>
-    <row r="15" spans="1:22" ht="38.1" x14ac:dyDescent="0.6">
+    <row r="15" spans="1:22" ht="39" x14ac:dyDescent="0.3">
       <c r="A15" s="13" t="s">
         <v>128</v>
       </c>
@@ -12426,7 +12424,7 @@
       <c r="D15" s="13" t="s">
         <v>499</v>
       </c>
-      <c r="E15" s="31" t="s">
+      <c r="E15" s="28" t="s">
         <v>219</v>
       </c>
       <c r="F15" s="13" t="s">
@@ -12471,7 +12469,7 @@
       <c r="U15" s="13"/>
       <c r="V15" s="13"/>
     </row>
-    <row r="16" spans="1:22" ht="38.1" x14ac:dyDescent="0.6">
+    <row r="16" spans="1:22" ht="39" x14ac:dyDescent="0.3">
       <c r="A16" s="13" t="s">
         <v>128</v>
       </c>
@@ -12484,7 +12482,7 @@
       <c r="D16" s="13" t="s">
         <v>500</v>
       </c>
-      <c r="E16" s="31" t="s">
+      <c r="E16" s="28" t="s">
         <v>215</v>
       </c>
       <c r="F16" s="13" t="s">
@@ -12529,7 +12527,7 @@
       <c r="U16" s="13"/>
       <c r="V16" s="13"/>
     </row>
-    <row r="17" spans="1:22" ht="38.1" x14ac:dyDescent="0.6">
+    <row r="17" spans="1:22" ht="39" x14ac:dyDescent="0.3">
       <c r="A17" s="13" t="s">
         <v>128</v>
       </c>
@@ -12542,7 +12540,7 @@
       <c r="D17" s="13" t="s">
         <v>501</v>
       </c>
-      <c r="E17" s="31" t="s">
+      <c r="E17" s="28" t="s">
         <v>203</v>
       </c>
       <c r="F17" s="13" t="s">
@@ -12587,7 +12585,7 @@
       <c r="U17" s="13"/>
       <c r="V17" s="13"/>
     </row>
-    <row r="18" spans="1:22" ht="38.1" x14ac:dyDescent="0.6">
+    <row r="18" spans="1:22" ht="39" x14ac:dyDescent="0.3">
       <c r="A18" s="13" t="s">
         <v>128</v>
       </c>
@@ -12600,7 +12598,7 @@
       <c r="D18" s="13" t="s">
         <v>502</v>
       </c>
-      <c r="E18" s="31" t="s">
+      <c r="E18" s="28" t="s">
         <v>207</v>
       </c>
       <c r="F18" s="13" t="s">
@@ -12645,7 +12643,7 @@
       <c r="U18" s="13"/>
       <c r="V18" s="13"/>
     </row>
-    <row r="19" spans="1:22" ht="38.1" x14ac:dyDescent="0.6">
+    <row r="19" spans="1:22" ht="39" x14ac:dyDescent="0.3">
       <c r="A19" s="13" t="s">
         <v>128</v>
       </c>
@@ -12658,7 +12656,7 @@
       <c r="D19" s="13" t="s">
         <v>503</v>
       </c>
-      <c r="E19" s="31" t="s">
+      <c r="E19" s="28" t="s">
         <v>221</v>
       </c>
       <c r="F19" s="13" t="s">
@@ -12703,7 +12701,7 @@
       <c r="U19" s="13"/>
       <c r="V19" s="13"/>
     </row>
-    <row r="20" spans="1:22" ht="38.1" x14ac:dyDescent="0.6">
+    <row r="20" spans="1:22" ht="39" x14ac:dyDescent="0.3">
       <c r="A20" s="13" t="s">
         <v>125</v>
       </c>
@@ -12714,7 +12712,7 @@
         <v>284</v>
       </c>
       <c r="D20" s="13"/>
-      <c r="E20" s="31"/>
+      <c r="E20" s="28"/>
       <c r="F20" s="13"/>
       <c r="G20" s="13" t="s">
         <v>628</v>
@@ -12745,7 +12743,7 @@
       <c r="U20" s="13"/>
       <c r="V20" s="13"/>
     </row>
-    <row r="21" spans="1:22" ht="38.1" x14ac:dyDescent="0.6">
+    <row r="21" spans="1:22" ht="39" x14ac:dyDescent="0.3">
       <c r="A21" s="13" t="s">
         <v>128</v>
       </c>
@@ -12758,7 +12756,7 @@
       <c r="D21" s="13" t="s">
         <v>505</v>
       </c>
-      <c r="E21" s="31" t="s">
+      <c r="E21" s="28" t="s">
         <v>294</v>
       </c>
       <c r="F21" s="13" t="s">
@@ -12803,7 +12801,7 @@
       <c r="U21" s="13"/>
       <c r="V21" s="13"/>
     </row>
-    <row r="22" spans="1:22" ht="38.1" x14ac:dyDescent="0.6">
+    <row r="22" spans="1:22" ht="39" x14ac:dyDescent="0.3">
       <c r="A22" s="13" t="s">
         <v>128</v>
       </c>
@@ -12816,7 +12814,7 @@
       <c r="D22" s="13" t="s">
         <v>506</v>
       </c>
-      <c r="E22" s="31" t="s">
+      <c r="E22" s="28" t="s">
         <v>286</v>
       </c>
       <c r="F22" s="13" t="s">
@@ -12861,7 +12859,7 @@
       <c r="U22" s="13"/>
       <c r="V22" s="13"/>
     </row>
-    <row r="23" spans="1:22" ht="38.1" x14ac:dyDescent="0.6">
+    <row r="23" spans="1:22" ht="39" x14ac:dyDescent="0.3">
       <c r="A23" s="13" t="s">
         <v>128</v>
       </c>
@@ -12874,7 +12872,7 @@
       <c r="D23" s="13" t="s">
         <v>507</v>
       </c>
-      <c r="E23" s="31" t="s">
+      <c r="E23" s="28" t="s">
         <v>290</v>
       </c>
       <c r="F23" s="13" t="s">
@@ -12919,7 +12917,7 @@
       <c r="U23" s="13"/>
       <c r="V23" s="13"/>
     </row>
-    <row r="24" spans="1:22" ht="38.1" x14ac:dyDescent="0.6">
+    <row r="24" spans="1:22" ht="39" x14ac:dyDescent="0.3">
       <c r="A24" s="13" t="s">
         <v>128</v>
       </c>
@@ -12932,7 +12930,7 @@
       <c r="D24" s="13" t="s">
         <v>508</v>
       </c>
-      <c r="E24" s="31" t="s">
+      <c r="E24" s="28" t="s">
         <v>304</v>
       </c>
       <c r="F24" s="13" t="s">
@@ -12977,7 +12975,7 @@
       <c r="U24" s="13"/>
       <c r="V24" s="13"/>
     </row>
-    <row r="25" spans="1:22" ht="38.1" x14ac:dyDescent="0.6">
+    <row r="25" spans="1:22" ht="39" x14ac:dyDescent="0.3">
       <c r="A25" s="13" t="s">
         <v>128</v>
       </c>
@@ -12990,7 +12988,7 @@
       <c r="D25" s="13" t="s">
         <v>509</v>
       </c>
-      <c r="E25" s="31" t="s">
+      <c r="E25" s="28" t="s">
         <v>288</v>
       </c>
       <c r="F25" s="13" t="s">
@@ -13035,7 +13033,7 @@
       <c r="U25" s="13"/>
       <c r="V25" s="13"/>
     </row>
-    <row r="26" spans="1:22" ht="38.1" x14ac:dyDescent="0.6">
+    <row r="26" spans="1:22" ht="39" x14ac:dyDescent="0.3">
       <c r="A26" s="13" t="s">
         <v>128</v>
       </c>
@@ -13048,7 +13046,7 @@
       <c r="D26" s="13" t="s">
         <v>510</v>
       </c>
-      <c r="E26" s="31" t="s">
+      <c r="E26" s="28" t="s">
         <v>306</v>
       </c>
       <c r="F26" s="13" t="s">
@@ -13093,7 +13091,7 @@
       <c r="U26" s="13"/>
       <c r="V26" s="13"/>
     </row>
-    <row r="27" spans="1:22" ht="38.1" x14ac:dyDescent="0.6">
+    <row r="27" spans="1:22" ht="39" x14ac:dyDescent="0.3">
       <c r="A27" s="13" t="s">
         <v>128</v>
       </c>
@@ -13106,7 +13104,7 @@
       <c r="D27" s="13" t="s">
         <v>511</v>
       </c>
-      <c r="E27" s="31" t="s">
+      <c r="E27" s="28" t="s">
         <v>314</v>
       </c>
       <c r="F27" s="13" t="s">
@@ -13151,7 +13149,7 @@
       <c r="U27" s="13"/>
       <c r="V27" s="13"/>
     </row>
-    <row r="28" spans="1:22" ht="38.1" x14ac:dyDescent="0.6">
+    <row r="28" spans="1:22" ht="39" x14ac:dyDescent="0.3">
       <c r="A28" s="13" t="s">
         <v>128</v>
       </c>
@@ -13164,7 +13162,7 @@
       <c r="D28" s="13" t="s">
         <v>512</v>
       </c>
-      <c r="E28" s="31" t="s">
+      <c r="E28" s="28" t="s">
         <v>298</v>
       </c>
       <c r="F28" s="13" t="s">
@@ -13209,7 +13207,7 @@
       <c r="U28" s="13"/>
       <c r="V28" s="13"/>
     </row>
-    <row r="29" spans="1:22" ht="38.1" x14ac:dyDescent="0.6">
+    <row r="29" spans="1:22" ht="39" x14ac:dyDescent="0.3">
       <c r="A29" s="13" t="s">
         <v>128</v>
       </c>
@@ -13222,7 +13220,7 @@
       <c r="D29" s="13" t="s">
         <v>513</v>
       </c>
-      <c r="E29" s="31" t="s">
+      <c r="E29" s="28" t="s">
         <v>296</v>
       </c>
       <c r="F29" s="13" t="s">
@@ -13267,7 +13265,7 @@
       <c r="U29" s="13"/>
       <c r="V29" s="13"/>
     </row>
-    <row r="30" spans="1:22" ht="38.1" x14ac:dyDescent="0.6">
+    <row r="30" spans="1:22" ht="39" x14ac:dyDescent="0.3">
       <c r="A30" s="13" t="s">
         <v>128</v>
       </c>
@@ -13280,7 +13278,7 @@
       <c r="D30" s="13" t="s">
         <v>514</v>
       </c>
-      <c r="E30" s="31" t="s">
+      <c r="E30" s="28" t="s">
         <v>302</v>
       </c>
       <c r="F30" s="13" t="s">
@@ -13325,7 +13323,7 @@
       <c r="U30" s="13"/>
       <c r="V30" s="13"/>
     </row>
-    <row r="31" spans="1:22" ht="38.1" x14ac:dyDescent="0.6">
+    <row r="31" spans="1:22" ht="39" x14ac:dyDescent="0.3">
       <c r="A31" s="13" t="s">
         <v>128</v>
       </c>
@@ -13338,7 +13336,7 @@
       <c r="D31" s="13" t="s">
         <v>515</v>
       </c>
-      <c r="E31" s="31" t="s">
+      <c r="E31" s="28" t="s">
         <v>292</v>
       </c>
       <c r="F31" s="13" t="s">
@@ -13383,7 +13381,7 @@
       <c r="U31" s="13"/>
       <c r="V31" s="13"/>
     </row>
-    <row r="32" spans="1:22" ht="38.1" x14ac:dyDescent="0.6">
+    <row r="32" spans="1:22" ht="39" x14ac:dyDescent="0.3">
       <c r="A32" s="13" t="s">
         <v>128</v>
       </c>
@@ -13396,7 +13394,7 @@
       <c r="D32" s="13" t="s">
         <v>516</v>
       </c>
-      <c r="E32" s="31" t="s">
+      <c r="E32" s="28" t="s">
         <v>308</v>
       </c>
       <c r="F32" s="13" t="s">
@@ -13441,7 +13439,7 @@
       <c r="U32" s="13"/>
       <c r="V32" s="13"/>
     </row>
-    <row r="33" spans="1:22" ht="38.1" x14ac:dyDescent="0.6">
+    <row r="33" spans="1:22" ht="39" x14ac:dyDescent="0.3">
       <c r="A33" s="13" t="s">
         <v>128</v>
       </c>
@@ -13454,7 +13452,7 @@
       <c r="D33" s="13" t="s">
         <v>517</v>
       </c>
-      <c r="E33" s="31" t="s">
+      <c r="E33" s="28" t="s">
         <v>300</v>
       </c>
       <c r="F33" s="13" t="s">
@@ -13499,7 +13497,7 @@
       <c r="U33" s="13"/>
       <c r="V33" s="13"/>
     </row>
-    <row r="34" spans="1:22" ht="38.1" x14ac:dyDescent="0.6">
+    <row r="34" spans="1:22" ht="39" x14ac:dyDescent="0.3">
       <c r="A34" s="13" t="s">
         <v>128</v>
       </c>
@@ -13512,7 +13510,7 @@
       <c r="D34" s="13" t="s">
         <v>518</v>
       </c>
-      <c r="E34" s="31" t="s">
+      <c r="E34" s="28" t="s">
         <v>312</v>
       </c>
       <c r="F34" s="13" t="s">
@@ -13557,7 +13555,7 @@
       <c r="U34" s="13"/>
       <c r="V34" s="13"/>
     </row>
-    <row r="35" spans="1:22" ht="38.1" x14ac:dyDescent="0.6">
+    <row r="35" spans="1:22" ht="39" x14ac:dyDescent="0.3">
       <c r="A35" s="13" t="s">
         <v>128</v>
       </c>
@@ -13570,7 +13568,7 @@
       <c r="D35" s="13" t="s">
         <v>519</v>
       </c>
-      <c r="E35" s="31" t="s">
+      <c r="E35" s="28" t="s">
         <v>316</v>
       </c>
       <c r="F35" s="13" t="s">
@@ -13615,7 +13613,7 @@
       <c r="U35" s="13"/>
       <c r="V35" s="13"/>
     </row>
-    <row r="36" spans="1:22" ht="38.1" x14ac:dyDescent="0.6">
+    <row r="36" spans="1:22" ht="39" x14ac:dyDescent="0.3">
       <c r="A36" s="13" t="s">
         <v>128</v>
       </c>
@@ -13628,7 +13626,7 @@
       <c r="D36" s="13" t="s">
         <v>520</v>
       </c>
-      <c r="E36" s="31" t="s">
+      <c r="E36" s="28" t="s">
         <v>310</v>
       </c>
       <c r="F36" s="13" t="s">
@@ -13673,7 +13671,7 @@
       <c r="U36" s="13"/>
       <c r="V36" s="13"/>
     </row>
-    <row r="37" spans="1:22" ht="25.8" x14ac:dyDescent="0.6">
+    <row r="37" spans="1:22" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A37" s="13" t="s">
         <v>125</v>
       </c>
@@ -13684,7 +13682,7 @@
         <v>326</v>
       </c>
       <c r="D37" s="13"/>
-      <c r="E37" s="31"/>
+      <c r="E37" s="28"/>
       <c r="F37" s="13"/>
       <c r="G37" s="13" t="s">
         <v>628</v>
@@ -13715,7 +13713,7 @@
       <c r="U37" s="13"/>
       <c r="V37" s="13"/>
     </row>
-    <row r="38" spans="1:22" ht="38.1" x14ac:dyDescent="0.6">
+    <row r="38" spans="1:22" ht="39" x14ac:dyDescent="0.3">
       <c r="A38" s="13" t="s">
         <v>128</v>
       </c>
@@ -13728,7 +13726,7 @@
       <c r="D38" s="13" t="s">
         <v>522</v>
       </c>
-      <c r="E38" s="31" t="s">
+      <c r="E38" s="28" t="s">
         <v>342</v>
       </c>
       <c r="F38" s="13" t="s">
@@ -13773,7 +13771,7 @@
       <c r="U38" s="13"/>
       <c r="V38" s="13"/>
     </row>
-    <row r="39" spans="1:22" ht="38.1" x14ac:dyDescent="0.6">
+    <row r="39" spans="1:22" ht="39" x14ac:dyDescent="0.3">
       <c r="A39" s="13" t="s">
         <v>128</v>
       </c>
@@ -13786,7 +13784,7 @@
       <c r="D39" s="13" t="s">
         <v>523</v>
       </c>
-      <c r="E39" s="31" t="s">
+      <c r="E39" s="28" t="s">
         <v>332</v>
       </c>
       <c r="F39" s="13" t="s">
@@ -13831,7 +13829,7 @@
       <c r="U39" s="13"/>
       <c r="V39" s="13"/>
     </row>
-    <row r="40" spans="1:22" ht="38.1" x14ac:dyDescent="0.6">
+    <row r="40" spans="1:22" ht="39" x14ac:dyDescent="0.3">
       <c r="A40" s="13" t="s">
         <v>128</v>
       </c>
@@ -13844,7 +13842,7 @@
       <c r="D40" s="13" t="s">
         <v>524</v>
       </c>
-      <c r="E40" s="31" t="s">
+      <c r="E40" s="28" t="s">
         <v>334</v>
       </c>
       <c r="F40" s="13" t="s">
@@ -13889,7 +13887,7 @@
       <c r="U40" s="13"/>
       <c r="V40" s="13"/>
     </row>
-    <row r="41" spans="1:22" ht="38.1" x14ac:dyDescent="0.6">
+    <row r="41" spans="1:22" ht="39" x14ac:dyDescent="0.3">
       <c r="A41" s="13" t="s">
         <v>128</v>
       </c>
@@ -13902,7 +13900,7 @@
       <c r="D41" s="13" t="s">
         <v>525</v>
       </c>
-      <c r="E41" s="31" t="s">
+      <c r="E41" s="28" t="s">
         <v>344</v>
       </c>
       <c r="F41" s="13" t="s">
@@ -13947,7 +13945,7 @@
       <c r="U41" s="13"/>
       <c r="V41" s="13"/>
     </row>
-    <row r="42" spans="1:22" ht="38.1" x14ac:dyDescent="0.6">
+    <row r="42" spans="1:22" ht="39" x14ac:dyDescent="0.3">
       <c r="A42" s="13" t="s">
         <v>128</v>
       </c>
@@ -13960,7 +13958,7 @@
       <c r="D42" s="13" t="s">
         <v>526</v>
       </c>
-      <c r="E42" s="31" t="s">
+      <c r="E42" s="28" t="s">
         <v>328</v>
       </c>
       <c r="F42" s="13" t="s">
@@ -14005,7 +14003,7 @@
       <c r="U42" s="13"/>
       <c r="V42" s="13"/>
     </row>
-    <row r="43" spans="1:22" ht="38.1" x14ac:dyDescent="0.6">
+    <row r="43" spans="1:22" ht="39" x14ac:dyDescent="0.3">
       <c r="A43" s="13" t="s">
         <v>128</v>
       </c>
@@ -14018,7 +14016,7 @@
       <c r="D43" s="13" t="s">
         <v>527</v>
       </c>
-      <c r="E43" s="31" t="s">
+      <c r="E43" s="28" t="s">
         <v>338</v>
       </c>
       <c r="F43" s="13" t="s">
@@ -14063,7 +14061,7 @@
       <c r="U43" s="13"/>
       <c r="V43" s="13"/>
     </row>
-    <row r="44" spans="1:22" ht="38.1" x14ac:dyDescent="0.6">
+    <row r="44" spans="1:22" ht="39" x14ac:dyDescent="0.3">
       <c r="A44" s="13" t="s">
         <v>128</v>
       </c>
@@ -14076,7 +14074,7 @@
       <c r="D44" s="13" t="s">
         <v>528</v>
       </c>
-      <c r="E44" s="31" t="s">
+      <c r="E44" s="28" t="s">
         <v>348</v>
       </c>
       <c r="F44" s="13" t="s">
@@ -14121,7 +14119,7 @@
       <c r="U44" s="13"/>
       <c r="V44" s="13"/>
     </row>
-    <row r="45" spans="1:22" ht="38.1" x14ac:dyDescent="0.6">
+    <row r="45" spans="1:22" ht="39" x14ac:dyDescent="0.3">
       <c r="A45" s="13" t="s">
         <v>128</v>
       </c>
@@ -14134,7 +14132,7 @@
       <c r="D45" s="13" t="s">
         <v>529</v>
       </c>
-      <c r="E45" s="31" t="s">
+      <c r="E45" s="28" t="s">
         <v>336</v>
       </c>
       <c r="F45" s="13" t="s">
@@ -14179,7 +14177,7 @@
       <c r="U45" s="13"/>
       <c r="V45" s="13"/>
     </row>
-    <row r="46" spans="1:22" ht="38.1" x14ac:dyDescent="0.6">
+    <row r="46" spans="1:22" ht="39" x14ac:dyDescent="0.3">
       <c r="A46" s="13" t="s">
         <v>128</v>
       </c>
@@ -14192,7 +14190,7 @@
       <c r="D46" s="13" t="s">
         <v>530</v>
       </c>
-      <c r="E46" s="31" t="s">
+      <c r="E46" s="28" t="s">
         <v>346</v>
       </c>
       <c r="F46" s="13" t="s">
@@ -14237,7 +14235,7 @@
       <c r="U46" s="13"/>
       <c r="V46" s="13"/>
     </row>
-    <row r="47" spans="1:22" ht="38.1" x14ac:dyDescent="0.6">
+    <row r="47" spans="1:22" ht="39" x14ac:dyDescent="0.3">
       <c r="A47" s="13" t="s">
         <v>128</v>
       </c>
@@ -14250,7 +14248,7 @@
       <c r="D47" s="13" t="s">
         <v>531</v>
       </c>
-      <c r="E47" s="31" t="s">
+      <c r="E47" s="28" t="s">
         <v>340</v>
       </c>
       <c r="F47" s="13" t="s">
@@ -14295,7 +14293,7 @@
       <c r="U47" s="13"/>
       <c r="V47" s="13"/>
     </row>
-    <row r="48" spans="1:22" ht="38.1" x14ac:dyDescent="0.6">
+    <row r="48" spans="1:22" ht="39" x14ac:dyDescent="0.3">
       <c r="A48" s="13" t="s">
         <v>128</v>
       </c>
@@ -14308,7 +14306,7 @@
       <c r="D48" s="13" t="s">
         <v>532</v>
       </c>
-      <c r="E48" s="31" t="s">
+      <c r="E48" s="28" t="s">
         <v>330</v>
       </c>
       <c r="F48" s="13" t="s">
@@ -14353,7 +14351,7 @@
       <c r="U48" s="13"/>
       <c r="V48" s="13"/>
     </row>
-    <row r="49" spans="1:22" ht="25.8" x14ac:dyDescent="0.6">
+    <row r="49" spans="1:22" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A49" s="13" t="s">
         <v>125</v>
       </c>
@@ -14364,7 +14362,7 @@
         <v>145</v>
       </c>
       <c r="D49" s="13"/>
-      <c r="E49" s="31"/>
+      <c r="E49" s="28"/>
       <c r="F49" s="13"/>
       <c r="G49" s="13" t="s">
         <v>628</v>
@@ -14395,7 +14393,7 @@
       <c r="U49" s="13"/>
       <c r="V49" s="13"/>
     </row>
-    <row r="50" spans="1:22" ht="38.1" x14ac:dyDescent="0.6">
+    <row r="50" spans="1:22" ht="39" x14ac:dyDescent="0.3">
       <c r="A50" s="13" t="s">
         <v>128</v>
       </c>
@@ -14408,7 +14406,7 @@
       <c r="D50" s="13" t="s">
         <v>534</v>
       </c>
-      <c r="E50" s="31" t="s">
+      <c r="E50" s="28" t="s">
         <v>155</v>
       </c>
       <c r="F50" s="13" t="s">
@@ -14453,7 +14451,7 @@
       <c r="U50" s="13"/>
       <c r="V50" s="13"/>
     </row>
-    <row r="51" spans="1:22" ht="38.1" x14ac:dyDescent="0.6">
+    <row r="51" spans="1:22" ht="39" x14ac:dyDescent="0.3">
       <c r="A51" s="13" t="s">
         <v>128</v>
       </c>
@@ -14466,7 +14464,7 @@
       <c r="D51" s="13" t="s">
         <v>535</v>
       </c>
-      <c r="E51" s="31" t="s">
+      <c r="E51" s="28" t="s">
         <v>163</v>
       </c>
       <c r="F51" s="13" t="s">
@@ -14511,7 +14509,7 @@
       <c r="U51" s="13"/>
       <c r="V51" s="13"/>
     </row>
-    <row r="52" spans="1:22" ht="38.1" x14ac:dyDescent="0.6">
+    <row r="52" spans="1:22" ht="39" x14ac:dyDescent="0.3">
       <c r="A52" s="13" t="s">
         <v>128</v>
       </c>
@@ -14524,7 +14522,7 @@
       <c r="D52" s="13" t="s">
         <v>536</v>
       </c>
-      <c r="E52" s="31" t="s">
+      <c r="E52" s="28" t="s">
         <v>177</v>
       </c>
       <c r="F52" s="13" t="s">
@@ -14569,7 +14567,7 @@
       <c r="U52" s="13"/>
       <c r="V52" s="13"/>
     </row>
-    <row r="53" spans="1:22" ht="38.1" x14ac:dyDescent="0.6">
+    <row r="53" spans="1:22" ht="39" x14ac:dyDescent="0.3">
       <c r="A53" s="13" t="s">
         <v>128</v>
       </c>
@@ -14582,7 +14580,7 @@
       <c r="D53" s="13" t="s">
         <v>537</v>
       </c>
-      <c r="E53" s="31" t="s">
+      <c r="E53" s="28" t="s">
         <v>175</v>
       </c>
       <c r="F53" s="13" t="s">
@@ -14627,7 +14625,7 @@
       <c r="U53" s="13"/>
       <c r="V53" s="13"/>
     </row>
-    <row r="54" spans="1:22" ht="38.1" x14ac:dyDescent="0.6">
+    <row r="54" spans="1:22" ht="39" x14ac:dyDescent="0.3">
       <c r="A54" s="13" t="s">
         <v>128</v>
       </c>
@@ -14640,7 +14638,7 @@
       <c r="D54" s="13" t="s">
         <v>538</v>
       </c>
-      <c r="E54" s="31" t="s">
+      <c r="E54" s="28" t="s">
         <v>171</v>
       </c>
       <c r="F54" s="13" t="s">
@@ -14685,7 +14683,7 @@
       <c r="U54" s="13"/>
       <c r="V54" s="13"/>
     </row>
-    <row r="55" spans="1:22" ht="38.1" x14ac:dyDescent="0.6">
+    <row r="55" spans="1:22" ht="39" x14ac:dyDescent="0.3">
       <c r="A55" s="13" t="s">
         <v>128</v>
       </c>
@@ -14698,7 +14696,7 @@
       <c r="D55" s="13" t="s">
         <v>539</v>
       </c>
-      <c r="E55" s="31" t="s">
+      <c r="E55" s="28" t="s">
         <v>191</v>
       </c>
       <c r="F55" s="13" t="s">
@@ -14743,7 +14741,7 @@
       <c r="U55" s="13"/>
       <c r="V55" s="13"/>
     </row>
-    <row r="56" spans="1:22" ht="38.1" x14ac:dyDescent="0.6">
+    <row r="56" spans="1:22" ht="39" x14ac:dyDescent="0.3">
       <c r="A56" s="13" t="s">
         <v>128</v>
       </c>
@@ -14756,7 +14754,7 @@
       <c r="D56" s="13" t="s">
         <v>540</v>
       </c>
-      <c r="E56" s="31" t="s">
+      <c r="E56" s="28" t="s">
         <v>165</v>
       </c>
       <c r="F56" s="13" t="s">
@@ -14801,7 +14799,7 @@
       <c r="U56" s="13"/>
       <c r="V56" s="13"/>
     </row>
-    <row r="57" spans="1:22" ht="38.1" x14ac:dyDescent="0.6">
+    <row r="57" spans="1:22" ht="39" x14ac:dyDescent="0.3">
       <c r="A57" s="13" t="s">
         <v>128</v>
       </c>
@@ -14814,7 +14812,7 @@
       <c r="D57" s="13" t="s">
         <v>541</v>
       </c>
-      <c r="E57" s="31" t="s">
+      <c r="E57" s="28" t="s">
         <v>167</v>
       </c>
       <c r="F57" s="13" t="s">
@@ -14859,7 +14857,7 @@
       <c r="U57" s="13"/>
       <c r="V57" s="13"/>
     </row>
-    <row r="58" spans="1:22" ht="38.1" x14ac:dyDescent="0.6">
+    <row r="58" spans="1:22" ht="39" x14ac:dyDescent="0.3">
       <c r="A58" s="13" t="s">
         <v>128</v>
       </c>
@@ -14872,7 +14870,7 @@
       <c r="D58" s="13" t="s">
         <v>542</v>
       </c>
-      <c r="E58" s="31" t="s">
+      <c r="E58" s="28" t="s">
         <v>157</v>
       </c>
       <c r="F58" s="13" t="s">
@@ -14917,7 +14915,7 @@
       <c r="U58" s="13"/>
       <c r="V58" s="13"/>
     </row>
-    <row r="59" spans="1:22" ht="38.1" x14ac:dyDescent="0.6">
+    <row r="59" spans="1:22" ht="39" x14ac:dyDescent="0.3">
       <c r="A59" s="13" t="s">
         <v>128</v>
       </c>
@@ -14930,7 +14928,7 @@
       <c r="D59" s="13" t="s">
         <v>543</v>
       </c>
-      <c r="E59" s="31" t="s">
+      <c r="E59" s="28" t="s">
         <v>149</v>
       </c>
       <c r="F59" s="13" t="s">
@@ -14975,7 +14973,7 @@
       <c r="U59" s="13"/>
       <c r="V59" s="13"/>
     </row>
-    <row r="60" spans="1:22" ht="38.1" x14ac:dyDescent="0.6">
+    <row r="60" spans="1:22" ht="39" x14ac:dyDescent="0.3">
       <c r="A60" s="13" t="s">
         <v>128</v>
       </c>
@@ -14988,7 +14986,7 @@
       <c r="D60" s="13" t="s">
         <v>544</v>
       </c>
-      <c r="E60" s="31" t="s">
+      <c r="E60" s="28" t="s">
         <v>147</v>
       </c>
       <c r="F60" s="13" t="s">
@@ -15033,7 +15031,7 @@
       <c r="U60" s="13"/>
       <c r="V60" s="13"/>
     </row>
-    <row r="61" spans="1:22" ht="38.1" x14ac:dyDescent="0.6">
+    <row r="61" spans="1:22" ht="39" x14ac:dyDescent="0.3">
       <c r="A61" s="13" t="s">
         <v>128</v>
       </c>
@@ -15046,7 +15044,7 @@
       <c r="D61" s="13" t="s">
         <v>545</v>
       </c>
-      <c r="E61" s="31" t="s">
+      <c r="E61" s="28" t="s">
         <v>161</v>
       </c>
       <c r="F61" s="13" t="s">
@@ -15091,7 +15089,7 @@
       <c r="U61" s="13"/>
       <c r="V61" s="13"/>
     </row>
-    <row r="62" spans="1:22" ht="38.1" x14ac:dyDescent="0.6">
+    <row r="62" spans="1:22" ht="39" x14ac:dyDescent="0.3">
       <c r="A62" s="13" t="s">
         <v>128</v>
       </c>
@@ -15104,7 +15102,7 @@
       <c r="D62" s="13" t="s">
         <v>546</v>
       </c>
-      <c r="E62" s="31" t="s">
+      <c r="E62" s="28" t="s">
         <v>189</v>
       </c>
       <c r="F62" s="13" t="s">
@@ -15149,7 +15147,7 @@
       <c r="U62" s="13"/>
       <c r="V62" s="13"/>
     </row>
-    <row r="63" spans="1:22" ht="38.1" x14ac:dyDescent="0.6">
+    <row r="63" spans="1:22" ht="39" x14ac:dyDescent="0.3">
       <c r="A63" s="13" t="s">
         <v>128</v>
       </c>
@@ -15162,7 +15160,7 @@
       <c r="D63" s="13" t="s">
         <v>547</v>
       </c>
-      <c r="E63" s="31" t="s">
+      <c r="E63" s="28" t="s">
         <v>193</v>
       </c>
       <c r="F63" s="13" t="s">
@@ -15207,7 +15205,7 @@
       <c r="U63" s="13"/>
       <c r="V63" s="13"/>
     </row>
-    <row r="64" spans="1:22" ht="38.1" x14ac:dyDescent="0.6">
+    <row r="64" spans="1:22" ht="39" x14ac:dyDescent="0.3">
       <c r="A64" s="13" t="s">
         <v>128</v>
       </c>
@@ -15220,7 +15218,7 @@
       <c r="D64" s="13" t="s">
         <v>548</v>
       </c>
-      <c r="E64" s="31" t="s">
+      <c r="E64" s="28" t="s">
         <v>173</v>
       </c>
       <c r="F64" s="13" t="s">
@@ -15265,7 +15263,7 @@
       <c r="U64" s="13"/>
       <c r="V64" s="13"/>
     </row>
-    <row r="65" spans="1:22" ht="38.1" x14ac:dyDescent="0.6">
+    <row r="65" spans="1:22" ht="39" x14ac:dyDescent="0.3">
       <c r="A65" s="13" t="s">
         <v>128</v>
       </c>
@@ -15278,7 +15276,7 @@
       <c r="D65" s="13" t="s">
         <v>549</v>
       </c>
-      <c r="E65" s="31" t="s">
+      <c r="E65" s="28" t="s">
         <v>181</v>
       </c>
       <c r="F65" s="13" t="s">
@@ -15323,7 +15321,7 @@
       <c r="U65" s="13"/>
       <c r="V65" s="13"/>
     </row>
-    <row r="66" spans="1:22" ht="38.1" x14ac:dyDescent="0.6">
+    <row r="66" spans="1:22" ht="39" x14ac:dyDescent="0.3">
       <c r="A66" s="13" t="s">
         <v>128</v>
       </c>
@@ -15336,7 +15334,7 @@
       <c r="D66" s="13" t="s">
         <v>550</v>
       </c>
-      <c r="E66" s="31" t="s">
+      <c r="E66" s="28" t="s">
         <v>169</v>
       </c>
       <c r="F66" s="13" t="s">
@@ -15381,7 +15379,7 @@
       <c r="U66" s="13"/>
       <c r="V66" s="13"/>
     </row>
-    <row r="67" spans="1:22" ht="38.1" x14ac:dyDescent="0.6">
+    <row r="67" spans="1:22" ht="39" x14ac:dyDescent="0.3">
       <c r="A67" s="13" t="s">
         <v>128</v>
       </c>
@@ -15394,7 +15392,7 @@
       <c r="D67" s="13" t="s">
         <v>551</v>
       </c>
-      <c r="E67" s="31" t="s">
+      <c r="E67" s="28" t="s">
         <v>151</v>
       </c>
       <c r="F67" s="13" t="s">
@@ -15439,7 +15437,7 @@
       <c r="U67" s="13"/>
       <c r="V67" s="13"/>
     </row>
-    <row r="68" spans="1:22" ht="38.1" x14ac:dyDescent="0.6">
+    <row r="68" spans="1:22" ht="39" x14ac:dyDescent="0.3">
       <c r="A68" s="13" t="s">
         <v>128</v>
       </c>
@@ -15452,7 +15450,7 @@
       <c r="D68" s="13" t="s">
         <v>552</v>
       </c>
-      <c r="E68" s="31" t="s">
+      <c r="E68" s="28" t="s">
         <v>185</v>
       </c>
       <c r="F68" s="13" t="s">
@@ -15497,7 +15495,7 @@
       <c r="U68" s="13"/>
       <c r="V68" s="13"/>
     </row>
-    <row r="69" spans="1:22" ht="38.1" x14ac:dyDescent="0.6">
+    <row r="69" spans="1:22" ht="39" x14ac:dyDescent="0.3">
       <c r="A69" s="13" t="s">
         <v>128</v>
       </c>
@@ -15510,7 +15508,7 @@
       <c r="D69" s="13" t="s">
         <v>553</v>
       </c>
-      <c r="E69" s="31" t="s">
+      <c r="E69" s="28" t="s">
         <v>187</v>
       </c>
       <c r="F69" s="13" t="s">
@@ -15555,7 +15553,7 @@
       <c r="U69" s="13"/>
       <c r="V69" s="13"/>
     </row>
-    <row r="70" spans="1:22" ht="38.1" x14ac:dyDescent="0.6">
+    <row r="70" spans="1:22" ht="39" x14ac:dyDescent="0.3">
       <c r="A70" s="13" t="s">
         <v>128</v>
       </c>
@@ -15568,7 +15566,7 @@
       <c r="D70" s="13" t="s">
         <v>554</v>
       </c>
-      <c r="E70" s="31" t="s">
+      <c r="E70" s="28" t="s">
         <v>183</v>
       </c>
       <c r="F70" s="13" t="s">
@@ -15613,7 +15611,7 @@
       <c r="U70" s="13"/>
       <c r="V70" s="13"/>
     </row>
-    <row r="71" spans="1:22" ht="38.1" x14ac:dyDescent="0.6">
+    <row r="71" spans="1:22" ht="39" x14ac:dyDescent="0.3">
       <c r="A71" s="13" t="s">
         <v>128</v>
       </c>
@@ -15626,7 +15624,7 @@
       <c r="D71" s="13" t="s">
         <v>555</v>
       </c>
-      <c r="E71" s="31" t="s">
+      <c r="E71" s="28" t="s">
         <v>153</v>
       </c>
       <c r="F71" s="13" t="s">
@@ -15671,7 +15669,7 @@
       <c r="U71" s="13"/>
       <c r="V71" s="13"/>
     </row>
-    <row r="72" spans="1:22" ht="38.1" x14ac:dyDescent="0.6">
+    <row r="72" spans="1:22" ht="39" x14ac:dyDescent="0.3">
       <c r="A72" s="13" t="s">
         <v>128</v>
       </c>
@@ -15684,7 +15682,7 @@
       <c r="D72" s="13" t="s">
         <v>556</v>
       </c>
-      <c r="E72" s="31" t="s">
+      <c r="E72" s="28" t="s">
         <v>159</v>
       </c>
       <c r="F72" s="13" t="s">
@@ -15729,7 +15727,7 @@
       <c r="U72" s="13"/>
       <c r="V72" s="13"/>
     </row>
-    <row r="73" spans="1:22" ht="38.1" x14ac:dyDescent="0.6">
+    <row r="73" spans="1:22" ht="39" x14ac:dyDescent="0.3">
       <c r="A73" s="13" t="s">
         <v>128</v>
       </c>
@@ -15742,7 +15740,7 @@
       <c r="D73" s="13" t="s">
         <v>557</v>
       </c>
-      <c r="E73" s="31" t="s">
+      <c r="E73" s="28" t="s">
         <v>179</v>
       </c>
       <c r="F73" s="13" t="s">
@@ -15787,7 +15785,7 @@
       <c r="U73" s="13"/>
       <c r="V73" s="13"/>
     </row>
-    <row r="74" spans="1:22" ht="38.1" x14ac:dyDescent="0.6">
+    <row r="74" spans="1:22" ht="39" x14ac:dyDescent="0.3">
       <c r="A74" s="13" t="s">
         <v>125</v>
       </c>
@@ -15798,7 +15796,7 @@
         <v>232</v>
       </c>
       <c r="D74" s="13"/>
-      <c r="E74" s="31"/>
+      <c r="E74" s="28"/>
       <c r="F74" s="13"/>
       <c r="G74" s="13" t="s">
         <v>628</v>
@@ -15829,7 +15827,7 @@
       <c r="U74" s="13"/>
       <c r="V74" s="13"/>
     </row>
-    <row r="75" spans="1:22" ht="46.8" x14ac:dyDescent="0.6">
+    <row r="75" spans="1:22" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A75" s="13" t="s">
         <v>128</v>
       </c>
@@ -15842,7 +15840,7 @@
       <c r="D75" s="13" t="s">
         <v>559</v>
       </c>
-      <c r="E75" s="31" t="s">
+      <c r="E75" s="28" t="s">
         <v>272</v>
       </c>
       <c r="F75" s="13" t="s">
@@ -15887,7 +15885,7 @@
       <c r="U75" s="13"/>
       <c r="V75" s="13"/>
     </row>
-    <row r="76" spans="1:22" ht="38.1" x14ac:dyDescent="0.6">
+    <row r="76" spans="1:22" ht="39" x14ac:dyDescent="0.3">
       <c r="A76" s="13" t="s">
         <v>128</v>
       </c>
@@ -15900,7 +15898,7 @@
       <c r="D76" s="13" t="s">
         <v>560</v>
       </c>
-      <c r="E76" s="31" t="s">
+      <c r="E76" s="28" t="s">
         <v>274</v>
       </c>
       <c r="F76" s="13" t="s">
@@ -15945,7 +15943,7 @@
       <c r="U76" s="13"/>
       <c r="V76" s="13"/>
     </row>
-    <row r="77" spans="1:22" ht="62.7" x14ac:dyDescent="0.6">
+    <row r="77" spans="1:22" ht="64.2" x14ac:dyDescent="0.3">
       <c r="A77" s="13" t="s">
         <v>128</v>
       </c>
@@ -15958,7 +15956,7 @@
       <c r="D77" s="13" t="s">
         <v>561</v>
       </c>
-      <c r="E77" s="31" t="s">
+      <c r="E77" s="28" t="s">
         <v>240</v>
       </c>
       <c r="F77" s="13" t="s">
@@ -16005,7 +16003,7 @@
       <c r="U77" s="13"/>
       <c r="V77" s="13"/>
     </row>
-    <row r="78" spans="1:22" ht="62.7" x14ac:dyDescent="0.6">
+    <row r="78" spans="1:22" ht="64.2" x14ac:dyDescent="0.3">
       <c r="A78" s="13" t="s">
         <v>128</v>
       </c>
@@ -16018,7 +16016,7 @@
       <c r="D78" s="13" t="s">
         <v>562</v>
       </c>
-      <c r="E78" s="31" t="s">
+      <c r="E78" s="28" t="s">
         <v>266</v>
       </c>
       <c r="F78" s="13" t="s">
@@ -16065,7 +16063,7 @@
       <c r="U78" s="13"/>
       <c r="V78" s="13"/>
     </row>
-    <row r="79" spans="1:22" ht="38.1" x14ac:dyDescent="0.6">
+    <row r="79" spans="1:22" ht="39" x14ac:dyDescent="0.3">
       <c r="A79" s="13" t="s">
         <v>128</v>
       </c>
@@ -16078,7 +16076,7 @@
       <c r="D79" s="13" t="s">
         <v>563</v>
       </c>
-      <c r="E79" s="31" t="s">
+      <c r="E79" s="28" t="s">
         <v>248</v>
       </c>
       <c r="F79" s="13" t="s">
@@ -16123,7 +16121,7 @@
       <c r="U79" s="13"/>
       <c r="V79" s="13"/>
     </row>
-    <row r="80" spans="1:22" ht="62.7" x14ac:dyDescent="0.6">
+    <row r="80" spans="1:22" ht="64.2" x14ac:dyDescent="0.3">
       <c r="A80" s="13" t="s">
         <v>128</v>
       </c>
@@ -16136,7 +16134,7 @@
       <c r="D80" s="13" t="s">
         <v>564</v>
       </c>
-      <c r="E80" s="31" t="s">
+      <c r="E80" s="28" t="s">
         <v>264</v>
       </c>
       <c r="F80" s="13" t="s">
@@ -16183,7 +16181,7 @@
       <c r="U80" s="13"/>
       <c r="V80" s="13"/>
     </row>
-    <row r="81" spans="1:22" ht="62.7" x14ac:dyDescent="0.6">
+    <row r="81" spans="1:22" ht="64.2" x14ac:dyDescent="0.3">
       <c r="A81" s="13" t="s">
         <v>128</v>
       </c>
@@ -16196,7 +16194,7 @@
       <c r="D81" s="13" t="s">
         <v>565</v>
       </c>
-      <c r="E81" s="31" t="s">
+      <c r="E81" s="28" t="s">
         <v>236</v>
       </c>
       <c r="F81" s="13" t="s">
@@ -16243,7 +16241,7 @@
       <c r="U81" s="13"/>
       <c r="V81" s="13"/>
     </row>
-    <row r="82" spans="1:22" ht="38.1" x14ac:dyDescent="0.6">
+    <row r="82" spans="1:22" ht="39" x14ac:dyDescent="0.3">
       <c r="A82" s="13" t="s">
         <v>128</v>
       </c>
@@ -16256,7 +16254,7 @@
       <c r="D82" s="13" t="s">
         <v>566</v>
       </c>
-      <c r="E82" s="31" t="s">
+      <c r="E82" s="28" t="s">
         <v>252</v>
       </c>
       <c r="F82" s="13" t="s">
@@ -16301,7 +16299,7 @@
       <c r="U82" s="13"/>
       <c r="V82" s="13"/>
     </row>
-    <row r="83" spans="1:22" ht="38.1" x14ac:dyDescent="0.6">
+    <row r="83" spans="1:22" ht="39" x14ac:dyDescent="0.3">
       <c r="A83" s="13" t="s">
         <v>128</v>
       </c>
@@ -16314,7 +16312,7 @@
       <c r="D83" s="13" t="s">
         <v>567</v>
       </c>
-      <c r="E83" s="31" t="s">
+      <c r="E83" s="28" t="s">
         <v>244</v>
       </c>
       <c r="F83" s="13" t="s">
@@ -16359,7 +16357,7 @@
       <c r="U83" s="13"/>
       <c r="V83" s="13"/>
     </row>
-    <row r="84" spans="1:22" ht="38.1" x14ac:dyDescent="0.6">
+    <row r="84" spans="1:22" ht="39" x14ac:dyDescent="0.3">
       <c r="A84" s="13" t="s">
         <v>128</v>
       </c>
@@ -16372,7 +16370,7 @@
       <c r="D84" s="13" t="s">
         <v>568</v>
       </c>
-      <c r="E84" s="31" t="s">
+      <c r="E84" s="28" t="s">
         <v>278</v>
       </c>
       <c r="F84" s="13" t="s">
@@ -16417,7 +16415,7 @@
       <c r="U84" s="13"/>
       <c r="V84" s="13"/>
     </row>
-    <row r="85" spans="1:22" ht="38.1" x14ac:dyDescent="0.6">
+    <row r="85" spans="1:22" ht="39" x14ac:dyDescent="0.3">
       <c r="A85" s="13" t="s">
         <v>128</v>
       </c>
@@ -16430,7 +16428,7 @@
       <c r="D85" s="13" t="s">
         <v>569</v>
       </c>
-      <c r="E85" s="31" t="s">
+      <c r="E85" s="28" t="s">
         <v>282</v>
       </c>
       <c r="F85" s="13" t="s">
@@ -16475,7 +16473,7 @@
       <c r="U85" s="13"/>
       <c r="V85" s="13"/>
     </row>
-    <row r="86" spans="1:22" ht="38.1" x14ac:dyDescent="0.6">
+    <row r="86" spans="1:22" ht="39" x14ac:dyDescent="0.3">
       <c r="A86" s="13" t="s">
         <v>128</v>
       </c>
@@ -16488,7 +16486,7 @@
       <c r="D86" s="13" t="s">
         <v>570</v>
       </c>
-      <c r="E86" s="31" t="s">
+      <c r="E86" s="28" t="s">
         <v>256</v>
       </c>
       <c r="F86" s="13" t="s">
@@ -16533,7 +16531,7 @@
       <c r="U86" s="13"/>
       <c r="V86" s="13"/>
     </row>
-    <row r="87" spans="1:22" ht="38.1" x14ac:dyDescent="0.6">
+    <row r="87" spans="1:22" ht="39" x14ac:dyDescent="0.3">
       <c r="A87" s="13" t="s">
         <v>128</v>
       </c>
@@ -16546,7 +16544,7 @@
       <c r="D87" s="13" t="s">
         <v>571</v>
       </c>
-      <c r="E87" s="31" t="s">
+      <c r="E87" s="28" t="s">
         <v>280</v>
       </c>
       <c r="F87" s="13" t="s">
@@ -16591,7 +16589,7 @@
       <c r="U87" s="13"/>
       <c r="V87" s="13"/>
     </row>
-    <row r="88" spans="1:22" ht="38.1" x14ac:dyDescent="0.6">
+    <row r="88" spans="1:22" ht="39" x14ac:dyDescent="0.3">
       <c r="A88" s="13" t="s">
         <v>128</v>
       </c>
@@ -16604,7 +16602,7 @@
       <c r="D88" s="13" t="s">
         <v>572</v>
       </c>
-      <c r="E88" s="31" t="s">
+      <c r="E88" s="28" t="s">
         <v>246</v>
       </c>
       <c r="F88" s="13" t="s">
@@ -16649,7 +16647,7 @@
       <c r="U88" s="13"/>
       <c r="V88" s="13"/>
     </row>
-    <row r="89" spans="1:22" ht="38.1" x14ac:dyDescent="0.6">
+    <row r="89" spans="1:22" ht="39" x14ac:dyDescent="0.3">
       <c r="A89" s="13" t="s">
         <v>128</v>
       </c>
@@ -16662,7 +16660,7 @@
       <c r="D89" s="13" t="s">
         <v>573</v>
       </c>
-      <c r="E89" s="31" t="s">
+      <c r="E89" s="28" t="s">
         <v>258</v>
       </c>
       <c r="F89" s="13" t="s">
@@ -16707,7 +16705,7 @@
       <c r="U89" s="13"/>
       <c r="V89" s="13"/>
     </row>
-    <row r="90" spans="1:22" ht="38.1" x14ac:dyDescent="0.6">
+    <row r="90" spans="1:22" ht="39" x14ac:dyDescent="0.3">
       <c r="A90" s="13" t="s">
         <v>128</v>
       </c>
@@ -16720,7 +16718,7 @@
       <c r="D90" s="13" t="s">
         <v>574</v>
       </c>
-      <c r="E90" s="31" t="s">
+      <c r="E90" s="28" t="s">
         <v>242</v>
       </c>
       <c r="F90" s="13" t="s">
@@ -16765,7 +16763,7 @@
       <c r="U90" s="13"/>
       <c r="V90" s="13"/>
     </row>
-    <row r="91" spans="1:22" ht="62.7" x14ac:dyDescent="0.6">
+    <row r="91" spans="1:22" ht="64.2" x14ac:dyDescent="0.3">
       <c r="A91" s="13" t="s">
         <v>128</v>
       </c>
@@ -16778,7 +16776,7 @@
       <c r="D91" s="13" t="s">
         <v>575</v>
       </c>
-      <c r="E91" s="31" t="s">
+      <c r="E91" s="28" t="s">
         <v>268</v>
       </c>
       <c r="F91" s="13" t="s">
@@ -16825,7 +16823,7 @@
       <c r="U91" s="13"/>
       <c r="V91" s="13"/>
     </row>
-    <row r="92" spans="1:22" ht="62.7" x14ac:dyDescent="0.6">
+    <row r="92" spans="1:22" ht="64.2" x14ac:dyDescent="0.3">
       <c r="A92" s="13" t="s">
         <v>128</v>
       </c>
@@ -16838,7 +16836,7 @@
       <c r="D92" s="13" t="s">
         <v>576</v>
       </c>
-      <c r="E92" s="31" t="s">
+      <c r="E92" s="28" t="s">
         <v>270</v>
       </c>
       <c r="F92" s="13" t="s">
@@ -16885,7 +16883,7 @@
       <c r="U92" s="13"/>
       <c r="V92" s="13"/>
     </row>
-    <row r="93" spans="1:22" ht="38.1" x14ac:dyDescent="0.6">
+    <row r="93" spans="1:22" ht="39" x14ac:dyDescent="0.3">
       <c r="A93" s="13" t="s">
         <v>128</v>
       </c>
@@ -16898,7 +16896,7 @@
       <c r="D93" s="13" t="s">
         <v>577</v>
       </c>
-      <c r="E93" s="31" t="s">
+      <c r="E93" s="28" t="s">
         <v>238</v>
       </c>
       <c r="F93" s="13" t="s">
@@ -16943,7 +16941,7 @@
       <c r="U93" s="13"/>
       <c r="V93" s="13"/>
     </row>
-    <row r="94" spans="1:22" ht="38.1" x14ac:dyDescent="0.6">
+    <row r="94" spans="1:22" ht="39" x14ac:dyDescent="0.3">
       <c r="A94" s="13" t="s">
         <v>128</v>
       </c>
@@ -16956,7 +16954,7 @@
       <c r="D94" s="13" t="s">
         <v>578</v>
       </c>
-      <c r="E94" s="31" t="s">
+      <c r="E94" s="28" t="s">
         <v>250</v>
       </c>
       <c r="F94" s="13" t="s">
@@ -17001,7 +16999,7 @@
       <c r="U94" s="13"/>
       <c r="V94" s="13"/>
     </row>
-    <row r="95" spans="1:22" ht="38.1" x14ac:dyDescent="0.6">
+    <row r="95" spans="1:22" ht="39" x14ac:dyDescent="0.3">
       <c r="A95" s="13" t="s">
         <v>128</v>
       </c>
@@ -17014,7 +17012,7 @@
       <c r="D95" s="13" t="s">
         <v>579</v>
       </c>
-      <c r="E95" s="31" t="s">
+      <c r="E95" s="28" t="s">
         <v>276</v>
       </c>
       <c r="F95" s="13" t="s">
@@ -17059,7 +17057,7 @@
       <c r="U95" s="13"/>
       <c r="V95" s="13"/>
     </row>
-    <row r="96" spans="1:22" ht="38.1" x14ac:dyDescent="0.6">
+    <row r="96" spans="1:22" ht="39" x14ac:dyDescent="0.3">
       <c r="A96" s="13" t="s">
         <v>128</v>
       </c>
@@ -17072,7 +17070,7 @@
       <c r="D96" s="13" t="s">
         <v>580</v>
       </c>
-      <c r="E96" s="31" t="s">
+      <c r="E96" s="28" t="s">
         <v>254</v>
       </c>
       <c r="F96" s="13" t="s">
@@ -17117,7 +17115,7 @@
       <c r="U96" s="13"/>
       <c r="V96" s="13"/>
     </row>
-    <row r="97" spans="1:22" ht="38.1" x14ac:dyDescent="0.6">
+    <row r="97" spans="1:22" ht="39" x14ac:dyDescent="0.3">
       <c r="A97" s="13" t="s">
         <v>128</v>
       </c>
@@ -17130,7 +17128,7 @@
       <c r="D97" s="13" t="s">
         <v>581</v>
       </c>
-      <c r="E97" s="31" t="s">
+      <c r="E97" s="28" t="s">
         <v>260</v>
       </c>
       <c r="F97" s="13" t="s">
@@ -17175,7 +17173,7 @@
       <c r="U97" s="13"/>
       <c r="V97" s="13"/>
     </row>
-    <row r="98" spans="1:22" ht="38.1" x14ac:dyDescent="0.6">
+    <row r="98" spans="1:22" ht="39" x14ac:dyDescent="0.3">
       <c r="A98" s="13" t="s">
         <v>128</v>
       </c>
@@ -17188,7 +17186,7 @@
       <c r="D98" s="13" t="s">
         <v>582</v>
       </c>
-      <c r="E98" s="31" t="s">
+      <c r="E98" s="28" t="s">
         <v>234</v>
       </c>
       <c r="F98" s="13" t="s">
@@ -17233,7 +17231,7 @@
       <c r="U98" s="13"/>
       <c r="V98" s="13"/>
     </row>
-    <row r="99" spans="1:22" ht="62.7" x14ac:dyDescent="0.6">
+    <row r="99" spans="1:22" ht="64.2" x14ac:dyDescent="0.3">
       <c r="A99" s="13" t="s">
         <v>128</v>
       </c>
@@ -17246,7 +17244,7 @@
       <c r="D99" s="13" t="s">
         <v>583</v>
       </c>
-      <c r="E99" s="31" t="s">
+      <c r="E99" s="28" t="s">
         <v>262</v>
       </c>
       <c r="F99" s="13" t="s">
@@ -17293,7 +17291,7 @@
       <c r="U99" s="13"/>
       <c r="V99" s="13"/>
     </row>
-    <row r="100" spans="1:22" ht="25.8" x14ac:dyDescent="0.6">
+    <row r="100" spans="1:22" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A100" s="13" t="s">
         <v>125</v>
       </c>
@@ -17304,7 +17302,7 @@
         <v>437</v>
       </c>
       <c r="D100" s="13"/>
-      <c r="E100" s="31"/>
+      <c r="E100" s="28"/>
       <c r="F100" s="13"/>
       <c r="G100" s="13" t="s">
         <v>628</v>
@@ -17335,7 +17333,7 @@
       <c r="U100" s="13"/>
       <c r="V100" s="13"/>
     </row>
-    <row r="101" spans="1:22" ht="38.1" x14ac:dyDescent="0.6">
+    <row r="101" spans="1:22" ht="39" x14ac:dyDescent="0.3">
       <c r="A101" s="13" t="s">
         <v>128</v>
       </c>
@@ -17348,7 +17346,7 @@
       <c r="D101" s="13" t="s">
         <v>585</v>
       </c>
-      <c r="E101" s="31" t="s">
+      <c r="E101" s="28" t="s">
         <v>450</v>
       </c>
       <c r="F101" s="13" t="s">
@@ -17393,7 +17391,7 @@
       <c r="U101" s="13"/>
       <c r="V101" s="13"/>
     </row>
-    <row r="102" spans="1:22" ht="38.1" x14ac:dyDescent="0.6">
+    <row r="102" spans="1:22" ht="39" x14ac:dyDescent="0.3">
       <c r="A102" s="13" t="s">
         <v>128</v>
       </c>
@@ -17406,7 +17404,7 @@
       <c r="D102" s="13" t="s">
         <v>586</v>
       </c>
-      <c r="E102" s="31" t="s">
+      <c r="E102" s="28" t="s">
         <v>460</v>
       </c>
       <c r="F102" s="13" t="s">
@@ -17451,7 +17449,7 @@
       <c r="U102" s="13"/>
       <c r="V102" s="13"/>
     </row>
-    <row r="103" spans="1:22" ht="38.1" x14ac:dyDescent="0.6">
+    <row r="103" spans="1:22" ht="39" x14ac:dyDescent="0.3">
       <c r="A103" s="13" t="s">
         <v>128</v>
       </c>
@@ -17464,7 +17462,7 @@
       <c r="D103" s="13" t="s">
         <v>587</v>
       </c>
-      <c r="E103" s="31" t="s">
+      <c r="E103" s="28" t="s">
         <v>448</v>
       </c>
       <c r="F103" s="13" t="s">
@@ -17509,7 +17507,7 @@
       <c r="U103" s="13"/>
       <c r="V103" s="13"/>
     </row>
-    <row r="104" spans="1:22" ht="38.1" x14ac:dyDescent="0.6">
+    <row r="104" spans="1:22" ht="39" x14ac:dyDescent="0.3">
       <c r="A104" s="13" t="s">
         <v>128</v>
       </c>
@@ -17522,7 +17520,7 @@
       <c r="D104" s="13" t="s">
         <v>588</v>
       </c>
-      <c r="E104" s="31" t="s">
+      <c r="E104" s="28" t="s">
         <v>441</v>
       </c>
       <c r="F104" s="13" t="s">
@@ -17567,7 +17565,7 @@
       <c r="U104" s="13"/>
       <c r="V104" s="13"/>
     </row>
-    <row r="105" spans="1:22" ht="38.1" x14ac:dyDescent="0.6">
+    <row r="105" spans="1:22" ht="39" x14ac:dyDescent="0.3">
       <c r="A105" s="13" t="s">
         <v>128</v>
       </c>
@@ -17580,7 +17578,7 @@
       <c r="D105" s="13" t="s">
         <v>589</v>
       </c>
-      <c r="E105" s="31" t="s">
+      <c r="E105" s="28" t="s">
         <v>439</v>
       </c>
       <c r="F105" s="13" t="s">
@@ -17625,7 +17623,7 @@
       <c r="U105" s="13"/>
       <c r="V105" s="13"/>
     </row>
-    <row r="106" spans="1:22" ht="38.1" x14ac:dyDescent="0.6">
+    <row r="106" spans="1:22" ht="39" x14ac:dyDescent="0.3">
       <c r="A106" s="13" t="s">
         <v>128</v>
       </c>
@@ -17638,7 +17636,7 @@
       <c r="D106" s="13" t="s">
         <v>590</v>
       </c>
-      <c r="E106" s="31" t="s">
+      <c r="E106" s="28" t="s">
         <v>452</v>
       </c>
       <c r="F106" s="13" t="s">
@@ -17683,7 +17681,7 @@
       <c r="U106" s="13"/>
       <c r="V106" s="13"/>
     </row>
-    <row r="107" spans="1:22" ht="38.1" x14ac:dyDescent="0.6">
+    <row r="107" spans="1:22" ht="39" x14ac:dyDescent="0.3">
       <c r="A107" s="13" t="s">
         <v>128</v>
       </c>
@@ -17696,7 +17694,7 @@
       <c r="D107" s="13" t="s">
         <v>591</v>
       </c>
-      <c r="E107" s="31" t="s">
+      <c r="E107" s="28" t="s">
         <v>444</v>
       </c>
       <c r="F107" s="13" t="s">
@@ -17741,7 +17739,7 @@
       <c r="U107" s="13"/>
       <c r="V107" s="13"/>
     </row>
-    <row r="108" spans="1:22" ht="38.1" x14ac:dyDescent="0.6">
+    <row r="108" spans="1:22" ht="39" x14ac:dyDescent="0.3">
       <c r="A108" s="13" t="s">
         <v>128</v>
       </c>
@@ -17754,7 +17752,7 @@
       <c r="D108" s="13" t="s">
         <v>592</v>
       </c>
-      <c r="E108" s="31" t="s">
+      <c r="E108" s="28" t="s">
         <v>211</v>
       </c>
       <c r="F108" s="13" t="s">
@@ -17799,7 +17797,7 @@
       <c r="U108" s="13"/>
       <c r="V108" s="13"/>
     </row>
-    <row r="109" spans="1:22" ht="38.1" x14ac:dyDescent="0.6">
+    <row r="109" spans="1:22" ht="39" x14ac:dyDescent="0.3">
       <c r="A109" s="13" t="s">
         <v>128</v>
       </c>
@@ -17812,7 +17810,7 @@
       <c r="D109" s="13" t="s">
         <v>593</v>
       </c>
-      <c r="E109" s="31" t="s">
+      <c r="E109" s="28" t="s">
         <v>462</v>
       </c>
       <c r="F109" s="13" t="s">
@@ -17857,7 +17855,7 @@
       <c r="U109" s="13"/>
       <c r="V109" s="13"/>
     </row>
-    <row r="110" spans="1:22" ht="38.1" x14ac:dyDescent="0.6">
+    <row r="110" spans="1:22" ht="39" x14ac:dyDescent="0.3">
       <c r="A110" s="13" t="s">
         <v>128</v>
       </c>
@@ -17870,7 +17868,7 @@
       <c r="D110" s="13" t="s">
         <v>594</v>
       </c>
-      <c r="E110" s="31" t="s">
+      <c r="E110" s="28" t="s">
         <v>456</v>
       </c>
       <c r="F110" s="13" t="s">
@@ -17915,7 +17913,7 @@
       <c r="U110" s="13"/>
       <c r="V110" s="13"/>
     </row>
-    <row r="111" spans="1:22" ht="38.1" x14ac:dyDescent="0.6">
+    <row r="111" spans="1:22" ht="39" x14ac:dyDescent="0.3">
       <c r="A111" s="13" t="s">
         <v>128</v>
       </c>
@@ -17928,7 +17926,7 @@
       <c r="D111" s="13" t="s">
         <v>595</v>
       </c>
-      <c r="E111" s="31" t="s">
+      <c r="E111" s="28" t="s">
         <v>454</v>
       </c>
       <c r="F111" s="13" t="s">
@@ -17973,7 +17971,7 @@
       <c r="U111" s="13"/>
       <c r="V111" s="13"/>
     </row>
-    <row r="112" spans="1:22" ht="38.1" x14ac:dyDescent="0.6">
+    <row r="112" spans="1:22" ht="39" x14ac:dyDescent="0.3">
       <c r="A112" s="13" t="s">
         <v>128</v>
       </c>
@@ -17986,7 +17984,7 @@
       <c r="D112" s="13" t="s">
         <v>596</v>
       </c>
-      <c r="E112" s="31" t="s">
+      <c r="E112" s="28" t="s">
         <v>458</v>
       </c>
       <c r="F112" s="13" t="s">
@@ -18031,7 +18029,7 @@
       <c r="U112" s="13"/>
       <c r="V112" s="13"/>
     </row>
-    <row r="113" spans="1:22" ht="38.1" x14ac:dyDescent="0.6">
+    <row r="113" spans="1:22" ht="39" x14ac:dyDescent="0.3">
       <c r="A113" s="13" t="s">
         <v>128</v>
       </c>
@@ -18044,7 +18042,7 @@
       <c r="D113" s="13" t="s">
         <v>597</v>
       </c>
-      <c r="E113" s="31" t="s">
+      <c r="E113" s="28" t="s">
         <v>446</v>
       </c>
       <c r="F113" s="13" t="s">
@@ -18089,7 +18087,7 @@
       <c r="U113" s="13"/>
       <c r="V113" s="13"/>
     </row>
-    <row r="114" spans="1:22" ht="25.8" x14ac:dyDescent="0.6">
+    <row r="114" spans="1:22" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A114" s="13" t="s">
         <v>125</v>
       </c>
@@ -18100,7 +18098,7 @@
         <v>350</v>
       </c>
       <c r="D114" s="13"/>
-      <c r="E114" s="31"/>
+      <c r="E114" s="28"/>
       <c r="F114" s="13"/>
       <c r="G114" s="13" t="s">
         <v>628</v>
@@ -18131,7 +18129,7 @@
       <c r="U114" s="13"/>
       <c r="V114" s="13"/>
     </row>
-    <row r="115" spans="1:22" ht="38.1" x14ac:dyDescent="0.6">
+    <row r="115" spans="1:22" ht="39" x14ac:dyDescent="0.3">
       <c r="A115" s="13" t="s">
         <v>128</v>
       </c>
@@ -18144,7 +18142,7 @@
       <c r="D115" s="13" t="s">
         <v>599</v>
       </c>
-      <c r="E115" s="31" t="s">
+      <c r="E115" s="28" t="s">
         <v>372</v>
       </c>
       <c r="F115" s="13" t="s">
@@ -18189,7 +18187,7 @@
       <c r="U115" s="13"/>
       <c r="V115" s="13"/>
     </row>
-    <row r="116" spans="1:22" ht="38.1" x14ac:dyDescent="0.6">
+    <row r="116" spans="1:22" ht="39" x14ac:dyDescent="0.3">
       <c r="A116" s="13" t="s">
         <v>128</v>
       </c>
@@ -18202,7 +18200,7 @@
       <c r="D116" s="13" t="s">
         <v>600</v>
       </c>
-      <c r="E116" s="31" t="s">
+      <c r="E116" s="28" t="s">
         <v>360</v>
       </c>
       <c r="F116" s="13" t="s">
@@ -18247,7 +18245,7 @@
       <c r="U116" s="13"/>
       <c r="V116" s="13"/>
     </row>
-    <row r="117" spans="1:22" ht="38.1" x14ac:dyDescent="0.6">
+    <row r="117" spans="1:22" ht="39" x14ac:dyDescent="0.3">
       <c r="A117" s="13" t="s">
         <v>128</v>
       </c>
@@ -18260,7 +18258,7 @@
       <c r="D117" s="13" t="s">
         <v>601</v>
       </c>
-      <c r="E117" s="31" t="s">
+      <c r="E117" s="28" t="s">
         <v>362</v>
       </c>
       <c r="F117" s="13" t="s">
@@ -18305,7 +18303,7 @@
       <c r="U117" s="13"/>
       <c r="V117" s="13"/>
     </row>
-    <row r="118" spans="1:22" ht="38.1" x14ac:dyDescent="0.6">
+    <row r="118" spans="1:22" ht="39" x14ac:dyDescent="0.3">
       <c r="A118" s="13" t="s">
         <v>128</v>
       </c>
@@ -18318,7 +18316,7 @@
       <c r="D118" s="13" t="s">
         <v>602</v>
       </c>
-      <c r="E118" s="31" t="s">
+      <c r="E118" s="28" t="s">
         <v>364</v>
       </c>
       <c r="F118" s="13" t="s">
@@ -18363,7 +18361,7 @@
       <c r="U118" s="13"/>
       <c r="V118" s="13"/>
     </row>
-    <row r="119" spans="1:22" ht="38.1" x14ac:dyDescent="0.6">
+    <row r="119" spans="1:22" ht="39" x14ac:dyDescent="0.3">
       <c r="A119" s="13" t="s">
         <v>128</v>
       </c>
@@ -18376,7 +18374,7 @@
       <c r="D119" s="13" t="s">
         <v>603</v>
       </c>
-      <c r="E119" s="31" t="s">
+      <c r="E119" s="28" t="s">
         <v>352</v>
       </c>
       <c r="F119" s="13" t="s">
@@ -18421,7 +18419,7 @@
       <c r="U119" s="13"/>
       <c r="V119" s="13"/>
     </row>
-    <row r="120" spans="1:22" ht="38.1" x14ac:dyDescent="0.6">
+    <row r="120" spans="1:22" ht="39" x14ac:dyDescent="0.3">
       <c r="A120" s="13" t="s">
         <v>128</v>
       </c>
@@ -18434,7 +18432,7 @@
       <c r="D120" s="13" t="s">
         <v>604</v>
       </c>
-      <c r="E120" s="31" t="s">
+      <c r="E120" s="28" t="s">
         <v>366</v>
       </c>
       <c r="F120" s="13" t="s">
@@ -18479,7 +18477,7 @@
       <c r="U120" s="13"/>
       <c r="V120" s="13"/>
     </row>
-    <row r="121" spans="1:22" ht="38.1" x14ac:dyDescent="0.6">
+    <row r="121" spans="1:22" ht="39" x14ac:dyDescent="0.3">
       <c r="A121" s="13" t="s">
         <v>128</v>
       </c>
@@ -18492,7 +18490,7 @@
       <c r="D121" s="13" t="s">
         <v>605</v>
       </c>
-      <c r="E121" s="31" t="s">
+      <c r="E121" s="28" t="s">
         <v>370</v>
       </c>
       <c r="F121" s="13" t="s">
@@ -18537,7 +18535,7 @@
       <c r="U121" s="13"/>
       <c r="V121" s="13"/>
     </row>
-    <row r="122" spans="1:22" ht="38.1" x14ac:dyDescent="0.6">
+    <row r="122" spans="1:22" ht="39" x14ac:dyDescent="0.3">
       <c r="A122" s="13" t="s">
         <v>128</v>
       </c>
@@ -18550,7 +18548,7 @@
       <c r="D122" s="13" t="s">
         <v>606</v>
       </c>
-      <c r="E122" s="31" t="s">
+      <c r="E122" s="28" t="s">
         <v>358</v>
       </c>
       <c r="F122" s="13" t="s">
@@ -18595,7 +18593,7 @@
       <c r="U122" s="13"/>
       <c r="V122" s="13"/>
     </row>
-    <row r="123" spans="1:22" ht="38.1" x14ac:dyDescent="0.6">
+    <row r="123" spans="1:22" ht="39" x14ac:dyDescent="0.3">
       <c r="A123" s="13" t="s">
         <v>128</v>
       </c>
@@ -18608,7 +18606,7 @@
       <c r="D123" s="13" t="s">
         <v>607</v>
       </c>
-      <c r="E123" s="31" t="s">
+      <c r="E123" s="28" t="s">
         <v>356</v>
       </c>
       <c r="F123" s="13" t="s">
@@ -18653,7 +18651,7 @@
       <c r="U123" s="13"/>
       <c r="V123" s="13"/>
     </row>
-    <row r="124" spans="1:22" ht="38.1" x14ac:dyDescent="0.6">
+    <row r="124" spans="1:22" ht="39" x14ac:dyDescent="0.3">
       <c r="A124" s="13" t="s">
         <v>128</v>
       </c>
@@ -18666,7 +18664,7 @@
       <c r="D124" s="13" t="s">
         <v>608</v>
       </c>
-      <c r="E124" s="31" t="s">
+      <c r="E124" s="28" t="s">
         <v>374</v>
       </c>
       <c r="F124" s="13" t="s">
@@ -18711,7 +18709,7 @@
       <c r="U124" s="13"/>
       <c r="V124" s="13"/>
     </row>
-    <row r="125" spans="1:22" ht="38.1" x14ac:dyDescent="0.6">
+    <row r="125" spans="1:22" ht="39" x14ac:dyDescent="0.3">
       <c r="A125" s="13" t="s">
         <v>128</v>
       </c>
@@ -18724,7 +18722,7 @@
       <c r="D125" s="13" t="s">
         <v>609</v>
       </c>
-      <c r="E125" s="31" t="s">
+      <c r="E125" s="28" t="s">
         <v>354</v>
       </c>
       <c r="F125" s="13" t="s">
@@ -18769,7 +18767,7 @@
       <c r="U125" s="13"/>
       <c r="V125" s="13"/>
     </row>
-    <row r="126" spans="1:22" ht="38.1" x14ac:dyDescent="0.6">
+    <row r="126" spans="1:22" ht="39" x14ac:dyDescent="0.3">
       <c r="A126" s="13" t="s">
         <v>128</v>
       </c>
@@ -18782,7 +18780,7 @@
       <c r="D126" s="13" t="s">
         <v>610</v>
       </c>
-      <c r="E126" s="31" t="s">
+      <c r="E126" s="28" t="s">
         <v>368</v>
       </c>
       <c r="F126" s="13" t="s">
@@ -18827,7 +18825,7 @@
       <c r="U126" s="13"/>
       <c r="V126" s="13"/>
     </row>
-    <row r="127" spans="1:22" ht="25.8" x14ac:dyDescent="0.6">
+    <row r="127" spans="1:22" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A127" s="13" t="s">
         <v>125</v>
       </c>
@@ -18838,7 +18836,7 @@
         <v>126</v>
       </c>
       <c r="D127" s="13"/>
-      <c r="E127" s="31"/>
+      <c r="E127" s="28"/>
       <c r="F127" s="13"/>
       <c r="G127" s="13" t="s">
         <v>628</v>
@@ -18869,7 +18867,7 @@
       <c r="U127" s="13"/>
       <c r="V127" s="13"/>
     </row>
-    <row r="128" spans="1:22" ht="38.1" x14ac:dyDescent="0.6">
+    <row r="128" spans="1:22" ht="39" x14ac:dyDescent="0.3">
       <c r="A128" s="13" t="s">
         <v>128</v>
       </c>
@@ -18882,7 +18880,7 @@
       <c r="D128" s="13" t="s">
         <v>612</v>
       </c>
-      <c r="E128" s="31" t="s">
+      <c r="E128" s="28" t="s">
         <v>129</v>
       </c>
       <c r="F128" s="13" t="s">
@@ -18927,7 +18925,7 @@
       <c r="U128" s="13"/>
       <c r="V128" s="13"/>
     </row>
-    <row r="129" spans="1:22" ht="38.1" x14ac:dyDescent="0.6">
+    <row r="129" spans="1:22" ht="39" x14ac:dyDescent="0.3">
       <c r="A129" s="13" t="s">
         <v>128</v>
       </c>
@@ -18940,7 +18938,7 @@
       <c r="D129" s="13" t="s">
         <v>613</v>
       </c>
-      <c r="E129" s="31" t="s">
+      <c r="E129" s="28" t="s">
         <v>135</v>
       </c>
       <c r="F129" s="13" t="s">
@@ -18985,7 +18983,7 @@
       <c r="U129" s="13"/>
       <c r="V129" s="13"/>
     </row>
-    <row r="130" spans="1:22" ht="38.1" x14ac:dyDescent="0.6">
+    <row r="130" spans="1:22" ht="39" x14ac:dyDescent="0.3">
       <c r="A130" s="13" t="s">
         <v>128</v>
       </c>
@@ -18998,7 +18996,7 @@
       <c r="D130" s="13" t="s">
         <v>614</v>
       </c>
-      <c r="E130" s="31" t="s">
+      <c r="E130" s="28" t="s">
         <v>137</v>
       </c>
       <c r="F130" s="13" t="s">
@@ -19043,7 +19041,7 @@
       <c r="U130" s="13"/>
       <c r="V130" s="13"/>
     </row>
-    <row r="131" spans="1:22" ht="38.1" x14ac:dyDescent="0.6">
+    <row r="131" spans="1:22" ht="39" x14ac:dyDescent="0.3">
       <c r="A131" s="13" t="s">
         <v>128</v>
       </c>
@@ -19056,7 +19054,7 @@
       <c r="D131" s="13" t="s">
         <v>615</v>
       </c>
-      <c r="E131" s="31" t="s">
+      <c r="E131" s="28" t="s">
         <v>141</v>
       </c>
       <c r="F131" s="13" t="s">
@@ -19101,7 +19099,7 @@
       <c r="U131" s="13"/>
       <c r="V131" s="13"/>
     </row>
-    <row r="132" spans="1:22" ht="38.1" x14ac:dyDescent="0.6">
+    <row r="132" spans="1:22" ht="39" x14ac:dyDescent="0.3">
       <c r="A132" s="13" t="s">
         <v>128</v>
       </c>
@@ -19114,7 +19112,7 @@
       <c r="D132" s="13" t="s">
         <v>616</v>
       </c>
-      <c r="E132" s="31" t="s">
+      <c r="E132" s="28" t="s">
         <v>131</v>
       </c>
       <c r="F132" s="13" t="s">
@@ -19159,7 +19157,7 @@
       <c r="U132" s="13"/>
       <c r="V132" s="13"/>
     </row>
-    <row r="133" spans="1:22" ht="38.1" x14ac:dyDescent="0.6">
+    <row r="133" spans="1:22" ht="39" x14ac:dyDescent="0.3">
       <c r="A133" s="13" t="s">
         <v>128</v>
       </c>
@@ -19172,7 +19170,7 @@
       <c r="D133" s="13" t="s">
         <v>617</v>
       </c>
-      <c r="E133" s="31" t="s">
+      <c r="E133" s="28" t="s">
         <v>143</v>
       </c>
       <c r="F133" s="13" t="s">
@@ -19217,7 +19215,7 @@
       <c r="U133" s="13"/>
       <c r="V133" s="13"/>
     </row>
-    <row r="134" spans="1:22" ht="38.1" x14ac:dyDescent="0.6">
+    <row r="134" spans="1:22" ht="39" x14ac:dyDescent="0.3">
       <c r="A134" s="13" t="s">
         <v>128</v>
       </c>
@@ -19230,7 +19228,7 @@
       <c r="D134" s="13" t="s">
         <v>618</v>
       </c>
-      <c r="E134" s="31" t="s">
+      <c r="E134" s="28" t="s">
         <v>133</v>
       </c>
       <c r="F134" s="13" t="s">
@@ -19275,7 +19273,7 @@
       <c r="U134" s="13"/>
       <c r="V134" s="13"/>
     </row>
-    <row r="135" spans="1:22" ht="38.1" x14ac:dyDescent="0.6">
+    <row r="135" spans="1:22" ht="39" x14ac:dyDescent="0.3">
       <c r="A135" s="13" t="s">
         <v>128</v>
       </c>
@@ -19288,7 +19286,7 @@
       <c r="D135" s="13" t="s">
         <v>619</v>
       </c>
-      <c r="E135" s="31" t="s">
+      <c r="E135" s="28" t="s">
         <v>139</v>
       </c>
       <c r="F135" s="13" t="s">
@@ -19333,7 +19331,7 @@
       <c r="U135" s="13"/>
       <c r="V135" s="13"/>
     </row>
-    <row r="136" spans="1:22" ht="25.8" x14ac:dyDescent="0.6">
+    <row r="136" spans="1:22" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A136" s="13" t="s">
         <v>476</v>
       </c>
@@ -19344,7 +19342,7 @@
         <v>477</v>
       </c>
       <c r="D136" s="13"/>
-      <c r="E136" s="31"/>
+      <c r="E136" s="28"/>
       <c r="F136" s="13"/>
       <c r="G136" s="13" t="s">
         <v>628</v>
@@ -19371,7 +19369,7 @@
       <c r="U136" s="13"/>
       <c r="V136" s="13"/>
     </row>
-    <row r="137" spans="1:22" ht="25.8" x14ac:dyDescent="0.6">
+    <row r="137" spans="1:22" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A137" s="13" t="s">
         <v>476</v>
       </c>
@@ -19382,7 +19380,7 @@
         <v>479</v>
       </c>
       <c r="D137" s="13"/>
-      <c r="E137" s="31"/>
+      <c r="E137" s="28"/>
       <c r="F137" s="13"/>
       <c r="G137" s="13" t="s">
         <v>628</v>
@@ -19409,7 +19407,7 @@
       <c r="U137" s="13"/>
       <c r="V137" s="13"/>
     </row>
-    <row r="138" spans="1:22" ht="25.8" x14ac:dyDescent="0.6">
+    <row r="138" spans="1:22" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A138" s="13" t="s">
         <v>476</v>
       </c>
@@ -19420,7 +19418,7 @@
         <v>481</v>
       </c>
       <c r="D138" s="13"/>
-      <c r="E138" s="31"/>
+      <c r="E138" s="28"/>
       <c r="F138" s="13"/>
       <c r="G138" s="13" t="s">
         <v>628</v>
@@ -19447,7 +19445,7 @@
       <c r="U138" s="13"/>
       <c r="V138" s="13"/>
     </row>
-    <row r="139" spans="1:22" ht="25.8" x14ac:dyDescent="0.6">
+    <row r="139" spans="1:22" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A139" s="13" t="s">
         <v>476</v>
       </c>
@@ -19458,7 +19456,7 @@
         <v>483</v>
       </c>
       <c r="D139" s="13"/>
-      <c r="E139" s="31"/>
+      <c r="E139" s="28"/>
       <c r="F139" s="13"/>
       <c r="G139" s="13" t="s">
         <v>628</v>
@@ -19485,7 +19483,7 @@
       <c r="U139" s="13"/>
       <c r="V139" s="13"/>
     </row>
-    <row r="140" spans="1:22" ht="25.8" x14ac:dyDescent="0.6">
+    <row r="140" spans="1:22" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A140" s="13" t="s">
         <v>476</v>
       </c>
@@ -19496,7 +19494,7 @@
         <v>485</v>
       </c>
       <c r="D140" s="13"/>
-      <c r="E140" s="31"/>
+      <c r="E140" s="28"/>
       <c r="F140" s="13"/>
       <c r="G140" s="13" t="s">
         <v>628</v>
@@ -19549,23 +19547,23 @@
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.76171875" defaultRowHeight="12.3" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="10.7265625" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="25.85546875" style="1" customWidth="1"/>
-    <col min="2" max="5" width="21.47265625" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="10.76171875" style="1"/>
+    <col min="1" max="1" width="25.81640625" style="1" customWidth="1"/>
+    <col min="2" max="5" width="21.453125" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="10.7265625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="24.3" x14ac:dyDescent="0.7">
-      <c r="A1" s="28" t="s">
+    <row r="1" spans="1:6" ht="24.6" x14ac:dyDescent="0.4">
+      <c r="A1" s="29" t="s">
         <v>97</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-    </row>
-    <row r="2" spans="1:6" ht="29.4" x14ac:dyDescent="0.4">
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+    </row>
+    <row r="2" spans="1:6" ht="32.4" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
         <v>12</v>
       </c>
@@ -19582,7 +19580,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="3" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="8"/>
       <c r="B3" s="8"/>
       <c r="C3" s="8"/>
@@ -19616,49 +19614,49 @@
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.76171875" defaultRowHeight="15.6" x14ac:dyDescent="0.6"/>
+  <sheetFormatPr defaultColWidth="10.7265625" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.47265625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.47265625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="16.37890625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.37890625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="37.47265625" style="2" customWidth="1"/>
-    <col min="6" max="13" width="11.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.140625" style="2" customWidth="1"/>
-    <col min="16" max="24" width="18.85546875" style="2" customWidth="1"/>
-    <col min="25" max="16384" width="10.76171875" style="1"/>
+    <col min="1" max="1" width="21.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.453125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="16.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.36328125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="37.453125" style="2" customWidth="1"/>
+    <col min="6" max="13" width="11.81640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.1796875" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.1796875" style="2" customWidth="1"/>
+    <col min="16" max="24" width="18.81640625" style="2" customWidth="1"/>
+    <col min="25" max="16384" width="10.7265625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="24.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
-      <c r="A1" s="28" t="s">
+    <row r="1" spans="1:24" ht="24.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="29" t="s">
         <v>777</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
-      <c r="G1" s="29"/>
-      <c r="H1" s="29"/>
-      <c r="I1" s="29"/>
-      <c r="J1" s="29"/>
-      <c r="K1" s="29"/>
-      <c r="L1" s="29"/>
-      <c r="M1" s="29"/>
-      <c r="N1" s="29"/>
-      <c r="O1" s="29"/>
-      <c r="P1" s="29"/>
-      <c r="Q1" s="29"/>
-      <c r="R1" s="29"/>
-      <c r="S1" s="29"/>
-      <c r="T1" s="29"/>
-      <c r="U1" s="29"/>
-      <c r="V1" s="29"/>
-      <c r="W1" s="29"/>
-      <c r="X1" s="29"/>
-    </row>
-    <row r="2" spans="1:24" ht="29.7" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="30"/>
+      <c r="J1" s="30"/>
+      <c r="K1" s="30"/>
+      <c r="L1" s="30"/>
+      <c r="M1" s="30"/>
+      <c r="N1" s="30"/>
+      <c r="O1" s="30"/>
+      <c r="P1" s="30"/>
+      <c r="Q1" s="30"/>
+      <c r="R1" s="30"/>
+      <c r="S1" s="30"/>
+      <c r="T1" s="30"/>
+      <c r="U1" s="30"/>
+      <c r="V1" s="30"/>
+      <c r="W1" s="30"/>
+      <c r="X1" s="30"/>
+    </row>
+    <row r="2" spans="1:24" ht="33" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>9</v>
       </c>
@@ -19732,7 +19730,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="3" spans="1:24" ht="62.4" x14ac:dyDescent="0.6">
+    <row r="3" spans="1:24" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
         <v>620</v>
       </c>
@@ -19804,7 +19802,7 @@
         <v>785</v>
       </c>
     </row>
-    <row r="4" spans="1:24" ht="62.4" x14ac:dyDescent="0.6">
+    <row r="4" spans="1:24" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>621</v>
       </c>
@@ -19875,7 +19873,7 @@
         <v>785</v>
       </c>
     </row>
-    <row r="5" spans="1:24" ht="62.4" x14ac:dyDescent="0.6">
+    <row r="5" spans="1:24" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>622</v>
       </c>
@@ -19946,7 +19944,7 @@
         <v>785</v>
       </c>
     </row>
-    <row r="6" spans="1:24" ht="62.4" x14ac:dyDescent="0.6">
+    <row r="6" spans="1:24" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>623</v>
       </c>
@@ -20017,7 +20015,7 @@
         <v>785</v>
       </c>
     </row>
-    <row r="7" spans="1:24" ht="62.4" x14ac:dyDescent="0.6">
+    <row r="7" spans="1:24" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>624</v>
       </c>
@@ -20088,7 +20086,7 @@
         <v>785</v>
       </c>
     </row>
-    <row r="8" spans="1:24" ht="62.4" x14ac:dyDescent="0.6">
+    <row r="8" spans="1:24" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A8" s="13" t="s">
         <v>625</v>
       </c>
@@ -20099,68 +20097,68 @@
       <c r="D8" s="13" t="s">
         <v>326</v>
       </c>
-      <c r="E8" s="31" t="s">
+      <c r="E8" s="28" t="s">
         <v>778</v>
       </c>
-      <c r="F8" s="31" t="s">
+      <c r="F8" s="28" t="s">
         <v>638</v>
       </c>
-      <c r="G8" s="31" t="s">
+      <c r="G8" s="28" t="s">
         <v>779</v>
       </c>
-      <c r="H8" s="31" t="s">
+      <c r="H8" s="28" t="s">
         <v>780</v>
       </c>
-      <c r="I8" s="31" t="s">
+      <c r="I8" s="28" t="s">
         <v>781</v>
       </c>
-      <c r="J8" s="31" t="s">
+      <c r="J8" s="28" t="s">
         <v>782</v>
       </c>
-      <c r="K8" s="31" t="s">
+      <c r="K8" s="28" t="s">
         <v>783</v>
       </c>
-      <c r="L8" s="31" t="s">
+      <c r="L8" s="28" t="s">
         <v>784</v>
       </c>
-      <c r="M8" s="31" t="s">
+      <c r="M8" s="28" t="s">
         <v>785</v>
       </c>
-      <c r="N8" s="31" t="s">
+      <c r="N8" s="28" t="s">
         <v>558</v>
       </c>
-      <c r="O8" s="31" t="s">
+      <c r="O8" s="28" t="s">
         <v>232</v>
       </c>
-      <c r="P8" s="31" t="s">
+      <c r="P8" s="28" t="s">
         <v>778</v>
       </c>
-      <c r="Q8" s="31" t="s">
+      <c r="Q8" s="28" t="s">
         <v>638</v>
       </c>
-      <c r="R8" s="31" t="s">
+      <c r="R8" s="28" t="s">
         <v>779</v>
       </c>
-      <c r="S8" s="31" t="s">
+      <c r="S8" s="28" t="s">
         <v>780</v>
       </c>
-      <c r="T8" s="31" t="s">
+      <c r="T8" s="28" t="s">
         <v>781</v>
       </c>
-      <c r="U8" s="31" t="s">
+      <c r="U8" s="28" t="s">
         <v>782</v>
       </c>
-      <c r="V8" s="31" t="s">
+      <c r="V8" s="28" t="s">
         <v>783</v>
       </c>
-      <c r="W8" s="31" t="s">
+      <c r="W8" s="28" t="s">
         <v>786</v>
       </c>
-      <c r="X8" s="31" t="s">
+      <c r="X8" s="28" t="s">
         <v>785</v>
       </c>
     </row>
-    <row r="9" spans="1:24" ht="62.4" x14ac:dyDescent="0.6">
+    <row r="9" spans="1:24" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A9" s="13" t="s">
         <v>626</v>
       </c>
@@ -20171,64 +20169,64 @@
       <c r="D9" s="13" t="s">
         <v>284</v>
       </c>
-      <c r="E9" s="31" t="s">
+      <c r="E9" s="28" t="s">
         <v>778</v>
       </c>
-      <c r="F9" s="31" t="s">
+      <c r="F9" s="28" t="s">
         <v>638</v>
       </c>
-      <c r="G9" s="31" t="s">
+      <c r="G9" s="28" t="s">
         <v>779</v>
       </c>
-      <c r="H9" s="31" t="s">
+      <c r="H9" s="28" t="s">
         <v>780</v>
       </c>
-      <c r="I9" s="31" t="s">
+      <c r="I9" s="28" t="s">
         <v>781</v>
       </c>
-      <c r="J9" s="31" t="s">
+      <c r="J9" s="28" t="s">
         <v>782</v>
       </c>
-      <c r="K9" s="31" t="s">
+      <c r="K9" s="28" t="s">
         <v>783</v>
       </c>
-      <c r="L9" s="31" t="s">
+      <c r="L9" s="28" t="s">
         <v>784</v>
       </c>
-      <c r="M9" s="31" t="s">
+      <c r="M9" s="28" t="s">
         <v>785</v>
       </c>
-      <c r="N9" s="31" t="s">
+      <c r="N9" s="28" t="s">
         <v>558</v>
       </c>
-      <c r="O9" s="31" t="s">
+      <c r="O9" s="28" t="s">
         <v>232</v>
       </c>
-      <c r="P9" s="31" t="s">
+      <c r="P9" s="28" t="s">
         <v>778</v>
       </c>
-      <c r="Q9" s="31" t="s">
+      <c r="Q9" s="28" t="s">
         <v>638</v>
       </c>
-      <c r="R9" s="31" t="s">
+      <c r="R9" s="28" t="s">
         <v>779</v>
       </c>
-      <c r="S9" s="31" t="s">
+      <c r="S9" s="28" t="s">
         <v>780</v>
       </c>
-      <c r="T9" s="31" t="s">
+      <c r="T9" s="28" t="s">
         <v>781</v>
       </c>
-      <c r="U9" s="31" t="s">
+      <c r="U9" s="28" t="s">
         <v>782</v>
       </c>
-      <c r="V9" s="31" t="s">
+      <c r="V9" s="28" t="s">
         <v>783</v>
       </c>
-      <c r="W9" s="31" t="s">
+      <c r="W9" s="28" t="s">
         <v>786</v>
       </c>
-      <c r="X9" s="31" t="s">
+      <c r="X9" s="28" t="s">
         <v>785</v>
       </c>
     </row>
@@ -20263,28 +20261,28 @@
       <selection activeCell="B2" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.76171875" defaultRowHeight="15.6" x14ac:dyDescent="0.6"/>
+  <sheetFormatPr defaultColWidth="10.7265625" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.47265625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="4" width="21.47265625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="13.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.140625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="22.85546875" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="10.76171875" style="1"/>
+    <col min="1" max="1" width="21.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="21.453125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="13.1796875" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.1796875" style="2" customWidth="1"/>
+    <col min="7" max="7" width="22.81640625" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="10.7265625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="24.3" x14ac:dyDescent="0.7">
-      <c r="A1" s="28" t="s">
+    <row r="1" spans="1:8" ht="24.6" x14ac:dyDescent="0.4">
+      <c r="A1" s="29" t="s">
         <v>787</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
-      <c r="G1" s="29"/>
-    </row>
-    <row r="2" spans="1:8" ht="29.4" x14ac:dyDescent="0.4">
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+    </row>
+    <row r="2" spans="1:8" ht="32.4" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
         <v>7</v>
       </c>
@@ -20307,7 +20305,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="24.6" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:8" ht="25.2" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>121</v>
       </c>
@@ -20331,7 +20329,7 @@
       </c>
       <c r="H3" s="3"/>
     </row>
-    <row r="4" spans="1:8" ht="24.6" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:8" ht="25.2" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>121</v>
       </c>
@@ -20354,7 +20352,7 @@
         <v>790</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="24.6" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:8" ht="25.2" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>121</v>
       </c>
@@ -20377,7 +20375,7 @@
         <v>790</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="36.9" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:8" ht="37.799999999999997" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>121</v>
       </c>
@@ -20400,7 +20398,7 @@
         <v>790</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="36.9" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:8" ht="37.799999999999997" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>121</v>
       </c>
@@ -20423,7 +20421,7 @@
         <v>790</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="24.6" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:8" ht="25.2" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>121</v>
       </c>
@@ -20446,7 +20444,7 @@
         <v>790</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="24.6" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:8" ht="25.2" x14ac:dyDescent="0.2">
       <c r="A9" s="13" t="s">
         <v>121</v>
       </c>
@@ -20469,7 +20467,7 @@
         <v>790</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="24.6" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:8" ht="25.2" x14ac:dyDescent="0.2">
       <c r="A10" s="13" t="s">
         <v>121</v>
       </c>
@@ -20492,7 +20490,7 @@
         <v>790</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="24.6" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:8" ht="25.2" x14ac:dyDescent="0.2">
       <c r="A11" s="13" t="s">
         <v>121</v>
       </c>
@@ -20540,27 +20538,27 @@
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.76171875" defaultRowHeight="15.6" x14ac:dyDescent="0.6"/>
+  <sheetFormatPr defaultColWidth="10.7265625" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.47265625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.47265625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="16.37890625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="16.37890625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="14.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="10.76171875" style="1"/>
+    <col min="1" max="1" width="21.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.453125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="16.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="16.36328125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="14.1796875" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="10.7265625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="24.6" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A1" s="28" t="s">
+    <row r="1" spans="1:6" ht="24.6" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="29" t="s">
         <v>807</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
-    </row>
-    <row r="2" spans="1:6" ht="29.4" x14ac:dyDescent="0.4">
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+    </row>
+    <row r="2" spans="1:6" ht="16.2" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
         <v>7</v>
       </c>
@@ -20580,7 +20578,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="62.4" x14ac:dyDescent="0.6">
+    <row r="3" spans="1:6" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
         <v>121</v>
       </c>
@@ -20600,7 +20598,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="62.4" x14ac:dyDescent="0.6">
+    <row r="4" spans="1:6" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>121</v>
       </c>
@@ -20620,7 +20618,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="62.4" x14ac:dyDescent="0.6">
+    <row r="5" spans="1:6" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>121</v>
       </c>
@@ -20640,7 +20638,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="62.4" x14ac:dyDescent="0.6">
+    <row r="6" spans="1:6" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>121</v>
       </c>
@@ -20660,7 +20658,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="62.4" x14ac:dyDescent="0.6">
+    <row r="7" spans="1:6" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>121</v>
       </c>
@@ -20680,7 +20678,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="62.4" x14ac:dyDescent="0.6">
+    <row r="8" spans="1:6" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A8" s="13" t="s">
         <v>121</v>
       </c>
@@ -20696,11 +20694,11 @@
       <c r="E8" s="13" t="s">
         <v>558</v>
       </c>
-      <c r="F8" s="31" t="s">
+      <c r="F8" s="28" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="62.4" x14ac:dyDescent="0.6">
+    <row r="9" spans="1:6" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A9" s="13" t="s">
         <v>121</v>
       </c>
@@ -20716,7 +20714,7 @@
       <c r="E9" s="13" t="s">
         <v>558</v>
       </c>
-      <c r="F9" s="31" t="s">
+      <c r="F9" s="28" t="s">
         <v>232</v>
       </c>
     </row>
@@ -20747,30 +20745,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADB2BA5E-EBE2-4F04-91C3-A237F36C0CD1}">
   <dimension ref="A1:I12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.76171875" defaultRowHeight="12.3" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="10.7265625" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="21.47265625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="8" width="21.47265625" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="10.76171875" style="1"/>
+    <col min="1" max="1" width="21.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="8" width="21.453125" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="10.7265625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="24.3" x14ac:dyDescent="0.7">
-      <c r="A1" s="28" t="s">
+    <row r="1" spans="1:9" ht="24.6" x14ac:dyDescent="0.4">
+      <c r="A1" s="29" t="s">
         <v>808</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="29"/>
-      <c r="G1" s="29"/>
-      <c r="H1" s="29"/>
-    </row>
-    <row r="2" spans="1:9" ht="29.4" x14ac:dyDescent="0.4">
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
+    </row>
+    <row r="2" spans="1:9" ht="32.4" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
         <v>7</v>
       </c>
@@ -20796,7 +20794,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="24.6" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:9" ht="25.2" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>121</v>
       </c>
@@ -20817,7 +20815,7 @@
       </c>
       <c r="I3" s="3"/>
     </row>
-    <row r="4" spans="1:9" ht="24.6" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:9" ht="25.2" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>121</v>
       </c>
@@ -20834,7 +20832,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="24.6" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:9" ht="25.2" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>121</v>
       </c>
@@ -20851,7 +20849,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="24.6" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:9" ht="25.2" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>121</v>
       </c>
@@ -20868,7 +20866,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="36.9" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:9" ht="37.799999999999997" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>121</v>
       </c>
@@ -20885,7 +20883,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="36.9" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:9" ht="37.799999999999997" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>121</v>
       </c>
@@ -20902,7 +20900,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="24.6" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:9" ht="25.2" x14ac:dyDescent="0.2">
       <c r="A9" s="13" t="s">
         <v>121</v>
       </c>
@@ -20922,7 +20920,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="24.6" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:9" ht="25.2" x14ac:dyDescent="0.2">
       <c r="A10" s="13" t="s">
         <v>121</v>
       </c>
@@ -20942,7 +20940,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="24.6" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:9" ht="25.2" x14ac:dyDescent="0.2">
       <c r="A11" s="13" t="s">
         <v>121</v>
       </c>
@@ -20962,7 +20960,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="24.6" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:9" ht="25.2" x14ac:dyDescent="0.2">
       <c r="A12" s="13" t="s">
         <v>121</v>
       </c>
